--- a/data/726四分类法.xlsx
+++ b/data/726四分类法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23145" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>原始文本</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>glm4_predict</t>
+  </si>
+  <si>
+    <t>qwen_predict</t>
   </si>
   <si>
     <t xml:space="preserve">请袁艺喊“开始上课”，声音要响亮啊。同学们好，请坐。真棒。昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。“猴子”。昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？好，现在用眼睛看，用心记住这个字，“猴子”。哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？谁来说说？于凯，你来说说看。你慢讲啊。嗯，然后呢？然后种了杏树。最后呢？最后还种了桃树。到最后怎么样啊？好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。非常棒，请坐。我们像他一样，用一句话把这个故事，哎，就讲出来了。来，我们一起来试试看。“猴子种了”。瞧，咱们一句话就能把故事的意思讲出来了。小朋友们真能干。好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？那等一下啊。好，你来读。“猴子”。嗯嗯，你先不要坐下，这个”天天“说明什么呀，嗯，细心，还有呢，他每天都去浇， 天天都去浇水施肥，说明他怎么样 ，对，非常勤劳，猴子是不是很勤劳，你们看这个猴子种树啊，它有一个动作的过程，你们找到了动作了吗， </t>
@@ -127,6 +130,37 @@
   {"type": "讲解", "content": "好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？那等一下啊。"},
   {"type": "发起", "content": "好，你来读。“猴子”。"},
   {"type": "其它", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"type":"其它","content":"请袁艺喊‘开始上课’，声音要响亮啊。"},
+  {"type":"其它","content":"同学们好，请坐。"},
+  {"type":"评价","content":"真棒。"},
+  {"type":"讲解","content":"昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。‘猴子’。"},
+  {"type":"讲解","content":"昨天在写作业的时候呀，小朋友要注意哦。这个‘猴’，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？"},
+  {"type":"讲解","content":"好，现在用眼睛看，用心记住这个字，‘猴子’。"},
+  {"type":"讲解","content":"哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。"},
+  {"type":"发起","content":"它分别种了什么树呢？谁来说说？"},
+  {"type":"发起","content":"于凯，你来说说看。"},
+  {"type":"其它","content":"你慢讲啊。"},
+  {"type":"其它","content":"嗯，然后呢？"},
+  {"type":"讲解","content":"然后种了杏树。"},
+  {"type":"发起","content":"最后呢？"},
+  {"type":"讲解","content":"最后还种了桃树。"},
+  {"type":"发起","content":"到最后怎么样啊？"},
+  {"type":"发起","content":"好，于凯，你能不能连起来把这句话来说一说？‘猴子种了’。"},
+  {"type":"评价","content":"非常棒，请坐。"},
+  {"type":"讲解","content":"我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
+  {"type":"发起","content":"来，我们一起来试试看。‘猴子种了’。"},
+  {"type":"讲解","content":"瞧，咱们一句话就能把故事的意思讲出来了。"},
+  {"type":"评价","content":"小朋友们真能干。"},
+  {"type":"发起","content":"好，那我们来看看哦，他为什么什么都没种成呢？"},
+  {"type":"发起","content":"我们来读课文的第一段。"},
+  {"type":"发起","content":"来，谁来读？"},
+  {"type":"其它","content":"那等一下啊。"},
+  {"type":"发起","content":"好，你来读。‘猴子’。"},
+  {"type":"发起","content":"嗯嗯，你先不要坐下，这个‘天天’说明什么呀？"}
 ]</t>
   </si>
   <si>
@@ -282,6 +316,48 @@
 ]</t>
   </si>
   <si>
+    <t>[
+  {"type":"其它","content":"嗯，细心。"},
+  {"type":"发起","content":"还有呢？"},
+  {"type":"讲解","content":"他每天都去浇，天天都去浇水施肥。说明他怎么样？"},
+  {"type":"评价","content":"对，非常勤劳。"},
+  {"type":"发起","content":"猴子是不是很勤劳？"},
+  {"type":"讲解","content":"你们看，这个猴子种树啊，它有一个动作的过程。"},
+  {"type":"发起","content":"你们找到了动作了吗？"},
+  {"type":"发起","content":"好，你来。"},
+  {"type":"发起","content":"现在就直接浇水了吗？"},
+  {"type":"发起","content":"然后呢？"},
+  {"type":"讲解","content":"嗯，施肥。然后等着将来可以吃梨子了。"},
+  {"type":"发起","content":"好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？"},
+  {"type":"发起","content":"来。"},
+  {"type":"发起","content":"好，谁来把故事的开头讲给我们听？"},
+  {"type":"发起","content":"刘若涵，"},
+  {"type":"评价","content":"哇，这只猴子呀，真勤劳。"},
+  {"type":"其它","content":"而且我看出来了，你整的口水都快流出来了，是不是？"},
+  {"type":"评价","content":"好，非常好。"},
+  {"type":"发起","content":"那接下来我要加大难度了。"},
+  {"type":"发起","content":"唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
+  {"type":"发起","content":"张文婷，"},
+  {"type":"评价","content":"棒不棒？"},
+  {"type":"评价","content":"好熟练啊，把故事啊，这么大声的就告诉我们了。"},
+  {"type":"评价","content":"非常好。"},
+  {"type":"发起","content":"这时候谁来？"},
+  {"type":"发起","content":"这时候谁来？"},
+  {"type":"发起","content":"你说，乌鸦来。"},
+  {"type":"发起","content":"好，乌鸦哇哇的对猴子说了什么呢？"},
+  {"type":"发起","content":"谁来做一下乌鸦？"},
+  {"type":"发起","content":"董新磊，"},
+  {"type":"评价","content":"哦，这只小乌鸦读的真好，读的真顺畅啊。"},
+  {"type":"发起","content":"再请一只小乌鸦，"},
+  {"type":"发起","content":"好，你来小乌鸦。"},
+  {"type":"其它","content":"哎，小乌鸦你等等啊。"},
+  {"type":"发起","content":"你为什么要连喊两声“猴哥”呀？"},
+  {"type":"发起","content":"叫一声就可以了呀。"},
+  {"type":"发起","content":"你为什么还连喊两声呀？"},
+  {"type":"发起","content":"你觉得猴哥可能会听不见，是不是啊？"}
+]</t>
+  </si>
+  <si>
     <t>好的，你连叫两声， 猴哥给我听听，哎，猴哥听见了来，我们学着他的样子， 小乌鸦们叫两声猴哥，，猴哥听见了，好， 小乌鸦继续说下去，你怎么种了梨树呢， 这句话什么意思，哎，你怎么种梨树呢，我给你两个选择好不好， 一是你不可以种梨树， 是不是这个意思，还是说你可以种梨树，应该是第一个选项， 是不是，你怎么种梨树，意思就是说你不是可以种梨树啊， 是不是啊，哎这里来一个反问， 这个语气怎么样就更着急了，对不对，这小乌鸦很着急呀， 想劝猴子呀，是不是啊，好， 来小乌鸦继续劝下去，好，农谚是什么意思，你说，好，这个农谚啊就是农民伯伯， 他们不是长期的在农田里劳动吗，他们把长期劳动的经验浓缩成简单一句话，这里的农谚是什么，对梨五杏四是什么意思啊，你看这么长的话，它用四个字就能概括，是不是啊，很好说了一句农谚， 小乌鸦对着猴哥说了一句农谚，接着说下去，哎呀，小乌鸦你在这里又来了一问，说明你怎么样啊，哦， 你有这个耐心吗，就是说你没这个耐心啊， 是不是啊，你看这里又来一问， 语气就更强烈真棒，</t>
   </si>
   <si>
@@ -421,6 +497,33 @@
   {"type": "讲解", "content": "哦，你有这个耐心吗？就是说你没这个耐心啊，是不是啊？你看，这里又来一问，语气就更强烈。"},
   {"type": "评价", "content": "真棒。"},
   {"type": "其它", "content": "我给你两个选择，好不好？"}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"type":"其它", "content":"好的，你连叫两声。"},
+  {"type":"其它", "content":"猴哥，给我听听。"},
+  {"type":"其它", "content":"哎，猴哥听见了。"},
+  {"type":"发起", "content":"来，我们学着他的样子。小乌鸦们，叫两声猴哥。"},
+  {"type":"其它","content":"猴哥听见了。"},
+  {"type":"发起", "content":"好，小乌鸦继续说下去。"},
+  {"type":"发起", "content":"哎，你怎么种梨树呢？"},
+  {"type":"发起", "content":"我给你两个选择，好不好？"},
+  {"type":"讲解", "content":"一是你不可以种梨树，是不是这个意思？还是说你可以种梨树？应该是第一个选项，是不是？你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
+  {"type":"讲解", "content":"哎，这里来一个反问。这个语气怎么样？就更着急了，对不对？这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
+  {"type":"发起", "content":"好，来，小乌鸦继续劝下去。"},
+  {"type":"发起", "content":"好，农谚是什么意思？你说。"},
+  {"type":"讲解", "content":"好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。"},
+  {"type":"发起", "content":"这里的农谚是什么？“对梨五杏四”是什么意思啊？"},
+  {"type":"讲解", "content":"你看，这么长的话，它用四个字就能概括，是不是啊？"},
+  {"type":"评价", "content":"很好，说了一句农谚。"},
+  {"type":"讲解", "content":"小乌鸦对着猴哥说了一句农谚。"},
+  {"type":"发起", "content":"接着说下去。"},
+  {"type":"讲解", "content":"哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
+  {"type":"发起", "content":"哦，你有这个耐心吗？"},
+  {"type":"讲解", "content":"就是说你没这个耐心啊，是不是啊？"},
+  {"type":"讲解", "content":"你看，这里又来一问，语气就更强烈。"},
+  {"type":"评价", "content":"真棒。"}
 ]</t>
   </si>
   <si>
@@ -531,6 +634,48 @@
 ]</t>
   </si>
   <si>
+    <t>[
+  {"type":"发起","content":"哪知小乌鸦再来试试看，再来劝劝猴哥。"},
+  {"type":"发起","content":"你来，欢迎陈一坤。"},
+  {"type":"评价","content":"哎，这只小乌鸦讲的好不好？非常棒，真好。"},
+  {"type":"发起","content":"来，加上前面这一段。"},
+  {"type":"发起","content":"来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
+  {"type":"发起","content":"啊，谁来做小乌鸦来劝劝猴子？"},
+  {"type":"发起","content":"好，梁振轩。"},
+  {"type":"评价","content":"嗯，非常好，给他掌声。"},
+  {"type":"发起","content":"猴哥听了，肯定有想法了，是不是呀？"},
+  {"type":"发起","content":"哎，好，那一只小乌鸦再来试试。"},
+  {"type":"评价","content":"刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
+  {"type":"发起","content":"好，你来。"},
+  {"type":"其它","content":"嗯，为这只热情的小乌鸦鼓掌。"},
+  {"type":"其它","content":"啊啊，好。"},
+  {"type":"发起","content":"除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
+  {"type":"发起","content":"嗯，先把书拿出来好不好？"},
+  {"type":"发起","content":"来，把书现在打开，把书翻到四十六页啊，四十七页。"},
+  {"type":"发起","content":"找到之后，把那个自己读一读。"},
+  {"type":"发起","content":"好，除了乌鸦来劝猴子，还有谁来了？"},
+  {"type":"发起","content":"来，你来说。"},
+  {"type":"其它","content":"嗯，喜鹊和杜鹃。"},
+  {"type":"发起","content":"好，你来读读喜鹊是怎么对猴子说的。"},
+  {"type":"评价","content":"也是一只热情的小喜鹊。"},
+  {"type":"发起","content":"好，谁再来做做喜鹊来读读这段话。"},
+  {"type":"发起","content":"好，你呃，我请来你来。"},
+  {"type":"发起","content":"这样子，我请女孩子来给大家读，好不好？"},
+  {"type":"发起","content":"正当杏树成活的时候，预备齐。"},
+  {"type":"发起","content":"好，接下来还有哪只鸟来劝猴子了？"},
+  {"type":"发起","content":"嗯，这个森林里太热闹了，是不是？"},
+  {"type":"发起","content":"来，薛子浩，你来说说。"},
+  {"type":"评价","content":"嗯，真是一只可爱的小杜鹃。"},
+  {"type":"其它","content":"请坐。"},
+  {"type":"发起","content":"好，再请一个同学来试试看。"},
+  {"type":"发起","content":"好，桓齐。"},
+  {"type":"评价","content":"嗯，谢谢你，小杜鹃。猴哥听到了。"},
+  {"type":"发起","content":"好，这课要请男孩子来做杜鹃，好不好？"},
+  {"type":"发起","content":"把这段话来读一读啊。"},
+  {"type":"发起","content":"正当桃树成活的时候，预备起。"}
+]</t>
+  </si>
+  <si>
     <t>真的是男孩子今天读的真好， 而且很多女孩子也在认真听，我也要表扬， 非常好啊，来同学们，你们来看啊， 乌鸦喜鹊杜鹃都来劝猴子了， 他们劝猴子说的话的时候又有什么相似之处吗， 找找规律看， 秦源， 你找到什么，很好，对不对，它们的叫声对不对，那我们来继续看啊， 乌鸦喜鹊杜鹃，哎，很好， 谁都有叫声，好，他找到的相似处真棒， 还有一个，一共三段话，好农谚，那么在农谚之前，先连叫几只猴哥， 对，你们看乌鸦对猴子说也是猴哥猴哥， 喜鹊对猴子说也是猴哥猴哥，对对，杜鹃对猴子说的时候， 也是连叫两声猴哥猴哥 ，这个三只小鸟也是非常急， 对不对，想要叫猴哥听到是不是， 然后再像周浩天说的一样， 要来一句问句，对不对，你怎么种梨树呢，喜鹊说你怎么种，杏树呢，杜鹃说，猴哥猴哥你怎么种桃树呢， 意思都在说你不可以种的杏树，你不可以种桃树，好，然后再来一句农谚，好，来，还有，你说，有句农谚就是说了农谚，对， 就是在说这个重量级， 对不对，来， 最后一句你有这个耐心吗，然后再找第四段喜鹊对猴子说最后一句话是，有的同学没有找到，没有在认真听讲， 要找的快呀，认真一点，现在都在录课，还有人脚是没有放平， 今天都要练习一下坐姿，好， 然后，好，杜鹃对猴子说的最后一句话是什么，</t>
   </si>
   <si>
@@ -604,6 +749,20 @@
   {"type": "其它", "content": "有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。"},
   {"type": "其它", "content": "现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
   {"type": "发起", "content": "好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"type":"评价","content":"真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
+  {"type":"发起","content":"来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
+  {"type":"发起","content":"秦源，你找到什么？"},
+  {"type":"评价","content":"很好，对不对？它们的叫声对不对？"},
+  {"type":"讲解","content":"那我们来继续看啊。乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
+  {"type":"发起","content":"好，还有，你说，有句农谚就是说了农谚，对。就是在说这个重量级，对不对？"},
+  {"type":"发起","content":"来，最后一句“你有这个耐心吗？”"},
+  {"type":"发起","content":"然后喜鹊对猴子说最后一句话是？"},
+  {"type":"其它","content":"有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
+  {"type":"发起","content":"好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
 ]</t>
   </si>
   <si>
@@ -693,6 +852,48 @@
   {"type": "讲解", "content": "等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
   {"type": "发起", "content": "好的啊，自己练好了，是不是？"},
   {"type": "讲解", "content": "那可以讲给你的同桌好朋友听啊。哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"type":"发起","content":"好，把三句话来说一说。"},
+  {"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
+  {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
+  {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
+  {"type":"发起","content":"三句话意思一样吗？"},
+  {"type":"评价","content":"对，一样。"},
+  {"type":"发起","content":"但是为什么这里他的说法不一样？"},
+  {"type":"发起","content":"你有这么耐心吗？"},
+  {"type":"发起","content":"你能等得及吗？"},
+  {"type":"发起","content":"你不着急吗？"},
+  {"type":"讲解","content":"都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。"},
+  {"type":"发起","content":"是不是啊？"},
+  {"type":"讲解","content":"这个猴子越来越着急，是的啊。"},
+  {"type":"讲解","content":"在这里他有三个不同的想法。"},
+  {"type":"评价","content":"很好，你说还有什么？"},
+  {"type":"其它","content":"啊，很好。"},
+  {"type":"评价","content":"他说出一个特点来。"},
+  {"type":"发起","content":"这三句为什么不一样？"},
+  {"type":"讲解","content":"如果三句都一样就没意思了。"},
+  {"type":"发起","content":"读起来是不是这样子？"},
+  {"type":"讲解","content":"让这个故事更丰富。"},
+  {"type":"讲解","content":"很好。同样的意思可以用不同的句子来表达。"},
+  {"type":"讲解","content":"这就是我们中国语言的神秘之处啊。"},
+  {"type":"讲解","content":"我们中国语言文字的奥秘所在。"},
+  {"type":"发起","content":"好，你说，你有什么补充？"},
+  {"type":"评价","content":"好，谢谢你的发现。"},
+  {"type":"发起","content":"你来说，正当他们成活的时候，是不是？"},
+  {"type":"评价","content":"好，非常好。"},
+  {"type":"讲解","content":"来，孩子们，这三段话居然找到相似之处。"},
+  {"type":"发起","content":"哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
+  {"type":"评价","content":"是的。"},
+  {"type":"发起","content":"好的，自己选一个角色。"},
+  {"type":"讲解","content":"你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
+  {"type":"发起","content":"把他的这段话自己在下面练讲。"},
+  {"type":"讲解","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
+  {"type":"讲解","content":"好的啊，自己练好了，是不是？"},
+  {"type":"发起","content":"那可以讲给你的同桌好朋友听啊。"},
+  {"type":"讲解","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
 ]</t>
   </si>
   <si>
@@ -776,6 +977,41 @@
 ]</t>
   </si>
   <si>
+    <t>[
+  {"type":"发起","content":"同桌如果讲喜趣的话呢？那要反过来讲。"},
+  {"type":"其它","content":"等一会下课再出去，啊？"},
+  {"type":"发起","content":"是不是讲得差不多了？来，小乌鸦来试试。"},
+  {"type":"其它","content":"那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
+  {"type":"其它","content":"那再给你一点时间啊。"},
+  {"type":"评价","content":"哎，你们很好，尊重其它同学啊。"},
+  {"type":"发起","content":"好，谁来试试？我们先请小乌鸦，好吧？"},
+  {"type":"发起","content":"谁是刚刚练了小乌鸦的话？"},
+  {"type":"发起","content":"好，王子辰，这只乌鸦怎么样，好不好哦？"},
+  {"type":"评价","content":"好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
+  {"type":"发起","content":"如果我们是猴哥的话，肯定是怎么样？"},
+  {"type":"评价","content":"要听他的话，非常好啊。"},
+  {"type":"其它","content":"下课方老师要给你敲个章，别忘了啊。"},
+  {"type":"发起","content":"好，哪只小乌鸦再来试试？"},
+  {"type":"其它","content":"还可以加动作啊。"},
+  {"type":"其它","content":"对嘛吧，这种动作加上就更好了啊。"},
+  {"type":"其它","content":"因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+  {"type":"发起","content":"好，你来试试，我们在讲乌鸦。"},
+  {"type":"其它","content":"好的，等一会请你好不好？"},
+  {"type":"其它","content":"好，你这样吧，你上来吧，好不好？"},
+  {"type":"其它","content":"我上来讲好不好？"},
+  {"type":"其它","content":"来，掌声鼓励一起。"},
+  {"type":"其它","content":"哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+  {"type":"发起","content":"来，给他鼓励一点，有没有给他好的建议？"},
+  {"type":"其它","content":"不要一直飞，是不是啊？"},
+  {"type":"发起","content":"可以怎么样？"},
+  {"type":"讲解","content":"可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。"},
+  {"type":"发起","content":"你有这个耐心吗？"},
+  {"type":"其它","content":"可以这种动作做出来，好不好？"},
+  {"type":"评价","content":"哎呦，好样的啊，"},
+  {"type":"发起","content":"能不能更好一点了？"}
+]</t>
+  </si>
+  <si>
     <t xml:space="preserve">能够把故事讲用一个，第二个能加上动作，来来第三个能不能表演的更好，哎， 加上表情啊，你来试试， 你是读乌鸦的话是吗，来上来小乌鸦，有请小乌鸦， 嗯，很好，表演的非常不错，三只小乌鸭都非常棒，你们三个小朋友都可以参加，好，接下来请演喜鹊的小朋友，谁来讲讲喜鹊的话，好，恭请， 啊，下面的小听众也要注意了啊人家上面表演的，那么认真，那你下面也要尊重这些小演员啊， 咦这个动作啊非常可爱啊，好的， 哎，如果这个再讲的通顺一点就更好了，是不是， 我来找下面讲话的小朋友，这样不好，哎， 哪怕他做的不好，你也不可以在下面窃窃私语， 这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字， 现在都没关系，那我请你来，你还不如她呢，不能在下面讲啊，来，我要表扬，能够举手，勇敢上台表扬的小朋友啊，好，开始， 好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊，那正当杏树，我们在讲喜鹊，我们现在讲喜鹊， 那你刚刚准备的是哪只，好，等会演杜鹃的时候，我再请你来，我再请刚刚在下面做小动作的同学，脸抬起来，你不想看来你来，隔壁脸，一点都不难为情，现在在录课，你不懂难为情的， 你来讲喜鹊的话，你刚准备了谁的，  </t>
   </si>
   <si>
@@ -1001,6 +1237,45 @@
 {"type":"发起","content":"你来讲喜鹊的话。你刚准备了谁的？"}]</t>
   </si>
   <si>
+    <t>[
+  {"type":"发起","content":"能够把故事讲用一个。"},
+  {"type":"发起","content":"第二个能加上动作。"},
+  {"type":"发起","content":"来来，第三个能不能表演得更好？"},
+  {"type":"发起","content":"哎，加上表情啊。"},
+  {"type":"发起","content":"你来试试。"},
+  {"type":"发起","content":"你是读乌鸦的话是吗？"},
+  {"type":"发起","content":"来，上来小乌鸦。"},
+  {"type":"发起","content":"有请小乌鸦。"},
+  {"type":"评价","content":"嗯，很好，表演得非常不错。"},
+  {"type":"评价","content":"三只小乌鸦都非常棒。"},
+  {"type":"发起","content":"你们三个小朋友都可以参加。"},
+  {"type":"发起","content":"好，接下来请演喜鹊的小朋友。"},
+  {"type":"发起","content":"谁来讲讲喜鹊的话？"},
+  {"type":"发起","content":"好，恭请。"},
+  {"type":"其它","content":"啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
+  {"type":"其它","content":"咦，这个动作啊，非常可爱啊。"},
+  {"type":"其它","content":"好的。"},
+  {"type":"评价","content":"哎，如果这个再讲得通顺一点就更好了，是不是？"},
+  {"type":"其它","content":"我来找下面讲话的小朋友，这样不好。"},
+  {"type":"其它","content":"哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。"},
+  {"type":"其它","content":"你最起码得耐心地听别人讲完。"},
+  {"type":"其它","content":"他读错一个字或者漏掉一个字，现在都没关系。"},
+  {"type":"发起","content":"那我请你来，你还不如她呢，不能在下面讲啊。"},
+  {"type":"其它","content":"来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"},
+  {"type":"发起","content":"好，开始。"},
+  {"type":"发起","content":"好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"},
+  {"type":"其它","content":"那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"},
+  {"type":"发起","content":"那你刚刚准备的是哪只？"},
+  {"type":"发起","content":"好，等会儿演杜鹃的时候，我再请你来。"},
+  {"type":"其它","content":"我再请刚刚在下面做小动作的同学，脸抬起来。"},
+  {"type":"发起","content":"你不想来？那你来。"},
+  {"type":"其它","content":"隔壁脸，一点都不难为情。"},
+  {"type":"其它","content":"现在在录课，你不懂难为情的？"},
+  {"type":"发起","content":"你来讲喜鹊的话。"},
+  {"type":"发起","content":"你刚准备了谁的？"}
+]</t>
+  </si>
+  <si>
     <t xml:space="preserve">不行，你按照老师的要求去做， 请坐，要批评， 你等会儿三十秒的话都到我这来，一定要积极思考， 不是自己坐在那里， 想不读就不读，还有也不是在那里随便想讲话就讲话，你坐端正， 坐好，快点坐下来，对，没有举手的我也要请，上课，就要积极开动脑筋，像上次开汇总课一样， 每个同学都认真举手，好，往下面来你是读喜鹊的话啊，喜鹊来啊，喜鹊小喜鹊停来上来来表演啊，忘记了，可以稍微看一下啊，杏四桃三，请坐啊，虽然她讲的不流畅啊，但是他确实是勇敢的上台，而且他刚刚坐在下面是认真听的啊，最起码比下面不敢举手的小朋友要勇敢，这一点我就要鼓励，你是喜鹊来， 再请只喜鹊，喜鹊没有刚刚乌鸦讲的好， 对我要请只非常棒的小喜鹊，嗯，哎掌声鼓励，但是讲小故事的小朋友不是背书可以加上动作，像刚刚几只小乌鸦就扮演的非常好啊，好， 接下来请来演小杜鹃，好的，你来， 嗯，我的书在上面， 你实在忘记了，可以看一下提示啊，你有这个耐心吗，你前面用过了，前面乌鸦已经说过了，请坐好掌声鼓励一下， 小杜鹃有点严肃啊，好啦，这小杜鹃可爱一点， 活泼一点，猴哥猴哥，着急一点好不好，来谁再来演一演，你来罗若涵， 结果你有这么大耐心吗，你有这个耐心，谁说过了啊， </t>
   </si>
   <si>
@@ -1191,6 +1466,37 @@
   {"type": "评价", "content": "小杜鹃有点严肃啊。好啦，这小杜鹃可爱一点，活泼一点。"},
   {"type": "发起", "content": "猴哥猴哥，着急一点好不好？来，谁再来演一演？你来罗若涵。"},
   {"type": "其它", "content": "结果你有这么大耐心吗？你有这个耐心，谁说过了啊。"}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"type":"其它","content":"不行，你按照老师的要求去做。请坐。"},
+  {"type":"评价","content":"要批评。"},
+  {"type":"其它","content":"你等会儿三十秒的话都到我这来。一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。"},
+  {"type":"其它","content":"你坐端正，坐好，快点坐下来。"},
+  {"type":"发起","content":"对，没有举手的我也要请。上课，就要积极开动脑筋。像上次开汇总课一样。每个同学都认真举手。"},
+  {"type":"发起","content":"好，往下面来。你是读喜鹊的话啊。喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。"},
+  {"type":"其它","content":"忘记了，可以稍微看一下啊。杏四桃三。"},
+  {"type":"其它","content":"请坐啊。"},
+  {"type":"评价","content":"虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"},
+  {"type":"发起","content":"你是喜鹊来。"},
+  {"type":"发起","content":"再请只喜鹊。"},
+  {"type":"评价","content":"喜鹊没有刚刚乌鸦讲的好。"},
+  {"type":"发起","content":"对，我要请只非常棒的小喜鹊。"},
+  {"type":"其它","content":"嗯，哎，掌声鼓励。"},
+  {"type":"讲解","content":"但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"},
+  {"type":"发起","content":"好，接下来请来演小杜鹃。好的，你来。"},
+  {"type":"其它","content":"嗯，我的书在上面。你实在忘记了，可以看一下提示啊。"},
+  {"type":"发起","content":"你有这个耐心吗？"},
+  {"type":"其它","content":"你前面用过了，前面乌鸦已经说过了。"},
+  {"type":"其它","content":"请坐好，掌声鼓励一下。"},
+  {"type":"评价","content":"小杜鹃有点严肃啊。"},
+  {"type":"讲解","content":"好啦，这小杜鹃可爱一点，活泼一点。"},
+  {"type":"发起","content":"猴哥猴哥，着急一点好不好？"},
+  {"type":"发起","content":"来，谁再来演一演？"},
+  {"type":"发起","content":"你来罗若涵。"},
+  {"type":"发起","content":"结果你有这么大耐心吗？"},
+  {"type":"发起","content":"你有这个耐心，谁说过了啊。"}
 ]</t>
   </si>
   <si>
@@ -1256,6 +1562,37 @@
 ]</t>
   </si>
   <si>
+    <t>[
+  {"type":"其它", "content":"乌鸦说过了，咱们不重复。"},
+  {"type":"发起", "content":"你不着急吗？意思就是说你会着急的，是不是啊？"},
+  {"type":"讲解", "content":"意思一样啊。"},
+  {"type":"评价", "content":"好，很好，掌声鼓励。"},
+  {"type":"讲解", "content":"听了三只鸟儿的话，猴子可有想法了。"},
+  {"type":"发起", "content":"猴子是怎么想的？"},
+  {"type":"讲解", "content":"听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。"},
+  {"type":"讲解", "content":"说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
+  {"type":"发起", "content":"现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。"},
+  {"type":"讲解", "content":"用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
+  {"type":"发起", "content":"猴子种了一棵梨树苗，预备起。"},
+  {"type":"其它", "content":"猴子，这些东西放下，我们来看一下板书。"},
+  {"type":"讲解", "content":"猴子呀他一开始很勤劳啊，还是种了一棵梨树。"},
+  {"type":"讲解", "content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。"},
+  {"type":"讲解", "content":"正当杏树成活的时候，喜鹊来劝他了。"},
+  {"type":"讲解", "content":"于是猴子又拔掉了，改种了桃树。"},
+  {"type":"讲解", "content":"正当桃树成活的时候，杜鹃又来劝说它了。"},
+  {"type":"讲解", "content":"这时候猴子又拔掉了，改种了。"},
+  {"type":"讲解", "content":"可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。"},
+  {"type":"讲解", "content":"到最后这只猴子什么树也没有成。"},
+  {"type":"讲解", "content":"对呀，这只猴子什么树也没有种成。"},
+  {"type":"发起", "content":"除了它没耐心，它还没什么？"},
+  {"type":"评价", "content":"你说，说的真好。"},
+  {"type":"讲解", "content":"还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？"},
+  {"type":"讲解", "content":"到最后什么都没有啊。"},
+  {"type":"讲解", "content":"那么这只小猴呢，也挺可怜的。"},
+  {"type":"发起", "content":"你想对他说什么？"}
+]</t>
+  </si>
+  <si>
     <t xml:space="preserve">你有什么话， 想对他说说，汤子晨，你说，嗯，请坐，不要光听别人要有自己的想法，是不是，好，你有什么相对猴子说的，你要讲讲自己的想法，是不是，坚持把它种好是吧，对，好的，来你来说，嗯，没有耐心，就一事无成了，嗯，就是要有自己的主见，好，刘斌 ，坚持下去是不是非常好？你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人非常好，坚持到底，就是胜利，要有主见，有耐心，好，哎，那我们呀不能像小猴子这样没耐心，我们要耐心的学好每一节课，学好每一个词，今天呢我们要开始学习这篇课文后面的三个字，第一个字我先画个画， 你看这个改像一个小朋友啊，做错事儿，他跪在地上旁边呢有个人拿着拐杖在打他的小屁股，对不对，就是叫他知错就改对的啊，所以这个改字我们一起来写一写来小手笔伸出来一横折，预备起 ，对，它是左右结构反文， 我写在这里啊，横折写到横中线就停，横折再横中线竖提要短一些，这个就是就像跪着的小朋友啊，他在承认错误呢， 旁边呢啊一个人拿着鞭子再去打他的小屁股，是不是，要它改正错误啊，撇要到中间齐，捺要舒展，改字组词，好，你来，很好，好，再来一个同学，李春月，你来，你说，改革 ，你说，我们学下一个字，洗 x py y 预备起 x py，洗上结构，       </t>
   </si>
   <si>
@@ -1454,6 +1791,39 @@
   {"type": "发起", "content": "好，你来。"},
   {"type": "评价", "content": "很好！"},
   {"type": "发起", "content": "好，再来一个同学，李春月，你来。你说，“改革”。你说，我们学下一个字，“洗”，预备起。洗上结构。"}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"type":"发起","content":"你有什么话，想对他说说？"},
+  {"type":"发起","content":"汤子晨，你说。"},
+  {"type":"评价","content":"嗯，请坐。"},
+  {"type":"讲解","content":"不要光听别人，要有自己的想法，是不是？"},
+  {"type":"发起","content":"好，你有什么想对猴子说的？"},
+  {"type":"发起","content":"你要讲讲自己的想法，是不是？"},
+  {"type":"讲解","content":"坚持把它种好，是吧？"},
+  {"type":"评价","content":"对，好的，来，你来说。"},
+  {"type":"讲解","content":"嗯，没有耐心，就一事无成了。"},
+  {"type":"讲解","content":"嗯，就是要有自己的主见。"},
+  {"type":"发起","content":"好，刘斌，坚持下去，是不是？"},
+  {"type":"评价","content":"非常好！"},
+  {"type":"讲解","content":"你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"},
+  {"type":"讲解","content":"坚持到底，就是胜利。要有主见，有耐心。"},
+  {"type":"讲解","content":"好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。"},
+  {"type":"讲解","content":"今天呢，我们要开始学习这篇课文后面的三个字。"},
+  {"type":"讲解","content":"第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"},
+  {"type":"讲解","content":"所以这个“改”字我们一起来写一写。"},
+  {"type":"发起","content":"来，小手笔伸出来。"},
+  {"type":"讲解","content":"一横折，预备起，对。它是左右结构反文。我写在这里啊。"},
+  {"type":"讲解","content":"横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。"},
+  {"type":"讲解","content":"旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。"},
+  {"type":"发起","content":"撇要到中间齐，捺要舒展。“改”字组词。"},
+  {"type":"发起","content":"好，你来。"},
+  {"type":"评价","content":"很好！"},
+  {"type":"发起","content":"好，再来一个同学，李春月，你来。"},
+  {"type":"发起","content":"你说，“改革”。"},
+  {"type":"发起","content":"你说，我们学下一个字，“洗”，预备起。"},
+  {"type":"讲解","content":"洗上结构。"}
 ]</t>
   </si>
 </sst>
@@ -1478,6 +1848,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2095,10 +2466,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2449,18 +2823,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="5" width="50.775" customWidth="1"/>
+    <col min="1" max="6" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:5">
+    <row r="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2476,196 +2850,232 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="409" customHeight="1" spans="1:5">
+    <row r="2" ht="409" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="409" customHeight="1" spans="1:5">
+    <row r="3" ht="409" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="409" customHeight="1" spans="1:5">
+    <row r="4" ht="409" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="409" customHeight="1" spans="1:5">
+    <row r="5" ht="409" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" ht="409" customHeight="1" spans="1:5">
+    <row r="6" ht="409" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" ht="409" customHeight="1" spans="1:5">
+    <row r="7" ht="409" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" ht="409" customHeight="1" spans="1:5">
+    <row r="8" ht="409" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" ht="409" customHeight="1" spans="1:5">
+    <row r="9" ht="409" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" ht="409" customHeight="1" spans="1:5">
+    <row r="10" ht="409" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="11" ht="409" customHeight="1" spans="1:5">
+    <row r="11" ht="409" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" ht="409" customHeight="1" spans="1:5">
+    <row r="12" ht="409" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/726四分类法.xlsx
+++ b/data/726四分类法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>原始文本</t>
   </si>
@@ -44,10 +44,7 @@
     <t>glm4_predict</t>
   </si>
   <si>
-    <t>qwen_predict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请袁艺喊“开始上课”，声音要响亮啊。同学们好，请坐。真棒。昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。“猴子”。昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？好，现在用眼睛看，用心记住这个字，“猴子”。哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？谁来说说？于凯，你来说说看。你慢讲啊。嗯，然后呢？然后种了杏树。最后呢？最后还种了桃树。到最后怎么样啊？好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。非常棒，请坐。我们像他一样，用一句话把这个故事，哎，就讲出来了。来，我们一起来试试看。“猴子种了”。瞧，咱们一句话就能把故事的意思讲出来了。小朋友们真能干。好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？那等一下啊。好，你来读。“猴子”。嗯嗯，你先不要坐下，这个”天天“说明什么呀，嗯，细心，还有呢，他每天都去浇， 天天都去浇水施肥，说明他怎么样 ，对，非常勤劳，猴子是不是很勤劳，你们看这个猴子种树啊，它有一个动作的过程，你们找到了动作了吗， </t>
+    <t xml:space="preserve">请袁艺喊开始上课， 声音要响亮啊，同学们好，请坐真棒， 昨天呀，我们一起学习了课文八。 今天小猴子呀要到我们班来做客了， 我们来跟他打打招呼，猴子 ，昨天在写作业的时候呀， 小朋友要注意哦， 这个猴，反犬旁，旁边是一个单立人， 中间有没有一个短竖啊，那么昨天在作业当中，方老师看到有人加了一竖，那就不对了， 变成错别字了，明白了吗，好， 现在用眼睛看，用心记住这个字， 猴子，哎， 每天通过学习啊，我们知道了这个猴子啊， 种了一些果树， 它分别种了什么树呢，谁来说说，于凯， 你来说说看， 你慢讲啊，嗯，然后呢，然后种了杏树，最后呢，最后还种了桃树，到最后怎么样啊，好，于凯，你能不能连起来把这句话来说一说，猴子中了，非常棒， 请坐，我们像他一样， 用一句话把这个故事哎就讲出来了，来， 我们一起来试试看，猴子种了，瞧，咱们一句话就能把故事的意思讲出来了， 小朋友们真能干好，那我们来看看哦，他为什么什么都没种成呢， 我们来读课文的第一段，来，谁来读，那等一下啊， 好，你来读，猴子，  嗯嗯，你先不要坐下，这个”天天“说明什么呀，  </t>
   </si>
   <si>
     <t>请袁艺喊“开始上课”，声音要响亮啊。同学们好，请坐。真棒。昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。“猴子”。昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？好，现在用眼睛看，用心记住这个字，“猴子”。哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？谁来说说？于凯，你来说说看。你慢讲啊。嗯，然后呢？然后种了杏树。最后呢？最后还种了桃树。到最后怎么样啊？好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。非常棒，请坐。我们像他一样，用一句话把这个故事，哎，就讲出来了。来，我们一起来试试看。“猴子种了”。瞧，咱们一句话就能把故事的意思讲出来了。小朋友们真能干。好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？那等一下啊。好，你来读。“猴子”。嗯嗯，你先不要坐下，这个“天天”说明什么呀？</t>
@@ -55,7 +52,7 @@
   <si>
     <t>[
 {"type": "发起", "content": "请袁艺喊“开始上课”，声音要响亮啊。"},
-{"type": "发起", "content": "同学们好，请坐。"},
+{"type": "其它", "content": "同学们好，请坐。"},
 {"type": "评价", "content": "真棒。"},
 {"type": "讲解", "content": "昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。"},
 {"type": "发起", "content": "我们来跟他打打招呼。“猴子”。"},
@@ -76,43 +73,46 @@
 {"type": "发起", "content": "好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？"},
 {"type": "其它", "content": "那等一下啊。"},
 {"type": "发起", "content": "好，你来读。“猴子”。"},
-{"type": "发起", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
+{"type": "其它", "content": "嗯嗯，你先不要坐下，"},
+{"type": "发起", "content": "这个“天天”说明什么呀？"}
 ]</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {"type": "发起", "content": "请袁艺喊“开始上课”，声音要响亮啊。"},
     {"type": "其它", "content": "同学们好，请坐。"},
     {"type": "评价", "content": "真棒。"},
     {"type": "讲解", "content": "昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。"},
     {"type": "发起", "content": "我们来跟他打打招呼。“猴子”。"},
-    {"type": "讲解", "content": "昨天在写作业的时候呀，小朋友要注意哦。"},
-    {"type": "讲解", "content": "这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？"},
-    {"type": "讲解", "content": "那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。"},
-    {"type": "发起", "content": "明白了吗？"},
+    {"type": "讲解", "content": "昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？"},
+    {"type": "讲解", "content": "那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？"},
     {"type": "发起", "content": "好，现在用眼睛看，用心记住这个字，“猴子”。"},
     {"type": "讲解", "content": "哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。"},
     {"type": "发起", "content": "它分别种了什么树呢？谁来说说？"},
     {"type": "发起", "content": "于凯，你来说说看。"},
-    {"type": "其它", "content": "你慢讲啊。嗯，"},
-    {"type": "发起", "content": "然后呢？"},
+    {"type": "其它", "content": "你慢讲啊。"},
+    {"type": "发起", "content": "嗯，然后呢？"},
     {"type": "讲解", "content": "然后种了杏树。"},
     {"type": "发起", "content": "最后呢？"},
     {"type": "讲解", "content": "最后还种了桃树。"},
     {"type": "发起", "content": "到最后怎么样啊？"},
-    {"type": "发起", "content": "好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。"},
+    {"type": "发起", "content": "好，于凯，你能不能连起来把这句话来说一说？"},
+    {"type": "讲解", "content": "“猴子种了”。"},
     {"type": "评价", "content": "非常棒，请坐。"},
-    {"type": "讲解", "content": "我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
+    {"type": "发起", "content": "我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
     {"type": "发起", "content": "来，我们一起来试试看。“猴子种了”。"},
     {"type": "讲解", "content": "瞧，咱们一句话就能把故事的意思讲出来了。"},
     {"type": "评价", "content": "小朋友们真能干。"},
-    {"type": "发起", "content": "好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？"},
+    {"type": "发起", "content": "好，那我们来看看哦，他为什么什么都没种成呢？"},
+    {"type": "发起", "content": "我们来读课文的第一段。"},
+    {"type": "发起", "content": "来，谁来读？"},
     {"type": "其它", "content": "那等一下啊。"},
     {"type": "发起", "content": "好，你来读。“猴子”。"},
     {"type": "发起", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -133,37 +133,6 @@
 ]</t>
   </si>
   <si>
-    <t>[
-  {"type":"其它","content":"请袁艺喊‘开始上课’，声音要响亮啊。"},
-  {"type":"其它","content":"同学们好，请坐。"},
-  {"type":"评价","content":"真棒。"},
-  {"type":"讲解","content":"昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。‘猴子’。"},
-  {"type":"讲解","content":"昨天在写作业的时候呀，小朋友要注意哦。这个‘猴’，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？"},
-  {"type":"讲解","content":"好，现在用眼睛看，用心记住这个字，‘猴子’。"},
-  {"type":"讲解","content":"哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。"},
-  {"type":"发起","content":"它分别种了什么树呢？谁来说说？"},
-  {"type":"发起","content":"于凯，你来说说看。"},
-  {"type":"其它","content":"你慢讲啊。"},
-  {"type":"其它","content":"嗯，然后呢？"},
-  {"type":"讲解","content":"然后种了杏树。"},
-  {"type":"发起","content":"最后呢？"},
-  {"type":"讲解","content":"最后还种了桃树。"},
-  {"type":"发起","content":"到最后怎么样啊？"},
-  {"type":"发起","content":"好，于凯，你能不能连起来把这句话来说一说？‘猴子种了’。"},
-  {"type":"评价","content":"非常棒，请坐。"},
-  {"type":"讲解","content":"我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
-  {"type":"发起","content":"来，我们一起来试试看。‘猴子种了’。"},
-  {"type":"讲解","content":"瞧，咱们一句话就能把故事的意思讲出来了。"},
-  {"type":"评价","content":"小朋友们真能干。"},
-  {"type":"发起","content":"好，那我们来看看哦，他为什么什么都没种成呢？"},
-  {"type":"发起","content":"我们来读课文的第一段。"},
-  {"type":"发起","content":"来，谁来读？"},
-  {"type":"其它","content":"那等一下啊。"},
-  {"type":"发起","content":"好，你来读。‘猴子’。"},
-  {"type":"发起","content":"嗯嗯，你先不要坐下，这个‘天天’说明什么呀？"}
-]</t>
-  </si>
-  <si>
     <t xml:space="preserve">嗯，细心，还有呢，他每天都去浇，天天都去浇水施肥，说明他怎么样，对，非常勤劳，猴子是不是很勤劳，你们看这个猴子种树啊，它有一个动作的过程，你们找到了动作了吗，好，你来， 现在就直接浇水了吗， 然后呢 ，嗯施肥， 然后等着将来可以吃梨子了，好， 我们按照这个顺序啊， 把故事的开头自己在下面讲一讲，好不好， 来，老师话语：好，谁来把故事的开头讲给我们听，刘若涵，哇， 这只猴子呀，真勤劳， 而且我看出来了，你整的口水都快流出来了， 是不是好非常好，那接下来我要加大难度了，唉， 没有提示你还能不能把刚刚的故事开头讲给我们听， 张文婷，棒不棒，好熟练啊，把故事啊，这么大声的就告诉我们了，非常好，这时候谁来，这时候谁来，你说，乌鸦来，好，乌鸦哇哇的对猴子说了什么呢，谁来做一下乌鸦， 董新磊，哦，这只小乌鸦读的真好， 读的真顺畅啊，再请一只小乌鸦， 好，你来小乌鸦，哎，小乌鸦你等等啊，你为什么要连喊两声，猴哥呀，叫一声就可以了呀，你为什么， 还连喊两声呀，你觉得猴哥可能会听不见，是不是啊， </t>
   </si>
   <si>
@@ -257,42 +226,45 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
-    {"type": "其它", "content": "嗯，细心。"},
+    {"type": "评价", "content": "嗯，细心。"},
     {"type": "发起", "content": "还有呢？"},
     {"type": "讲解", "content": "他每天都去浇，天天都去浇水施肥。"},
     {"type": "发起", "content": "说明他怎么样？"},
-    {"type": "评价", "content": "对，非常勤劳。"},
-    {"type": "发起", "content": "猴子是不是很勤劳？"},
+    {"type": "评价", "content": "对，非常勤劳。猴子是不是很勤劳？"},
     {"type": "讲解", "content": "你们看，这个猴子种树啊，它有一个动作的过程。"},
     {"type": "发起", "content": "你们找到了动作了吗？"},
-    {"type": "其它", "content": "好，你来。"},
-    {"type": "发起", "content": "现在就直接浇水了吗？"},
+    {"type": "发起", "content": "好，你来。现在就直接浇水了吗？"},
     {"type": "发起", "content": "然后呢？"},
     {"type": "讲解", "content": "嗯，施肥。然后等着将来可以吃梨子了。"},
     {"type": "发起", "content": "好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？来。"},
     {"type": "发起", "content": "好，谁来把故事的开头讲给我们听？"},
-    {"type": "其它", "content": "刘若涵，"},
+    {"type": "发起", "content": "刘若涵，"},
     {"type": "评价", "content": "哇，这只猴子呀，真勤劳。而且我看出来了，你整的口水都快流出来了，是不是？"},
-    {"type": "评价", "content": "好，非常好。"},
-    {"type": "发起", "content": "那接下来我要加大难度了。"},
-    {"type": "发起", "content": "唉，没有提示你还能不能把刚刚的故事开头讲给我们听？张文婷，"},
-    {"type": "评价", "content": "棒不棒？好熟练啊，把故事啊，这么大声的就告诉我们了。"},
+    {"type": "评价", "content": "好，非常好。那接下来我要加大难度了。"},
+    {"type": "发起", "content": "唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
+    {"type": "发起", "content": "张文婷，"},
+    {"type": "评价", "content": "棒不棒？"},
+    {"type": "评价", "content": "好熟练啊，把故事啊，这么大声的就告诉我们了。"},
     {"type": "评价", "content": "非常好。"},
-    {"type": "发起", "content": "这时候谁来？这时候谁来？"},
+    {"type": "发起", "content": "这时候谁来？"},
+    {"type": "发起", "content": "这时候谁来？"},
     {"type": "发起", "content": "你说，乌鸦来。"},
     {"type": "发起", "content": "好，乌鸦哇哇的对猴子说了什么呢？"},
     {"type": "发起", "content": "谁来做一下乌鸦？"},
-    {"type": "其它", "content": "董新磊，"},
+    {"type": "讲解", "content": "董新磊，"},
     {"type": "评价", "content": "哦，这只小乌鸦读的真好，读的真顺畅啊。"},
-    {"type": "发起", "content": "再请一只小乌鸦，好，你来小乌鸦。"},
-    {"type": "其它", "content": "哎，"},
-    {"type": "发起", "content": "小乌鸦你等等啊。你为什么要连喊两声“猴哥”呀？叫一声就可以了呀。"},
+    {"type": "发起", "content": "再请一只小乌鸦，"},
+    {"type": "发起", "content": "好，你来小乌鸦。"},
+    {"type": "发起", "content": "哎，小乌鸦你等等啊。"},
+    {"type": "发起", "content": "你为什么要连喊两声“猴哥”呀？"},
+    {"type": "讲解", "content": "叫一声就可以了呀。"},
     {"type": "发起", "content": "你为什么还连喊两声呀？"},
-    {"type": "发起", "content": "你觉得猴哥可能会听不见，是不是啊？"}
+    {"type": "讲解", "content": "你觉得猴哥可能会听不见，是不是啊？"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -316,48 +288,6 @@
 ]</t>
   </si>
   <si>
-    <t>[
-  {"type":"其它","content":"嗯，细心。"},
-  {"type":"发起","content":"还有呢？"},
-  {"type":"讲解","content":"他每天都去浇，天天都去浇水施肥。说明他怎么样？"},
-  {"type":"评价","content":"对，非常勤劳。"},
-  {"type":"发起","content":"猴子是不是很勤劳？"},
-  {"type":"讲解","content":"你们看，这个猴子种树啊，它有一个动作的过程。"},
-  {"type":"发起","content":"你们找到了动作了吗？"},
-  {"type":"发起","content":"好，你来。"},
-  {"type":"发起","content":"现在就直接浇水了吗？"},
-  {"type":"发起","content":"然后呢？"},
-  {"type":"讲解","content":"嗯，施肥。然后等着将来可以吃梨子了。"},
-  {"type":"发起","content":"好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？"},
-  {"type":"发起","content":"来。"},
-  {"type":"发起","content":"好，谁来把故事的开头讲给我们听？"},
-  {"type":"发起","content":"刘若涵，"},
-  {"type":"评价","content":"哇，这只猴子呀，真勤劳。"},
-  {"type":"其它","content":"而且我看出来了，你整的口水都快流出来了，是不是？"},
-  {"type":"评价","content":"好，非常好。"},
-  {"type":"发起","content":"那接下来我要加大难度了。"},
-  {"type":"发起","content":"唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
-  {"type":"发起","content":"张文婷，"},
-  {"type":"评价","content":"棒不棒？"},
-  {"type":"评价","content":"好熟练啊，把故事啊，这么大声的就告诉我们了。"},
-  {"type":"评价","content":"非常好。"},
-  {"type":"发起","content":"这时候谁来？"},
-  {"type":"发起","content":"这时候谁来？"},
-  {"type":"发起","content":"你说，乌鸦来。"},
-  {"type":"发起","content":"好，乌鸦哇哇的对猴子说了什么呢？"},
-  {"type":"发起","content":"谁来做一下乌鸦？"},
-  {"type":"发起","content":"董新磊，"},
-  {"type":"评价","content":"哦，这只小乌鸦读的真好，读的真顺畅啊。"},
-  {"type":"发起","content":"再请一只小乌鸦，"},
-  {"type":"发起","content":"好，你来小乌鸦。"},
-  {"type":"其它","content":"哎，小乌鸦你等等啊。"},
-  {"type":"发起","content":"你为什么要连喊两声“猴哥”呀？"},
-  {"type":"发起","content":"叫一声就可以了呀。"},
-  {"type":"发起","content":"你为什么还连喊两声呀？"},
-  {"type":"发起","content":"你觉得猴哥可能会听不见，是不是啊？"}
-]</t>
-  </si>
-  <si>
     <t>好的，你连叫两声， 猴哥给我听听，哎，猴哥听见了来，我们学着他的样子， 小乌鸦们叫两声猴哥，，猴哥听见了，好， 小乌鸦继续说下去，你怎么种了梨树呢， 这句话什么意思，哎，你怎么种梨树呢，我给你两个选择好不好， 一是你不可以种梨树， 是不是这个意思，还是说你可以种梨树，应该是第一个选项， 是不是，你怎么种梨树，意思就是说你不是可以种梨树啊， 是不是啊，哎这里来一个反问， 这个语气怎么样就更着急了，对不对，这小乌鸦很着急呀， 想劝猴子呀，是不是啊，好， 来小乌鸦继续劝下去，好，农谚是什么意思，你说，好，这个农谚啊就是农民伯伯， 他们不是长期的在农田里劳动吗，他们把长期劳动的经验浓缩成简单一句话，这里的农谚是什么，对梨五杏四是什么意思啊，你看这么长的话，它用四个字就能概括，是不是啊，很好说了一句农谚， 小乌鸦对着猴哥说了一句农谚，接着说下去，哎呀，小乌鸦你在这里又来了一问，说明你怎么样啊，哦， 你有这个耐心吗，就是说你没这个耐心啊， 是不是啊，你看这里又来一问， 语气就更强烈真棒，</t>
   </si>
   <si>
@@ -440,42 +370,43 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
+    {"type": "发起", "content": "好的，你连叫两声。"},
     {"type": "发起", "content": "猴哥，给我听听。"},
-    {"type": "评价", "content": "哎，猴哥听见了。"},
+    {"type": "讲解", "content": "哎，猴哥听见了。"},
     {"type": "发起", "content": "来，我们学着他的样子。"},
     {"type": "发起", "content": "小乌鸦们，叫两声猴哥。"},
-    {"type": "评价", "content": "猴哥听见了。"},
+    {"type": "讲解", "content": "猴哥听见了。"},
     {"type": "发起", "content": "好，小乌鸦继续说下去。"},
-    {"type": "发起", "content": "你怎么种了梨树呢？"},
-    {"type": "发起", "content": "这句话什么意思？"},
     {"type": "发起", "content": "哎，你怎么种梨树呢？"},
     {"type": "发起", "content": "我给你两个选择，好不好？"},
     {"type": "发起", "content": "一是你不可以种梨树，是不是这个意思？"},
     {"type": "发起", "content": "还是说你可以种梨树？"},
-    {"type": "发起", "content": "应该是第一个选项，是不是？"},
+    {"type": "讲解", "content": "应该是第一个选项，是不是？"},
     {"type": "讲解", "content": "你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
-    {"type": "发起", "content": "哎，这里来一个反问。"},
-    {"type": "讲解", "content": "这个语气怎么样？就更着急了，对不对？"},
+    {"type": "讲解", "content": "哎，这里来一个反问。"},
+    {"type": "讲解", "content": "这个语气怎么样？"},
+    {"type": "讲解", "content": "就更着急了，对不对？"},
     {"type": "讲解", "content": "这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
     {"type": "发起", "content": "好，来，小乌鸦继续劝下去。"},
-    {"type": "发起", "content": "好，农谚是什么意思？"},
-    {"type": "发起", "content": "你说。"},
+    {"type": "发起", "content": "好，农谚是什么意思？你说。"},
     {"type": "讲解", "content": "好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。"},
     {"type": "发起", "content": "这里的农谚是什么？"},
     {"type": "发起", "content": "“对梨五杏四”是什么意思啊？"},
     {"type": "讲解", "content": "你看，这么长的话，它用四个字就能概括，是不是啊？"},
-    {"type": "评价", "content": "很好，说了一句农谚。"},
+    {"type": "评价", "content": "很好，"},
+    {"type": "讲解", "content": "说了一句农谚。"},
     {"type": "讲解", "content": "小乌鸦对着猴哥说了一句农谚。"},
     {"type": "发起", "content": "接着说下去。"},
-    {"type": "发起", "content": "哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
-    {"type": "发起", "content": "哦，你有这个耐心吗？"},
-    {"type": "发起", "content": "就是说你没这个耐心啊，是不是啊？"},
+    {"type": "讲解", "content": "哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
+    {"type": "讲解", "content": "哦，你有这个耐心吗？"},
+    {"type": "讲解", "content": "就是说你没这个耐心啊，是不是啊？"},
     {"type": "讲解", "content": "你看，这里又来一问，语气就更强烈。"},
     {"type": "评价", "content": "真棒。"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -497,33 +428,6 @@
   {"type": "讲解", "content": "哦，你有这个耐心吗？就是说你没这个耐心啊，是不是啊？你看，这里又来一问，语气就更强烈。"},
   {"type": "评价", "content": "真棒。"},
   {"type": "其它", "content": "我给你两个选择，好不好？"}
-]</t>
-  </si>
-  <si>
-    <t>[
-  {"type":"其它", "content":"好的，你连叫两声。"},
-  {"type":"其它", "content":"猴哥，给我听听。"},
-  {"type":"其它", "content":"哎，猴哥听见了。"},
-  {"type":"发起", "content":"来，我们学着他的样子。小乌鸦们，叫两声猴哥。"},
-  {"type":"其它","content":"猴哥听见了。"},
-  {"type":"发起", "content":"好，小乌鸦继续说下去。"},
-  {"type":"发起", "content":"哎，你怎么种梨树呢？"},
-  {"type":"发起", "content":"我给你两个选择，好不好？"},
-  {"type":"讲解", "content":"一是你不可以种梨树，是不是这个意思？还是说你可以种梨树？应该是第一个选项，是不是？你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
-  {"type":"讲解", "content":"哎，这里来一个反问。这个语气怎么样？就更着急了，对不对？这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
-  {"type":"发起", "content":"好，来，小乌鸦继续劝下去。"},
-  {"type":"发起", "content":"好，农谚是什么意思？你说。"},
-  {"type":"讲解", "content":"好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。"},
-  {"type":"发起", "content":"这里的农谚是什么？“对梨五杏四”是什么意思啊？"},
-  {"type":"讲解", "content":"你看，这么长的话，它用四个字就能概括，是不是啊？"},
-  {"type":"评价", "content":"很好，说了一句农谚。"},
-  {"type":"讲解", "content":"小乌鸦对着猴哥说了一句农谚。"},
-  {"type":"发起", "content":"接着说下去。"},
-  {"type":"讲解", "content":"哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
-  {"type":"发起", "content":"哦，你有这个耐心吗？"},
-  {"type":"讲解", "content":"就是说你没这个耐心啊，是不是啊？"},
-  {"type":"讲解", "content":"你看，这里又来一问，语气就更强烈。"},
-  {"type":"评价", "content":"真棒。"}
 ]</t>
   </si>
   <si>
@@ -563,46 +467,45 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
-    {"type":"发起", "content":"哪知小乌鸦再来试试看，再来劝劝猴哥。"},
-    {"type":"发起", "content":"你来，欢迎陈一坤。"},
-    {"type":"评价", "content":"哎，这只小乌鸦讲的好不好？非常棒，真好。"},
-    {"type":"发起", "content":"来，加上前面这一段。"},
-    {"type":"发起", "content":"来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
-    {"type":"发起", "content":"啊，谁来做小乌鸦来劝劝猴子？"},
-    {"type":"发起", "content":"好，梁振轩。"},
-    {"type":"评价", "content":"嗯，非常好，给他掌声。"},
-    {"type":"讲解", "content":"猴哥听了，肯定有想法了，是不是呀？"},
-    {"type":"发起", "content":"哎，好，那一只小乌鸦再来试试。"},
-    {"type":"评价", "content":"刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
-    {"type":"发起", "content":"好，你来。"},
-    {"type":"评价", "content":"嗯，为这只热情的小乌鸦鼓掌。"},
-    {"type":"其它", "content":"啊啊，好。"},
-    {"type":"发起", "content":"除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
-    {"type":"发起", "content":"嗯，先把书拿出来好不好？"},
-    {"type":"发起", "content":"来，把书现在打开，把书翻到四十六页啊，四十七页。"},
-    {"type":"发起", "content":"找到之后，把那个自己读一读。"},
-    {"type":"发起", "content":"好，除了乌鸦来劝猴子，还有谁来了？"},
-    {"type":"发起", "content":"来，你来说。"},
-    {"type":"讲解", "content":"嗯，喜鹊和杜鹃。"},
-    {"type":"评价", "content":"好，你来读读喜鹊是怎么对猴子说的。也是一只热情的小喜鹊。"},
-    {"type":"发起", "content":"好，谁再来做做喜鹊来读读这段话。"},
-    {"type":"发起", "content":"好，你呃，我请来你来。"},
-    {"type":"发起", "content":"这样子，我请女孩子来给大家读，好不好？"},
-    {"type":"讲解", "content":"正当杏树成活的时候，预备齐。"},
-    {"type":"发起", "content":"好，接下来还有哪只鸟来劝猴子了？"},
-    {"type":"讲解", "content":"嗯，这个森林里太热闹了，是不是？"},
-    {"type":"发起", "content":"来，薛子浩，你来说说。"},
-    {"type":"评价", "content":"嗯，真是一只可爱的小杜鹃。请坐。"},
-    {"type":"发起", "content":"好，再请一个同学来试试看。"},
-    {"type":"发起", "content":"好，桓齐。"},
-    {"type":"评价", "content":"嗯，谢谢你，小杜鹃。猴哥听到了。"},
-    {"type":"发起", "content":"好，这课要请男孩子来做杜鹃，好不好？"},
-    {"type":"发起", "content":"把这段话来读一读啊。"},
-    {"type":"讲解", "content":"正当桃树成活的时候，预备起。"}
+    {"type": "讲解", "content": "哪只小乌鸦再来试试看，再来劝劝猴哥。"},
+    {"type": "发起", "content": "你来，欢迎陈一坤。"},
+    {"type": "评价", "content": "哎，这只小乌鸦讲的好不好？非常棒，真好。"},
+    {"type": "发起", "content": "来，加上前面这一段。"},
+    {"type": "发起", "content": "来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
+    {"type": "发起", "content": "啊，谁来做小乌鸦来劝劝猴子？"},
+    {"type": "发起", "content": "好，梁振轩。"},
+    {"type": "评价", "content": "嗯，非常好，给他掌声。"},
+    {"type": "讲解", "content": "猴哥听了，肯定有想法了，是不是呀？"},
+    {"type": "发起", "content": "哎，好，那一只小乌鸦再来试试。"},
+    {"type": "评价", "content": "刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
+    {"type": "发起", "content": "好，你来。"},
+    {"type": "评价", "content": "嗯，为这只热情的小乌鸦鼓掌。"},
+    {"type": "其它", "content": "啊啊，好。"},
+    {"type": "发起", "content": "除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
+    {"type": "发起", "content": "嗯，先把书拿出来好不好？来，把书现在打开，把书翻到四十六页啊，四十七页。找到之后，把那个自己读一读。"},
+    {"type": "发起", "content": "好，除了乌鸦来劝猴子，还有谁来了？来，你来说。"},
+    {"type": "讲解", "content": "嗯，喜鹊和杜鹃。"},
+    {"type": "发起", "content": "好，你来读读喜鹊是怎么对猴子说的。"},
+    {"type": "评价", "content": "也是一只热情的小喜鹊。"},
+    {"type": "发起", "content": "好，谁再来做做喜鹊来读读这段话。"},
+    {"type": "发起", "content": "好，你呃，我请来你来。"},
+    {"type": "发起", "content": "这样子，我请女孩子来给大家读，好不好？"},
+    {"type": "发起", "content": "正当杏树成活的时候，预备齐。"},
+    {"type": "发起", "content": "好，接下来还有哪只鸟来劝猴子了？"},
+    {"type": "讲解", "content": "嗯，这个森林里太热闹了，是不是？"},
+    {"type": "发起", "content": "来，薛子浩，你来说说。"},
+    {"type": "评价", "content": "嗯，真是一只可爱的小杜鹃。"},
+    {"type": "发起", "content": "请坐。"},
+    {"type": "发起", "content": "好，再请一个同学来试试看。"},
+    {"type": "发起", "content": "好，桓齐。"},
+    {"type": "评价", "content": "嗯，谢谢你，小杜鹃。"},
+    {"type": "讲解", "content": "猴哥听到了。"},
+    {"type": "发起", "content": "好，这课要请男孩子来做杜鹃，好不好？把这段话来读一读啊。正当桃树成活的时候，预备起。"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -634,48 +537,6 @@
 ]</t>
   </si>
   <si>
-    <t>[
-  {"type":"发起","content":"哪知小乌鸦再来试试看，再来劝劝猴哥。"},
-  {"type":"发起","content":"你来，欢迎陈一坤。"},
-  {"type":"评价","content":"哎，这只小乌鸦讲的好不好？非常棒，真好。"},
-  {"type":"发起","content":"来，加上前面这一段。"},
-  {"type":"发起","content":"来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
-  {"type":"发起","content":"啊，谁来做小乌鸦来劝劝猴子？"},
-  {"type":"发起","content":"好，梁振轩。"},
-  {"type":"评价","content":"嗯，非常好，给他掌声。"},
-  {"type":"发起","content":"猴哥听了，肯定有想法了，是不是呀？"},
-  {"type":"发起","content":"哎，好，那一只小乌鸦再来试试。"},
-  {"type":"评价","content":"刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
-  {"type":"发起","content":"好，你来。"},
-  {"type":"其它","content":"嗯，为这只热情的小乌鸦鼓掌。"},
-  {"type":"其它","content":"啊啊，好。"},
-  {"type":"发起","content":"除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
-  {"type":"发起","content":"嗯，先把书拿出来好不好？"},
-  {"type":"发起","content":"来，把书现在打开，把书翻到四十六页啊，四十七页。"},
-  {"type":"发起","content":"找到之后，把那个自己读一读。"},
-  {"type":"发起","content":"好，除了乌鸦来劝猴子，还有谁来了？"},
-  {"type":"发起","content":"来，你来说。"},
-  {"type":"其它","content":"嗯，喜鹊和杜鹃。"},
-  {"type":"发起","content":"好，你来读读喜鹊是怎么对猴子说的。"},
-  {"type":"评价","content":"也是一只热情的小喜鹊。"},
-  {"type":"发起","content":"好，谁再来做做喜鹊来读读这段话。"},
-  {"type":"发起","content":"好，你呃，我请来你来。"},
-  {"type":"发起","content":"这样子，我请女孩子来给大家读，好不好？"},
-  {"type":"发起","content":"正当杏树成活的时候，预备齐。"},
-  {"type":"发起","content":"好，接下来还有哪只鸟来劝猴子了？"},
-  {"type":"发起","content":"嗯，这个森林里太热闹了，是不是？"},
-  {"type":"发起","content":"来，薛子浩，你来说说。"},
-  {"type":"评价","content":"嗯，真是一只可爱的小杜鹃。"},
-  {"type":"其它","content":"请坐。"},
-  {"type":"发起","content":"好，再请一个同学来试试看。"},
-  {"type":"发起","content":"好，桓齐。"},
-  {"type":"评价","content":"嗯，谢谢你，小杜鹃。猴哥听到了。"},
-  {"type":"发起","content":"好，这课要请男孩子来做杜鹃，好不好？"},
-  {"type":"发起","content":"把这段话来读一读啊。"},
-  {"type":"发起","content":"正当桃树成活的时候，预备起。"}
-]</t>
-  </si>
-  <si>
     <t>真的是男孩子今天读的真好， 而且很多女孩子也在认真听，我也要表扬， 非常好啊，来同学们，你们来看啊， 乌鸦喜鹊杜鹃都来劝猴子了， 他们劝猴子说的话的时候又有什么相似之处吗， 找找规律看， 秦源， 你找到什么，很好，对不对，它们的叫声对不对，那我们来继续看啊， 乌鸦喜鹊杜鹃，哎，很好， 谁都有叫声，好，他找到的相似处真棒， 还有一个，一共三段话，好农谚，那么在农谚之前，先连叫几只猴哥， 对，你们看乌鸦对猴子说也是猴哥猴哥， 喜鹊对猴子说也是猴哥猴哥，对对，杜鹃对猴子说的时候， 也是连叫两声猴哥猴哥 ，这个三只小鸟也是非常急， 对不对，想要叫猴哥听到是不是， 然后再像周浩天说的一样， 要来一句问句，对不对，你怎么种梨树呢，喜鹊说你怎么种，杏树呢，杜鹃说，猴哥猴哥你怎么种桃树呢， 意思都在说你不可以种的杏树，你不可以种桃树，好，然后再来一句农谚，好，来，还有，你说，有句农谚就是说了农谚，对， 就是在说这个重量级， 对不对，来， 最后一句你有这个耐心吗，然后再找第四段喜鹊对猴子说最后一句话是，有的同学没有找到，没有在认真听讲， 要找的快呀，认真一点，现在都在录课，还有人脚是没有放平， 今天都要练习一下坐姿，好， 然后，好，杜鹃对猴子说的最后一句话是什么，</t>
   </si>
   <si>
@@ -684,17 +545,16 @@
   <si>
     <t>[
     {"type": "评价", "content": "真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
-    {"type": "讲解", "content": "来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
+    {"type": "发起", "content": "来，同学们，你们来看啊。"},
+    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
     {"type": "发起", "content": "秦源，你找到什么？"},
     {"type": "评价", "content": "很好，对不对？"},
     {"type": "发起", "content": "它们的叫声对不对？"},
-    {"type": "发起", "content": "那我们来继续看啊。乌鸦、喜鹊、杜鹃，"},
-    {"type": "评价", "content": "哎，很好，谁都有叫声。好，他找到的相似处真棒。"},
+    {"type": "发起", "content": "那我们来继续看啊。"},
+    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。"},
     {"type": "发起", "content": "还有一个，一共三段话。"},
     {"type": "评价", "content": "好，农谚。"},
-    {"type": "发起", "content": "那么在农谚之前，先连叫几声猴哥，"},
-    {"type": "评价", "content": "对。"},
-    {"type": "讲解", "content": "你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
+    {"type": "讲解", "content": "那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
     {"type": "发起", "content": "好，来。还有，你说，"},
     {"type": "评价", "content": "有句农谚就是说了农谚，对。"},
     {"type": "讲解", "content": "就是在说这个重量级，对不对？"},
@@ -705,30 +565,35 @@
   ]</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {"type": "评价", "content": "真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
-    {"type": "发起", "content": "来，同学们，你们来看啊。"},
+    {"type": "其它", "content": "来，同学们，你们来看啊。"},
     {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
     {"type": "发起", "content": "秦源，你找到什么？"},
     {"type": "评价", "content": "很好，对不对？"},
     {"type": "发起", "content": "它们的叫声对不对？"},
-    {"type": "发起", "content": "那我们来继续看啊。"},
-    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。"},
-    {"type": "讲解", "content": "好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。"},
-    {"type": "讲解", "content": "这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？"},
+    {"type": "其它", "content": "那我们来继续看啊。"},
+    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。"},
+    {"type": "讲解", "content": "那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。"},
+    {"type": "讲解", "content": "这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？"},
+    {"type": "讲解", "content": "然后再像周浩天说的一样，要来一句问句，对不对？"},
     {"type": "发起", "content": "你怎么种梨树呢？"},
-    {"type": "讲解", "content": "喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。"},
-    {"type": "讲解", "content": "好，然后再来一句农谚。"},
-    {"type": "发起", "content": "好，来。还有，你说，有句农谚就是说了农谚，对。"},
+    {"type": "讲解", "content": "喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”"},
+    {"type": "讲解", "content": "意思都在说你不可以种杏树，你不可以种桃树。"},
+    {"type": "发起", "content": "好，然后再来一句农谚。好，来。"},
+    {"type": "发起", "content": "还有，你说，有句农谚就是说了农谚，对。"},
     {"type": "讲解", "content": "就是在说这个重量级，对不对？"},
     {"type": "发起", "content": "来，最后一句“你有这个耐心吗？”"},
     {"type": "发起", "content": "然后再找第四段，喜鹊对猴子说最后一句话是？"},
-    {"type": "评价", "content": "有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。"},
+    {"type": "评价", "content": "有的同学没有找到，没有在认真听讲。"},
+    {"type": "发起", "content": "要找的快呀，认真一点。"},
     {"type": "其它", "content": "现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
-    {"type": "发起", "content": "好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
+    {"type": "发起", "content": "好，然后，"},
+    {"type": "发起", "content": "好，杜鹃对猴子说的最后一句话是什么？"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -752,31 +617,16 @@
 ]</t>
   </si>
   <si>
+    <t xml:space="preserve">好，把三句话来说一说， 我再问乌鸦对猴子说的最后一句话是什么，好喜鹊对猴子说的最后一句话， 杜鹃对猴子说的最后一句话， 三句话意思一样吗，对一样，但是为什么这里他的说法不一样， 你有这么耐心吗，你能等得及吗，你不着急吗，都在说猴子怎么样， 都在说猴子怎么样，都在说猴子，会着急， 没耐心等不及， 是不是啊，这个猴子越来越着急，是的啊， 在这里他有三个不同的想法很好，你说还有什么， 啊很好， 他说出一个特点来这三句为什么不一样，如果三句都一样就没意思了， 读起来是不是这样子，让这个故事更丰富很好，同样的意思可以用不同的句子来表达， 这就是我们中国语言的神秘之处啊， 我们中国语言文字的奥秘所在，好，你说，你有什么补充，好，谢谢你的发现，你来说，正当成他们成活的时候，是不是，好，非常好，来孩子们这三段话居然找到相似之处，哎，那我们讲这个故事的时候， 是不是觉得很好讲，是的好的， 自己选一个角色，你可以选乌鸦，可以选喜鹊，也可以选杜鹃， 把他的这段话自己在下面练讲， 等一会儿像高婷一样站起来啊，很熟练的啊， 很有感情的告诉给大家， 好的啊，自己练好了，是不是，那可以讲给你的同桌好朋友听啊，哎如果你是讲乌鸦的话， 你讲给同桌听， </t>
+  </si>
+  <si>
+    <t>好，把三句话来说一说。我再问乌鸦对猴子说的最后一句话是什么。好，喜鹊对猴子说的最后一句话。杜鹃对猴子说的最后一句话。三句话意思一样吗？对，一样。但是为什么这里他的说法不一样？你有这么耐心吗？你能等得及吗？你不着急吗？都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。很好，你说还有什么？啊，很好。 他说出一个特点来。这三句为什么不一样？如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。好，你说，你有什么补充？好，谢谢你的发现。你来说，正当他们成活的时候，是不是？好，非常好。来，孩子们，这三段话居然找到相似之处。哎，那我们讲这个故事的时候，是不是觉得很好讲？是的。好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。哎，如果你是讲乌鸦的话，你讲给同桌听。</t>
+  </si>
+  <si>
     <t>[
-  {"type":"评价","content":"真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
-  {"type":"发起","content":"来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
-  {"type":"发起","content":"秦源，你找到什么？"},
-  {"type":"评价","content":"很好，对不对？它们的叫声对不对？"},
-  {"type":"讲解","content":"那我们来继续看啊。乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
-  {"type":"发起","content":"好，还有，你说，有句农谚就是说了农谚，对。就是在说这个重量级，对不对？"},
-  {"type":"发起","content":"来，最后一句“你有这个耐心吗？”"},
-  {"type":"发起","content":"然后喜鹊对猴子说最后一句话是？"},
-  {"type":"其它","content":"有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
-  {"type":"发起","content":"好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
-]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好，把三句话来说一说， 我再问乌鸦对猴子说的最后一句话是什么，好喜鹊对猴子说的最后一句话， 杜鹃对猴子说的最后一句话， 三句话意思一样吗，对一样，但是为什么这里他的说法不一样， 你有这么耐心吗，你能等得及吗，你不着急吗，都在说猴子怎么样， 都在说猴子怎么样，都在说猴子，会着急， 没耐心等不及， 是不是啊，这个猴子越来越着急，是的啊， 在这里他有三个不同的想法很好，你说还有什么， 啊很好， 他说出一个特点来这三句为什么不一样，如果三句都一样就没意思了， 读起来是不是这样子，让这个故事更丰富很好，同样的意思可以用不同的句子来表达， 这就是我们中国语言的神秘之处啊， 我们中国语言文字的奥秘所在，好，你说，你有什么补充，好，谢谢你的发现，你来说，正当成他们成活的时候，是不是，好，非常好，来孩子们这三段话居然找到相似之处，哎，那我们讲这个故事的时候， 是不是觉得很好讲，是的好的， 自己选一个角色，你可以选乌鸦，可以选喜鹊，也可以选杜鹃， 把他的这段话自己在下面练讲， 等一会儿像高婷一样站起来啊，很熟练的啊， 很有感情的告诉给大家， 好的啊，自己练好了，是不是，那可以讲给你的同桌好朋友听啊，哎如果你是讲乌鸦的话， 你讲给同桌听， </t>
-  </si>
-  <si>
-    <t>好，把三句话来说一说。我再问乌鸦对猴子说的最后一句话是什么。好，喜鹊对猴子说的最后一句话。杜鹃对猴子说的最后一句话。三句话意思一样吗？对，一样。但是为什么这里他的说法不一样？你有这么耐心吗？你能等得及吗？你不着急吗？都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。很好，你说还有什么？啊，很好。 他说出一个特点来。这三句为什么不一样？如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。好，你说，你有什么补充？好，谢谢你的发现。你来说，正当他们成活的时候，是不是？好，非常好。来，孩子们，这三段话居然找到相似之处。哎，那我们讲这个故事的时候，是不是觉得很好讲？是的。好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。哎，如果你是讲乌鸦的话，你讲给同桌听。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[
     {"type":"发起","content":"好，把三句话来说一说。"},
     {"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
-    {"type": "评价", "content": "好"},
-    {"type":"发起","content":"喜鹊对猴子说的最后一句话。"},
+    {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
     {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
     {"type":"发起","content":"三句话意思一样吗？"},
     {"type":"评价","content":"对，一样。"},
@@ -794,39 +644,36 @@
     {"type":"评价","content":"是的。"},
     {"type":"发起","content":"好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
     {"type":"发起","content":"好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。哎，如果你是讲乌鸦的话，你讲给同桌听。"}
-]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "result": [
+    {"type": "发起", "content": "好，把三句话来说一说。"},
+    {"type": "发起", "content": "我再问乌鸦对猴子说的最后一句话是什么。"},
+    {"type": "发起", "content": "好，喜鹊对猴子说的最后一句话。"},
+    {"type": "发起", "content": "杜鹃对猴子说的最后一句话。"},
+    {"type": "发起", "content": "三句话意思一样吗？"},
+    {"type": "讲解", "content": "对，一样。"},
+    {"type": "讲解", "content": "但是为什么这里他的说法不一样？你有这么耐心吗？你能等得及吗？你不着急吗？都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。"},
+    {"type": "评价", "content": "很好，"},
+    {"type": "发起", "content": "你说还有什么？"},
+    {"type": "评价", "content": "啊，很好。"},
+    {"type": "评价", "content": "他说出一个特点来。"},
+    {"type": "发起", "content": "这三句为什么不一样？"},
+    {"type": "讲解", "content": "如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。"},
+    {"type": "讲解", "content": "很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
+    {"type": "发起", "content": "好，你说，你有什么补充？"},
+    {"type": "评价", "content": "好，谢谢你的发现。"},
+    {"type": "发起", "content": "你来说，正当他们成活的时候，是不是？"},
+    {"type": "评价", "content": "好，非常好。"},
+    {"type": "发起", "content": "来，孩子们，这三段话居然找到相似之处。哎，那我们讲这个故事的时候，是不是觉得很好讲？是的。"},
+    {"type": "发起", "content": "好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
+    {"type": "发起", "content": "好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。"},
+    {"type": "发起", "content": "哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+  ]
+}
 </t>
-  </si>
-  <si>
-    <t>{"result":[
-    {"type":"发起","content":"好，把三句话来说一说。"},
-    {"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
-    {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
-    {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
-    {"type":"发起","content":"三句话意思一样吗？"},
-    {"type":"发起","content":"对，一样。但是为什么这里他的说法不一样？"},
-    {"type":"发起","content":"你有这么耐心吗？"},
-    {"type":"发起","content":"你能等得及吗？"},
-    {"type":"发起","content":"你不着急吗？"},
-    {"type":"讲解","content":"都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。"},
-    {"type":"评价","content":"很好，你说还有什么？"},
-    {"type":"评价","content":"啊，很好。他说出一个特点来。"},
-    {"type":"发起","content":"这三句为什么不一样？"},
-    {"type":"讲解","content":"如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。"},
-    {"type":"评价","content":"很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
-    {"type":"发起","content":"好，你说，你有什么补充？"},
-    {"type":"评价","content":"好，谢谢你的发现。"},
-    {"type":"发起","content":"你来说，正当他们成活的时候，是不是？"},
-    {"type":"评价","content":"好，非常好。"},
-    {"type":"发起","content":"来，孩子们，这三段话居然找到相似之处。"},
-    {"type":"发起","content":"哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
-    {"type":"发起","content":"是的。"},
-    {"type":"发起","content":"好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
-    {"type":"发起","content":"把他的这段话自己在下面练讲。"},
-    {"type":"发起","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
-    {"type":"发起","content":"好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。"},
-    {"type":"发起","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
-]}</t>
   </si>
   <si>
     <t>[
@@ -855,106 +702,70 @@
 ]</t>
   </si>
   <si>
+    <t xml:space="preserve">同桌如果讲喜趣的话呢， 那要反过来讲， 等一会下课再出去，啊， 是不是讲得差不多了，来小乌鸦来试试， 那等一会儿吧，我们毕竟有三十八个同学在等你们两个， 那太不好了啊， 那再给你一点时间啊，哎，你们很好尊重其它同学啊，好， 谁来试试，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话，好， 王子辰，这只乌鸦怎么样，好不好哦， 好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦，如果我们是猴哥的话，肯定是怎么样， 要听他的话非常好啊，下课方老师要给你敲个章，别忘了啊， 好，哪只小乌鸦再来试试，还可以加动作啊， 对嘛吧，这种动作加上就更好了啊， 因为讲故事嘛，不要一本正经， 是不是可以表演一些动作表情行都可以出来啊，好，你来试试，我们在讲乌鸦， 好的，等一儿请你好不好，好， 你这样吧，你上来吧， 好不好，我上来讲好不好，来掌声鼓励一起，哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊， 来，给他鼓励一点，有没有给他好的建议，不要一直飞， 是不是啊，可以怎么样，可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果，你有这个耐心吗， 可以这种动作做出来好不好，哎呦，好样的啊，能不能更好一点了， </t>
+  </si>
+  <si>
+    <t>同桌如果讲喜趣的话呢？那要反过来讲。等一会下课再出去，啊？是不是讲得差不多了？来，小乌鸦来试试。那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。哎，你们很好，尊重其它同学啊。好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。好，哪只小乌鸦再来试试？还可以加动作啊。对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。好，你来试试，我们在讲乌鸦。好的，等一会请你好不好？好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。来，给他鼓励一点，有没有给他好的建议？不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？哎呦，好样的啊，能不能更好一点了？</t>
+  </si>
+  <si>
     <t>[
-  {"type":"发起","content":"好，把三句话来说一说。"},
-  {"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
-  {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
-  {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
-  {"type":"发起","content":"三句话意思一样吗？"},
-  {"type":"评价","content":"对，一样。"},
-  {"type":"发起","content":"但是为什么这里他的说法不一样？"},
-  {"type":"发起","content":"你有这么耐心吗？"},
-  {"type":"发起","content":"你能等得及吗？"},
-  {"type":"发起","content":"你不着急吗？"},
-  {"type":"讲解","content":"都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。"},
-  {"type":"发起","content":"是不是啊？"},
-  {"type":"讲解","content":"这个猴子越来越着急，是的啊。"},
-  {"type":"讲解","content":"在这里他有三个不同的想法。"},
-  {"type":"评价","content":"很好，你说还有什么？"},
-  {"type":"其它","content":"啊，很好。"},
-  {"type":"评价","content":"他说出一个特点来。"},
-  {"type":"发起","content":"这三句为什么不一样？"},
-  {"type":"讲解","content":"如果三句都一样就没意思了。"},
-  {"type":"发起","content":"读起来是不是这样子？"},
-  {"type":"讲解","content":"让这个故事更丰富。"},
-  {"type":"讲解","content":"很好。同样的意思可以用不同的句子来表达。"},
-  {"type":"讲解","content":"这就是我们中国语言的神秘之处啊。"},
-  {"type":"讲解","content":"我们中国语言文字的奥秘所在。"},
-  {"type":"发起","content":"好，你说，你有什么补充？"},
-  {"type":"评价","content":"好，谢谢你的发现。"},
-  {"type":"发起","content":"你来说，正当他们成活的时候，是不是？"},
-  {"type":"评价","content":"好，非常好。"},
-  {"type":"讲解","content":"来，孩子们，这三段话居然找到相似之处。"},
-  {"type":"发起","content":"哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
-  {"type":"评价","content":"是的。"},
-  {"type":"发起","content":"好的，自己选一个角色。"},
-  {"type":"讲解","content":"你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
-  {"type":"发起","content":"把他的这段话自己在下面练讲。"},
-  {"type":"讲解","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
-  {"type":"讲解","content":"好的啊，自己练好了，是不是？"},
-  {"type":"发起","content":"那可以讲给你的同桌好朋友听啊。"},
-  {"type":"讲解","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+    {"type": "发起", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
+    {"type": "其它", "content": "等一会下课再出去，啊？"},
+    {"type": "发起", "content": "是不是讲得差不多了？来，小乌鸦来试试。"},
+    {"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。"},
+    {"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
+    {"type": "发起", "content": "好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，"},
+    {"type": "评价", "content": "这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。"},
+    {"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
+    {"type": "发起", "content": "还可以加动作啊。"},
+    {"type": "评价", "content": "对嘛吧，这种动作加上就更好了啊。"},
+    {"type": "讲解", "content": "因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+    {"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
+    {"type": "其它", "content": "好的，等一会请你好不好？"},
+    {"type": "发起", "content": "好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。"},
+    {"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+    {"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
+    {"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
+    {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">同桌如果讲喜趣的话呢， 那要反过来讲， 等一会下课再出去，啊， 是不是讲得差不多了，来小乌鸦来试试， 那等一会儿吧，我们毕竟有三十八个同学在等你们两个， 那太不好了啊， 那再给你一点时间啊，哎，你们很好尊重其它同学啊，好， 谁来试试，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话，好， 王子辰，这只乌鸦怎么样，好不好哦， 好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦，如果我们是猴哥的话，肯定是怎么样， 要听他的话非常好啊，下课方老师要给你敲个章，别忘了啊， 好，哪只小乌鸦再来试试，还可以加动作啊， 对嘛吧，这种动作加上就更好了啊， 因为讲故事嘛，不要一本正经， 是不是可以表演一些动作表情行都可以出来啊，好，你来试试，我们在讲乌鸦， 好的，等一儿请你好不好，好， 你这样吧，你上来吧， 好不好，我上来讲好不好，来掌声鼓励一起，哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊， 来，给他鼓励一点，有没有给他好的建议，不要一直飞， 是不是啊，可以怎么样，可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果，你有这个耐心吗， 可以这种动作做出来好不好，哎呦，好样的啊，能不能更好一点了， </t>
-  </si>
-  <si>
-    <t>同桌如果讲喜趣的话呢？那要反过来讲。等一会下课再出去，啊？是不是讲得差不多了？来，小乌鸦来试试。那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。哎，你们很好，尊重其它同学啊。好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。好，哪只小乌鸦再来试试？还可以加动作啊。对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。好，你来试试，我们在讲乌鸦。好的，等一会请你好不好？好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。来，给他鼓励一点，有没有给他好的建议？不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？哎呦，好样的啊，能不能更好一点了？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[{"type": "发起", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
-{"type": "其它", "content": "等一会下课再出去，啊？"},
-{"type": "发起", "content": "是不是讲得差不多了？来，小乌鸦来试试。"},
-{"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。"},
-{"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
-{"type": "发起", "content": "好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，"},
-{"type": "评价", "content": "这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。"},
-{"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
-{"type": "发起", "content": "还可以加动作啊。"},
-{"type": "评价", "content": "对嘛吧，这种动作加上就更好了啊。"},
-{"type": "讲解", "content": "因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
-{"type": "发起", "content": "好，你来试试，我们在讲乌鸦。好的，等一会请你好不好？"},
-{"type": "发起", "content": "好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。"},
-{"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
-{"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
-{"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
-{"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
-    ]</t>
-  </si>
-  <si>
-    <t>{
-    "result": [
-{"type": "发起", "content": "同桌如果讲喜趣的话呢？"},
-{"type": "发起", "content": "那要反过来讲。"},
-{"type": "其它", "content": "等一会下课再出去，啊？"},
-{"type": "发起", "content": "是不是讲得差不多了？来，小乌鸦来试试。"},
-{"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
-{"type": "发起", "content": "那再给你一点时间啊。"},
-{"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
-{"type": "发起", "content": "好，谁来试试？"},
-{"type": "发起", "content": "我们先请小乌鸦，好吧？"},
-{"type": "发起", "content": "谁是刚刚练了小乌鸦的话？"},
-{"type": "发起", "content": "好，王子辰，这只乌鸦怎么样，好不好哦？"},
-{"type": "评价", "content": "好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
-{"type": "发起", "content": "如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。"},
-{"type": "其它", "content": "下课方老师要给你敲个章，别忘了啊。"},
-{"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
-{"type": "发起", "content": "还可以加动作啊。"},
-{"type": "评价", "content": "对嘛吧，这种动作加上就更好了啊。"},
-{"type": "讲解", "content": "因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
-{"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
-{"type": "其它", "content": "好的，等一会请你好不好？"},
-{"type": "发起", "content": "好，你这样吧，你上来吧，好不好？"},
-{"type": "发起", "content": "我上来讲好不好？来，掌声鼓励一起。"},
-{"type": "其它", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
-{"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
-{"type": "发起", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。"},
-{"type": "讲解", "content": "比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
-{"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
-    ]
-}</t>
+    <t xml:space="preserve">{
+  "result": [
+    {"type": "发起", "content": "同桌如果讲喜趣的话呢？"},
+    {"type": "发起", "content": "那要反过来讲。"},
+    {"type": "其它", "content": "等一会下课再出去，啊？"},
+    {"type": "发起", "content": "是不是讲得差不多了？"},
+    {"type": "发起", "content": "来，小乌鸦来试试。"},
+    {"type": "讲解", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
+    {"type": "发起", "content": "那再给你一点时间啊。"},
+    {"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
+    {"type": "发起", "content": "好，谁来试试？"},
+    {"type": "发起", "content": "我们先请小乌鸦，好吧？"},
+    {"type": "发起", "content": "谁是刚刚练了小乌鸦的话？"},
+    {"type": "发起", "content": "好，王子辰，这只乌鸦怎么样，好不好哦？"},
+    {"type": "评价", "content": "好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
+    {"type": "发起", "content": "如果我们是猴哥的话，肯定是怎么样？"},
+    {"type": "评价", "content": "要听他的话，非常好啊。"},
+    {"type": "其它", "content": "下课方老师要给你敲个章，别忘了啊。"},
+    {"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
+    {"type": "其它", "content": "还可以加动作啊。"},
+    {"type": "讲解", "content": "对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+    {"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
+    {"type": "其它", "content": "好的，等一会请你好不好？"},
+    {"type": "发起", "content": "好，你这样吧，你上来吧，好不好？"},
+    {"type": "发起", "content": "我上来讲好不好？"},
+    {"type": "发起", "content": "来，掌声鼓励一起。"},
+    {"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+    {"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
+    {"type": "发起", "content": "不要一直飞，是不是啊？"},
+    {"type": "发起", "content": "可以怎么样？"},
+    {"type": "讲解", "content": "可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？"},
+    {"type": "讲解", "content": "可以这种动作做出来，好不好？"},
+    {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
+  ]
+}
+</t>
   </si>
   <si>
     <t>[
@@ -977,243 +788,175 @@
 ]</t>
   </si>
   <si>
+    <t xml:space="preserve">能够把故事讲用一个，第二个能加上动作，来来第三个能不能表演的更好，哎， 加上表情啊，你来试试， 你是读乌鸦的话是吗，来上来小乌鸦，有请小乌鸦， 嗯，很好，表演的非常不错，三只小乌鸭都非常棒，你们三个小朋友都可以参加，好，接下来请演喜鹊的小朋友，谁来讲讲喜鹊的话，好，恭请， 啊，下面的小听众也要注意了啊人家上面表演的，那么认真，那你下面也要尊重这些小演员啊， 咦这个动作啊非常可爱啊，好的， 哎，如果这个再讲的通顺一点就更好了，是不是， 我来找下面讲话的小朋友，这样不好，哎， 哪怕他做的不好，你也不可以在下面窃窃私语， 这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字， 现在都没关系，那我请你来，你还不如她呢，不能在下面讲啊，来，我要表扬，能够举手，勇敢上台表扬的小朋友啊，好，开始， 好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊，那正当杏树，我们在讲喜鹊，我们现在讲喜鹊， 那你刚刚准备的是哪只，好，等会演杜鹃的时候，我再请你来，我再请刚刚在下面做小动作的同学，脸抬起来，你不想看来你来，隔壁脸，一点都不难为情，现在在录课，你不懂难为情的， 你来讲喜鹊的话，你刚准备了谁的，  </t>
+  </si>
+  <si>
+    <t>能够把故事讲用一个。第二个能加上动作。来来，第三个能不能表演得更好？哎，加上表情啊。你来试试。你是读乌鸦的话是吗？来，上来小乌鸦。有请小乌鸦。嗯，很好，表演得非常不错。三只小乌鸦都非常棒。你们三个小朋友都可以参加。好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。好，开始。好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来。我再请刚刚在下面做小动作的同学，脸抬起来。你不想来？那你来。隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？你来讲喜鹊的话。你刚准备了谁的？</t>
+  </si>
+  <si>
     <t>[
-  {"type":"发起","content":"同桌如果讲喜趣的话呢？那要反过来讲。"},
-  {"type":"其它","content":"等一会下课再出去，啊？"},
-  {"type":"发起","content":"是不是讲得差不多了？来，小乌鸦来试试。"},
-  {"type":"其它","content":"那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
-  {"type":"其它","content":"那再给你一点时间啊。"},
-  {"type":"评价","content":"哎，你们很好，尊重其它同学啊。"},
-  {"type":"发起","content":"好，谁来试试？我们先请小乌鸦，好吧？"},
-  {"type":"发起","content":"谁是刚刚练了小乌鸦的话？"},
-  {"type":"发起","content":"好，王子辰，这只乌鸦怎么样，好不好哦？"},
-  {"type":"评价","content":"好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
-  {"type":"发起","content":"如果我们是猴哥的话，肯定是怎么样？"},
-  {"type":"评价","content":"要听他的话，非常好啊。"},
-  {"type":"其它","content":"下课方老师要给你敲个章，别忘了啊。"},
-  {"type":"发起","content":"好，哪只小乌鸦再来试试？"},
-  {"type":"其它","content":"还可以加动作啊。"},
-  {"type":"其它","content":"对嘛吧，这种动作加上就更好了啊。"},
-  {"type":"其它","content":"因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
-  {"type":"发起","content":"好，你来试试，我们在讲乌鸦。"},
-  {"type":"其它","content":"好的，等一会请你好不好？"},
-  {"type":"其它","content":"好，你这样吧，你上来吧，好不好？"},
-  {"type":"其它","content":"我上来讲好不好？"},
-  {"type":"其它","content":"来，掌声鼓励一起。"},
-  {"type":"其它","content":"哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
-  {"type":"发起","content":"来，给他鼓励一点，有没有给他好的建议？"},
-  {"type":"其它","content":"不要一直飞，是不是啊？"},
-  {"type":"发起","content":"可以怎么样？"},
-  {"type":"讲解","content":"可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。"},
-  {"type":"发起","content":"你有这个耐心吗？"},
-  {"type":"其它","content":"可以这种动作做出来，好不好？"},
-  {"type":"评价","content":"哎呦，好样的啊，"},
-  {"type":"发起","content":"能不能更好一点了？"}
+    {"type": "发起", "content": "能够把故事讲得用一个。第二个能加上动作。来来，第三个能不能表演得更好？"},
+    {"type": "发起", "content": "哎，加上表情啊。你来试试。"},
+    {"type": "发起", "content": "你是读乌鸦的话是吗？"},
+    {"type": "发起", "content": "来，上来小乌鸦。有请小乌鸦。"},
+    {"type": "评价", "content": "嗯，很好，表演得非常不错。三只小乌鸦都非常棒。"},
+    {"type": "其它", "content": "你们三个小朋友都可以参加。"},
+    {"type": "发起", "content": "好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。"},
+    {"type": "评价", "content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
+    {"type": "评价", "content": "咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？"},
+    {"type": "评价", "content": "我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬,能够举手,勇敢上台表扬的小朋友啊."},
+    {"type": "发起", "content": "好,开始."},
+    {"type": "发起", "content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，。"},
+    {"type": "发起", "content": "我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来"},
+    {"type": "其它", "content": "好，等会儿演杜鹃的时候，我再请你来"},
+    {"type": "评价", "content": "我再请刚刚在下面做小动作的同学，脸抬起来。"},
+    {"type": "发起", "content": "你不想来？那你来。"},
+    {"type": "评价", "content": "隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？"},
+    {"type": "发起", "content": "你来讲喜鹊的话。你刚准备了谁的？"}
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">能够把故事讲用一个，第二个能加上动作，来来第三个能不能表演的更好，哎， 加上表情啊，你来试试， 你是读乌鸦的话是吗，来上来小乌鸦，有请小乌鸦， 嗯，很好，表演的非常不错，三只小乌鸭都非常棒，你们三个小朋友都可以参加，好，接下来请演喜鹊的小朋友，谁来讲讲喜鹊的话，好，恭请， 啊，下面的小听众也要注意了啊人家上面表演的，那么认真，那你下面也要尊重这些小演员啊， 咦这个动作啊非常可爱啊，好的， 哎，如果这个再讲的通顺一点就更好了，是不是， 我来找下面讲话的小朋友，这样不好，哎， 哪怕他做的不好，你也不可以在下面窃窃私语， 这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字， 现在都没关系，那我请你来，你还不如她呢，不能在下面讲啊，来，我要表扬，能够举手，勇敢上台表扬的小朋友啊，好，开始， 好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊，那正当杏树，我们在讲喜鹊，我们现在讲喜鹊， 那你刚刚准备的是哪只，好，等会演杜鹃的时候，我再请你来，我再请刚刚在下面做小动作的同学，脸抬起来，你不想看来你来，隔壁脸，一点都不难为情，现在在录课，你不懂难为情的， 你来讲喜鹊的话，你刚准备了谁的，  </t>
-  </si>
-  <si>
-    <t>能够把故事讲用一个。第二个能加上动作。来来，第三个能不能表演得更好？哎，加上表情啊。你来试试。你是读乌鸦的话是吗？来，上来小乌鸦。有请小乌鸦。嗯，很好，表演得非常不错。三只小乌鸦都非常棒。你们三个小朋友都可以参加。好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。好，开始。好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来。我再请刚刚在下面做小动作的同学，脸抬起来。你不想来？那你来。隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？你来讲喜鹊的话。你刚准备了谁的？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[
-{
-"type": "讲解",
-"content": "能够把故事讲得用一个。第二个能加上动作。"
-},
-{
-"type": "发起",
-"content": "来来，第三个能不能表演得更好？哎，加上表情啊。你来试试。"
-},
-{
-"type": "发起",
-"content": "你是读乌鸦的话是吗？"
-},
-{
-"type": "发起",
-"content": "来，上来小乌鸦。有请小乌鸦。"
-},
-{
-"type": "评价",
-"content": "嗯，很好，表演得非常不错。三只小乌鸦都非常棒。"
-},
-{
-"type": "其它",
-"content": "你们三个小朋友都可以参加。"
-},
-{
-"type": "发起",
-"content": "好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。"
-},
-{
-"type": "评价",
-"content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"
-},
-{
-"type": "评价",
-"content": "咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？"
-},
-{
-"type": "评价",
-"content": "我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬,能够举手,勇敢上台表扬的小朋友啊."
-},
-{
-"type": "发起",
-"content": "好,开始."
-},
-{
-"type": "发起",
-"content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，。"
-},
-{
-"type": "发起",
-"content": "我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来"
-},
-{
-"type": "其它",
-"content": "好，等会儿演杜鹃的时候，我再请你来"
-},
-{
-"type": "评价",
-"content": "我再请刚刚在下面做小动作的同学，脸抬起来。你不想来？那你来。隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？"
-},
-{
-"type": "发起",
-"content": "你来讲喜鹊的话。你刚准备了谁的？"
-}]
-</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {
-"type": "发起",
-"content": "能够把故事讲用一个。"
-    },
-    {
-"type": "发起",
-"content": "第二个能加上动作。"
-    },
-    {
-"type": "发起",
-"content": "来来，第三个能不能表演得更好？"
-    },
-    {
-"type": "发起",
-"content": "哎，加上表情啊。"
-    },
-    {
-"type": "发起",
-"content": "你来试试。"
-    },
-    {
-"type": "发起",
-"content": "你是读乌鸦的话是吗？来，上来小乌鸦。"
-    },
-    {
-"type": "发起",
-"content": "有请小乌鸦。"
-    },
-    {
-"type": "评价",
-"content": "嗯，很好，表演得非常不错。"
-    },
-    {
-"type": "评价",
-"content": "三只小乌鸦都非常棒。你们三个小朋友都可以参加。"
-    },
-    {
-"type": "发起",
-"content": "好，接下来请演喜鹊的小朋友。"
-    },
-    {
-"type": "发起",
-"content": "谁来讲讲喜鹊的话？"
-    },
-    {
-"type": "发起",
-"content": "好，恭请。"
-    },
-    {
-"type": "其它",
-"content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"
-    },
-    {
-"type": "评价",
-"content": "咦，这个动作啊，非常可爱啊。"
-    },
-    {
-"type": "其它",
-"content": "好的。"
-    },
-    {
-"type": "评价",
-"content": "哎，如果这个再讲得通顺一点就更好了，是不是？"
-    },
-    {
-"type": "其它",
-"content": "我来找下面讲话的小朋友，这样不好。"
-    },
-    {
-"type": "评价",
-"content": "哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。"
-    },
-    {
-"type": "评价",
-"content": "他读错一个字或者漏掉一个字，现在都没关系。"
-    },
-    {
-"type": "其它",
-"content": "那我请你来，你还不如她呢，不能在下面讲啊。"
-    },
-    {
-"type": "讲解",
-"content": "来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"
-    },
-    {
-"type": "发起",
-"content": "好，开始。"
-    },
-    {
-"type": "发起",
-"content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"
-    },
-    {
-"type": "讲解",
-"content": "那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"
-    },
-    {
-"type": "发起",
-"content": "那你刚刚准备的是哪只？"
-    },
-    {
-"type": "发起",
-"content": "好，等会儿演杜鹃的时候，我再请你来。"
-    },
-    {
-"type": "其它",
-"content": "我再请刚刚在下面做小动作的同学，脸抬起来。"
-    },
-    {
-"type": "发起",
-"content": "你不想来？那你来。"
-    },
-    {
-"type": "评价",
-"content": "隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？"
-    },
-    {
-"type": "发起",
-"content": "你来讲喜鹊的话。"
-    },
-    {
-"type": "发起",
-"content": "你刚准备了谁的？"
+      "type": "发起",
+      "content": "能够把故事讲用一个。"
+    },
+    {
+      "type": "讲解",
+      "content": "第二个能加上动作。"
+    },
+    {
+      "type": "发起",
+      "content": "来来，第三个能不能表演得更好？"
+    },
+    {
+      "type": "其它",
+      "content": "哎，加上表情啊。"
+    },
+    {
+      "type": "发起",
+      "content": "你来试试。"
+    },
+    {
+      "type": "发起",
+      "content": "你是读乌鸦的话是吗？"
+    },
+    {
+      "type": "发起",
+      "content": "来，上来小乌鸦。"
+    },
+    {
+      "type": "发起",
+      "content": "有请小乌鸦。"
+    },
+    {
+      "type": "评价",
+      "content": "嗯，很好，表演得非常不错。"
+    },
+    {
+      "type": "评价",
+      "content": "三只小乌鸦都非常棒。"
+    },
+    {
+      "type": "讲解",
+      "content": "你们三个小朋友都可以参加。"
+    },
+    {
+      "type": "发起",
+      "content": "好，接下来请演喜鹊的小朋友。"
+    },
+    {
+      "type": "发起",
+      "content": "谁来讲讲喜鹊的话？"
+    },
+    {
+      "type": "其它",
+      "content": "好，恭请。"
+    },
+    {
+      "type": "其它",
+      "content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"
+    },
+    {
+      "type": "评价",
+      "content": "咦，这个动作啊，非常可爱啊。"
+    },
+    {
+      "type": "评价",
+      "content": "好的。"
+    },
+    {
+      "type": "讲解",
+      "content": "哎，如果这个再讲得通顺一点就更好了，是不是？"
+    },
+    {
+      "type": "其它",
+      "content": "我来找下面讲话的小朋友，这样不好。"
+    },
+    {
+      "type": "其它",
+      "content": "哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。"
+    },
+    {
+      "type": "讲解",
+      "content": "你最起码得耐心地听别人讲完。"
+    },
+    {
+      "type": "讲解",
+      "content": "他读错一个字或者漏掉一个字，现在都没关系。"
+    },
+    {
+      "type": "评价",
+      "content": "那我请你来，你还不如她呢，不能在下面讲啊。"
+    },
+    {
+      "type": "评价",
+      "content": "来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。好，开始。"
+    },
+    {
+      "type": "其它",
+      "content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"
+    },
+    {
+      "type": "发起",
+      "content": "那你刚刚准备的是哪只？"
+    },
+    {
+      "type": "发起",
+      "content": "好，等会儿演杜鹃的时候，我再请你来。"
+    },
+    {
+      "type": "其它",
+      "content": "我再请刚刚在下面做小动作的同学，脸抬起来。"
+    },
+    {
+      "type": "发起",
+      "content": "你不想来？ 那你来。"
+    },
+    {
+      "type": "其它",
+      "content": "隔壁脸，一点都不难为情。"
+    },
+    {
+      "type": "其它",
+      "content": "现在在录课，你不懂难为情的？"
+    },
+    {
+      "type": "发起",
+      "content": "你来讲喜鹊的话。"
+    },
+    {
+      "type": "发起",
+      "content": "你刚准备了谁的？"
     }
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[{"type":"讲解","content":"能够把故事讲用一个。第二个能加上动作。"},
@@ -1237,45 +980,6 @@
 {"type":"发起","content":"你来讲喜鹊的话。你刚准备了谁的？"}]</t>
   </si>
   <si>
-    <t>[
-  {"type":"发起","content":"能够把故事讲用一个。"},
-  {"type":"发起","content":"第二个能加上动作。"},
-  {"type":"发起","content":"来来，第三个能不能表演得更好？"},
-  {"type":"发起","content":"哎，加上表情啊。"},
-  {"type":"发起","content":"你来试试。"},
-  {"type":"发起","content":"你是读乌鸦的话是吗？"},
-  {"type":"发起","content":"来，上来小乌鸦。"},
-  {"type":"发起","content":"有请小乌鸦。"},
-  {"type":"评价","content":"嗯，很好，表演得非常不错。"},
-  {"type":"评价","content":"三只小乌鸦都非常棒。"},
-  {"type":"发起","content":"你们三个小朋友都可以参加。"},
-  {"type":"发起","content":"好，接下来请演喜鹊的小朋友。"},
-  {"type":"发起","content":"谁来讲讲喜鹊的话？"},
-  {"type":"发起","content":"好，恭请。"},
-  {"type":"其它","content":"啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
-  {"type":"其它","content":"咦，这个动作啊，非常可爱啊。"},
-  {"type":"其它","content":"好的。"},
-  {"type":"评价","content":"哎，如果这个再讲得通顺一点就更好了，是不是？"},
-  {"type":"其它","content":"我来找下面讲话的小朋友，这样不好。"},
-  {"type":"其它","content":"哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。"},
-  {"type":"其它","content":"你最起码得耐心地听别人讲完。"},
-  {"type":"其它","content":"他读错一个字或者漏掉一个字，现在都没关系。"},
-  {"type":"发起","content":"那我请你来，你还不如她呢，不能在下面讲啊。"},
-  {"type":"其它","content":"来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"},
-  {"type":"发起","content":"好，开始。"},
-  {"type":"发起","content":"好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"},
-  {"type":"其它","content":"那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"},
-  {"type":"发起","content":"那你刚刚准备的是哪只？"},
-  {"type":"发起","content":"好，等会儿演杜鹃的时候，我再请你来。"},
-  {"type":"其它","content":"我再请刚刚在下面做小动作的同学，脸抬起来。"},
-  {"type":"发起","content":"你不想来？那你来。"},
-  {"type":"其它","content":"隔壁脸，一点都不难为情。"},
-  {"type":"其它","content":"现在在录课，你不懂难为情的？"},
-  {"type":"发起","content":"你来讲喜鹊的话。"},
-  {"type":"发起","content":"你刚准备了谁的？"}
-]</t>
-  </si>
-  <si>
     <t xml:space="preserve">不行，你按照老师的要求去做， 请坐，要批评， 你等会儿三十秒的话都到我这来，一定要积极思考， 不是自己坐在那里， 想不读就不读，还有也不是在那里随便想讲话就讲话，你坐端正， 坐好，快点坐下来，对，没有举手的我也要请，上课，就要积极开动脑筋，像上次开汇总课一样， 每个同学都认真举手，好，往下面来你是读喜鹊的话啊，喜鹊来啊，喜鹊小喜鹊停来上来来表演啊，忘记了，可以稍微看一下啊，杏四桃三，请坐啊，虽然她讲的不流畅啊，但是他确实是勇敢的上台，而且他刚刚坐在下面是认真听的啊，最起码比下面不敢举手的小朋友要勇敢，这一点我就要鼓励，你是喜鹊来， 再请只喜鹊，喜鹊没有刚刚乌鸦讲的好， 对我要请只非常棒的小喜鹊，嗯，哎掌声鼓励，但是讲小故事的小朋友不是背书可以加上动作，像刚刚几只小乌鸦就扮演的非常好啊，好， 接下来请来演小杜鹃，好的，你来， 嗯，我的书在上面， 你实在忘记了，可以看一下提示啊，你有这个耐心吗，你前面用过了，前面乌鸦已经说过了，请坐好掌声鼓励一下， 小杜鹃有点严肃啊，好啦，这小杜鹃可爱一点， 活泼一点，猴哥猴哥，着急一点好不好，来谁再来演一演，你来罗若涵， 结果你有这么大耐心吗，你有这个耐心，谁说过了啊， </t>
   </si>
   <si>
@@ -1339,114 +1043,223 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {
-"type": "其它",
-"content": "不行，你按照老师的要求去做。请坐。"
-    },
-    {
-"type": "评价",
-"content": "要批评。你等会儿三十秒的话都到我这来。"
-    },
-    {
-"type": "发起",
-"content": "一定要积极思考，不是自己坐在那里。"
-    },
-    {
-"type": "其它",
-"content": "想不读就不读。还有，也不是在那里随便想讲话就讲话。"
-    },
-    {
-"type": "其它",
-"content": "你坐端正，坐好，快点坐下来。"
-    },
-    {
-"type": "发起",
-"content": "对，没有举手的我也要请。上课，就要积极开动脑筋。"
-    },
-    {
-"type": "其它",
-"content": "像上次开汇总课一样。每个同学都认真举手。"
-    },
-    {
-"type": "发起",
-"content": "好，往下面来。你是读喜鹊的话啊。"
-    },
-    {
-"type": "发起",
-"content": "喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。"
-    },
-    {
-"type": "发起",
-"content": "忘记了，可以稍微看一下啊。"
-    },
-    {
-"type": "其它",
-"content": "杏四桃三。请坐啊。"
-    },
-    {
-"type": "评价",
-"content": "虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"
-    },
-    {
-"type": "发起",
-"content": "你是喜鹊来。"
-    },
-    {
-"type": "发起",
-"content": "再请只喜鹊。喜鹊没有刚刚乌鸦讲的好。"
-    },
-    {
-"type": "发起",
-"content": "对，我要请只非常棒的小喜鹊。"
-    },
-    {
-"type": "评价",
-"content": "嗯，哎，掌声鼓励。"
-    },
-    {
-"type": "讲解",
-"content": "但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"
-    },
-    {
-"type": "发起",
-"content": "好，接下来请来演小杜鹃。"
-    },
-    {
-"type": "发起",
-"content": "好的，你来。"
-    },
-    {
-"type": "其它",
-"content": "嗯，我的书在上面。"
-    },
-    {
-"type": "发起",
-"content": "你实在忘记了，可以看一下提示啊。"
-    },
-    {
-"type": "评价",
-"content": "你有这个耐心吗？你前面用过了，前面乌鸦已经说过了。请坐好，掌声鼓励一下。"
-    },
-    {
-"type": "其它",
-"content": "小杜鹃有点严肃啊。好啦，这小杜鹃可爱一点，活泼一点。"
-    },
-    {
-"type": "发起",
-"content": "猴哥猴哥，着急一点好不好？来，谁再来演一演？"
-    },
-    {
-"type": "发起",
-"content": "你来罗若涵。"
-    },
-    {
-"type": "评价",
-"content": "结果你有这么大耐心吗？你有这个耐心，谁说过了啊。"
+      "type": "其它",
+      "content": "不行，"
+    },
+    {
+      "type": "讲解",
+      "content": "你按照老师的要求去做。"
+    },
+    {
+      "type": "其它",
+      "content": "请坐。"
+    },
+    {
+      "type": "评价",
+      "content": "要批评。"
+    },
+    {
+      "type": "讲解",
+      "content": "你等会儿三十秒的话都到我这来。"
+    },
+    {
+      "type": "讲解",
+      "content": "一定要积极思考，"
+    },
+    {
+      "type": "讲解",
+      "content": "不是自己坐在那里。"
+    },
+    {
+      "type": "讲解",
+      "content": "想不读就不读。"
+    },
+    {
+      "type": "讲解",
+      "content": "还有，"
+    },
+    {
+      "type": "讲解",
+      "content": "也不是在那里随便想讲话就讲话。"
+    },
+    {
+      "type": "其它",
+      "content": "你坐端正，"
+    },
+    {
+      "type": "其它",
+      "content": "坐好，"
+    },
+    {
+      "type": "其它",
+      "content": "快点坐下来。"
+    },
+    {
+      "type": "发起",
+      "content": "对，"
+    },
+    {
+      "type": "发起",
+      "content": "没有举手的我也要请。"
+    },
+    {
+      "type": "其它",
+      "content": "上课，"
+    },
+    {
+      "type": "讲解",
+      "content": "就要积极开动脑筋。"
+    },
+    {
+      "type": "讲解",
+      "content": "像上次开汇总课一样。"
+    },
+    {
+      "type": "讲解",
+      "content": "每个同学都认真举手。"
+    },
+    {
+      "type": "发起",
+      "content": "好，往下面来。"
+    },
+    {
+      "type": "发起",
+      "content": "你是读喜鹊的话啊。"
+    },
+    {
+      "type": "发起",
+      "content": "喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。"
+    },
+    {
+      "type": "发起",
+      "content": "忘记了，可以稍微看一下啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "杏四桃三。"
+    },
+    {
+      "type": "其它",
+      "content": "请坐啊。"
+    },
+    {
+      "type": "评价",
+      "content": "虽然她讲的不流畅啊，"
+    },
+    {
+      "type": "讲解",
+      "content": "但是他确实是勇敢的上台。"
+    },
+    {
+      "type": "讲解",
+      "content": "而且他刚刚坐在下面是认真听的啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "最起码比下面不敢举手的小朋友要勇敢。"
+    },
+    {
+      "type": "评价",
+      "content": "这一点我就要鼓励。"
+    },
+    {
+      "type": "发起",
+      "content": "你是喜鹊来。"
+    },
+    {
+      "type": "发起",
+      "content": "再请只喜鹊。"
+    },
+    {
+      "type": "讲解",
+      "content": "喜鹊没有刚刚乌鸦讲的好。"
+    },
+    {
+      "type": "发起",
+      "content": "对，我要请只非常棒的小喜鹊。"
+    },
+    {
+      "type": "讲解",
+      "content": "嗯，哎，掌声鼓励。"
+    },
+    {
+      "type": "讲解",
+      "content": "但是讲小故事的小朋友不是背书，可以加上动作。"
+    },
+    {
+      "type": "讲解",
+      "content": "像刚刚几只小乌鸦就扮演的非常好啊。"
+    },
+    {
+      "type": "发起",
+      "content": "好，接下来请来演小杜鹃。"
+    },
+    {
+      "type": "发起",
+      "content": "好的，你来。"
+    },
+    {
+      "type": "讲解",
+      "content": "嗯，我的书在上面。"
+    },
+    {
+      "type": "发起",
+      "content": "你实在忘记了，可以看一下提示啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "你有这个耐心吗？"
+    },
+    {
+      "type": "讲解",
+      "content": "你前面用过了，前面乌鸦已经说过了。"
+    },
+    {
+      "type": "其它",
+      "content": "请坐好，"
+    },
+    {
+      "type": "讲解",
+      "content": "掌声鼓励一下。"
+    },
+    {
+      "type": "讲解",
+      "content": "小杜鹃有点严肃啊。"
+    },
+    {
+      "type": "发起",
+      "content": "好啦，这小杜鹃可爱一点，活泼一点。"
+    },
+    {
+      "type": "发起",
+      "content": "猴哥猴哥，着急一点好不好？"
+    },
+    {
+      "type": "发起",
+      "content": "来，谁再来演一演？"
+    },
+    {
+      "type": "发起",
+      "content": "你来罗若涵。"
+    },
+    {
+      "type": "讲解",
+      "content": "结果你有这么大耐心吗？"
+    },
+    {
+      "type": "讲解",
+      "content": "你有这个耐心，"
+    },
+    {
+      "type": "讲解",
+      "content": "谁说过了啊。"
     }
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -1469,80 +1282,106 @@
 ]</t>
   </si>
   <si>
+    <t xml:space="preserve">乌鸦说过了，咱们不重复， 你不着急吗？ 意思就是说你会着急的，是不是啊意思一样啊，好，很好，掌声鼓励， 听了三只鸟儿的话，猴子可有想法了，猴子是怎么想的，听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及，说明这只猴子越来越越来越没有耐心， 他越来越没有耐心了，是吧，现在呀我们拿起书本，把这个故事啊从头到尾再来背一背，用上，刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊，猴子种了一棵梨树苗，预备起猴子， 这些东西放下我们来看一下板书，猴子呀他一开始很勤劳啊，还是种了一棵梨树，可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了，正当杏树成成活的时候，喜鹊来劝他了，于是猴子又拔掉了，改种了桃树， 正当桃树成活的时候，杜鹃又来劝说它了，这时候猴子又拔掉了，改中了， 可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活到最后这只猴子什么树也没有成，对呀，这只猴子什么树也没有种成，除了它没耐，他还没什么， 你说，说的真好，还没有主见， 别人说什么他就听什么，没有自己的想法，是不是啊，到最后什么都没有啊， 那么这只小猴呢，也挺可怜的，你想对他说什么，  </t>
+  </si>
+  <si>
+    <t>乌鸦说过了，咱们不重复。你不着急吗？意思就是说你会着急的，是不是啊？意思一样啊。好，很好，掌声鼓励。听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。猴子种了一棵梨树苗，预备起。猴子，这些东西放下，我们来看一下板书。猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？你说，说的真好。还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。那么这只小猴呢，也挺可怜的。你想对他说什么？</t>
+  </si>
+  <si>
     <t>[
-  {"type":"其它","content":"不行，你按照老师的要求去做。请坐。"},
-  {"type":"评价","content":"要批评。"},
-  {"type":"其它","content":"你等会儿三十秒的话都到我这来。一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。"},
-  {"type":"其它","content":"你坐端正，坐好，快点坐下来。"},
-  {"type":"发起","content":"对，没有举手的我也要请。上课，就要积极开动脑筋。像上次开汇总课一样。每个同学都认真举手。"},
-  {"type":"发起","content":"好，往下面来。你是读喜鹊的话啊。喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。"},
-  {"type":"其它","content":"忘记了，可以稍微看一下啊。杏四桃三。"},
-  {"type":"其它","content":"请坐啊。"},
-  {"type":"评价","content":"虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"},
-  {"type":"发起","content":"你是喜鹊来。"},
-  {"type":"发起","content":"再请只喜鹊。"},
-  {"type":"评价","content":"喜鹊没有刚刚乌鸦讲的好。"},
-  {"type":"发起","content":"对，我要请只非常棒的小喜鹊。"},
-  {"type":"其它","content":"嗯，哎，掌声鼓励。"},
-  {"type":"讲解","content":"但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"},
-  {"type":"发起","content":"好，接下来请来演小杜鹃。好的，你来。"},
-  {"type":"其它","content":"嗯，我的书在上面。你实在忘记了，可以看一下提示啊。"},
-  {"type":"发起","content":"你有这个耐心吗？"},
-  {"type":"其它","content":"你前面用过了，前面乌鸦已经说过了。"},
-  {"type":"其它","content":"请坐好，掌声鼓励一下。"},
-  {"type":"评价","content":"小杜鹃有点严肃啊。"},
-  {"type":"讲解","content":"好啦，这小杜鹃可爱一点，活泼一点。"},
-  {"type":"发起","content":"猴哥猴哥，着急一点好不好？"},
-  {"type":"发起","content":"来，谁再来演一演？"},
-  {"type":"发起","content":"你来罗若涵。"},
-  {"type":"发起","content":"结果你有这么大耐心吗？"},
-  {"type":"发起","content":"你有这个耐心，谁说过了啊。"}
-]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乌鸦说过了，咱们不重复， 你不着急吗？ 意思就是说你会着急的，是不是啊意思一样啊，好，很好，掌声鼓励， 听了三只鸟儿的话，猴子可有想法了，猴子是怎么想的，听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及，说明这只猴子越来越越来越没有耐心， 他越来越没有耐心了，是吧，现在呀我们拿起书本，把这个故事啊从头到尾再来背一背，用上，刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊，猴子种了一棵梨树苗，预备起猴子， 这些东西放下我们来看一下板书，猴子呀他一开始很勤劳啊，还是种了一棵梨树，可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了，正当杏树成成活的时候，喜鹊来劝他了，于是猴子又拔掉了，改种了桃树， 正当桃树成活的时候，杜鹃又来劝说它了，这时候猴子又拔掉了，改中了， 可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活到最后这只猴子什么树也没有成，对呀，这只猴子什么树也没有种成，除了它没耐，他还没什么， 你说，说的真好，还没有主见， 别人说什么他就听什么，没有自己的想法，是不是啊，到最后什么都没有啊， 那么这只小猴呢，也挺可怜的，你想对他说什么，  </t>
-  </si>
-  <si>
-    <t>乌鸦说过了，咱们不重复。你不着急吗？意思就是说你会着急的，是不是啊？意思一样啊。好，很好，掌声鼓励。听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。猴子种了一棵梨树苗，预备起。猴子，这些东西放下，我们来看一下板书。猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？你说，说的真好。还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。那么这只小猴呢，也挺可怜的。你想对他说什么？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[
-{"type": "评价", "content": "乌鸦说过了，咱们不重复。"},
+{"type": "其它", "content": "乌鸦说过了，咱们不重复。"},
 {"type": "讲解", "content": "你不着急吗？意思就是说你会着急的，是不是啊？意思一样啊。"},
 {"type": "评价", "content": "好，很好，掌声鼓励。"},
-{"type": "其它", "content": "听了三只鸟儿的话，猴子可有想法了。"},
-{"type": "发起", "content": "猴子是怎么想的？"},
+{"type": "讲解", "content": "听了三只鸟儿的话，猴子可有想法了。"},
+{"type": "讲解", "content": "猴子是怎么想的？"},
 {"type": "讲解", "content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
 {"type": "发起", "content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。猴子种了一棵梨树苗，预备起。"},
-{"type": "其它", "content": "猴子，这些东西放下，我们来看一下板书。"},
-{"type": "讲解", "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。对呀，这只猴子什么树也没有种成。"},
-{"type": "发起", "content": "除了它没耐心，它还没什么？你说，"},
+{"type": "发起", "content": "猴子，这些东西放下，我们来看一下板书。"},
+{"type": "讲解", "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"},
+{"type": "发起", "content": "对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？你说，"},
 {"type": "评价", "content": "说的真好。"},
 {"type": "讲解", "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"},
 {"type": "发起", "content": "那么这只小猴呢，也挺可怜的。你想对他说什么？"}
-]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "result": [
+    {
+      "type": "讲解",
+      "content": "乌鸦说过了，咱们不重复。"
+    },
+    {
+      "type": "发起",
+      "content": "你不着急吗？"
+    },
+    {
+      "type": "讲解",
+      "content": "意思就是说你会着急的，是不是啊？意思一样啊。"
+    },
+    {
+      "type": "评价",
+      "content": "好，很好，掌声鼓励。"
+    },
+    {
+      "type": "讲解",
+      "content": "听了三只鸟儿的话，猴子可有想法了。"
+    },
+    {
+      "type": "发起",
+      "content": "猴子是怎么想的？"
+    },
+    {
+      "type": "讲解",
+      "content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"
+    },
+    {
+      "type": "发起",
+      "content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。"
+    },
+    {
+      "type": "发起",
+      "content": "用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"
+    },
+    {
+      "type": "发起",
+      "content": "猴子种了一棵梨树苗，预备起。"
+    },
+    {
+      "type": "其它",
+      "content": "猴子，这些东西放下，我们来看一下板书。"
+    },
+    {
+      "type": "讲解",
+      "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"
+    },
+    {
+      "type": "讲解",
+      "content": "对呀，这只猴子什么树也没有种成。"
+    },
+    {
+      "type": "发起",
+      "content": "除了它没耐心，它还没什么？"
+    },
+    {
+      "type": "评价",
+      "content": "你说，说的真好。"
+    },
+    {
+      "type": "讲解",
+      "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "那么这只小猴呢，也挺可怜的。"
+    },
+    {
+      "type": "发起",
+      "content": "你想对他说什么？"
+    }
+  ]
+}
 </t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {"type": "其它", "content": "乌鸦说过了，咱们不重复。"},
-    {"type": "发起", "content": "你不着急吗？"},
-    {"type": "讲解", "content": "意思就是说你会着急的，是不是啊？意思一样啊。"},
-    {"type": "评价", "content": "好，很好，掌声鼓励。"},
-    {"type": "讲解", "content": "听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？"},
-    {"type": "讲解", "content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
-    {"type": "发起", "content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
-    {"type": "讲解", "content": "猴子种了一棵梨树苗，预备起。"},
-    {"type": "讲解", "content": "猴子，这些东西放下，我们来看一下板书。"},
-    {"type": "讲解", "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。"},
-    {"type": "讲解", "content": "到最后这只猴子什么树也没有成。"},
-    {"type": "发起", "content": "对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？"},
-    {"type": "评价", "content": "你说，说的真好。"},
-    {"type": "讲解", "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。那么这只小猴呢，也挺可怜的。"},
-    {"type": "发起", "content": "你想对他说什么？"}
-  ]
-}</t>
   </si>
   <si>
     <t>[
@@ -1562,37 +1401,6 @@
 ]</t>
   </si>
   <si>
-    <t>[
-  {"type":"其它", "content":"乌鸦说过了，咱们不重复。"},
-  {"type":"发起", "content":"你不着急吗？意思就是说你会着急的，是不是啊？"},
-  {"type":"讲解", "content":"意思一样啊。"},
-  {"type":"评价", "content":"好，很好，掌声鼓励。"},
-  {"type":"讲解", "content":"听了三只鸟儿的话，猴子可有想法了。"},
-  {"type":"发起", "content":"猴子是怎么想的？"},
-  {"type":"讲解", "content":"听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。"},
-  {"type":"讲解", "content":"说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
-  {"type":"发起", "content":"现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。"},
-  {"type":"讲解", "content":"用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
-  {"type":"发起", "content":"猴子种了一棵梨树苗，预备起。"},
-  {"type":"其它", "content":"猴子，这些东西放下，我们来看一下板书。"},
-  {"type":"讲解", "content":"猴子呀他一开始很勤劳啊，还是种了一棵梨树。"},
-  {"type":"讲解", "content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。"},
-  {"type":"讲解", "content":"正当杏树成活的时候，喜鹊来劝他了。"},
-  {"type":"讲解", "content":"于是猴子又拔掉了，改种了桃树。"},
-  {"type":"讲解", "content":"正当桃树成活的时候，杜鹃又来劝说它了。"},
-  {"type":"讲解", "content":"这时候猴子又拔掉了，改种了。"},
-  {"type":"讲解", "content":"可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。"},
-  {"type":"讲解", "content":"到最后这只猴子什么树也没有成。"},
-  {"type":"讲解", "content":"对呀，这只猴子什么树也没有种成。"},
-  {"type":"发起", "content":"除了它没耐心，它还没什么？"},
-  {"type":"评价", "content":"你说，说的真好。"},
-  {"type":"讲解", "content":"还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？"},
-  {"type":"讲解", "content":"到最后什么都没有啊。"},
-  {"type":"讲解", "content":"那么这只小猴呢，也挺可怜的。"},
-  {"type":"发起", "content":"你想对他说什么？"}
-]</t>
-  </si>
-  <si>
     <t xml:space="preserve">你有什么话， 想对他说说，汤子晨，你说，嗯，请坐，不要光听别人要有自己的想法，是不是，好，你有什么相对猴子说的，你要讲讲自己的想法，是不是，坚持把它种好是吧，对，好的，来你来说，嗯，没有耐心，就一事无成了，嗯，就是要有自己的主见，好，刘斌 ，坚持下去是不是非常好？你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人非常好，坚持到底，就是胜利，要有主见，有耐心，好，哎，那我们呀不能像小猴子这样没耐心，我们要耐心的学好每一节课，学好每一个词，今天呢我们要开始学习这篇课文后面的三个字，第一个字我先画个画， 你看这个改像一个小朋友啊，做错事儿，他跪在地上旁边呢有个人拿着拐杖在打他的小屁股，对不对，就是叫他知错就改对的啊，所以这个改字我们一起来写一写来小手笔伸出来一横折，预备起 ，对，它是左右结构反文， 我写在这里啊，横折写到横中线就停，横折再横中线竖提要短一些，这个就是就像跪着的小朋友啊，他在承认错误呢， 旁边呢啊一个人拿着鞭子再去打他的小屁股，是不是，要它改正错误啊，撇要到中间齐，捺要舒展，改字组词，好，你来，很好，好，再来一个同学，李春月，你来，你说，改革 ，你说，我们学下一个字，洗 x py y 预备起 x py，洗上结构，       </t>
   </si>
   <si>
@@ -1634,16 +1442,20 @@
 },
 {
 "type": "讲解",
-"content": "嗯，没有耐心，就一事无成了。嗯，就是要有自己的主见。好，刘斌，坚持下去，是不是？"
+"content": "嗯，没有耐心，就一事无成了。嗯，就是要有自己的主见。"
+},
+{
+"type": "发起",
+"content": "好，刘斌，坚持下去，是不是？"
 },
 {"type":"评价",
  "content":"非常好！你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"
 },
 {"type":"讲解",
- "content":"你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！坚持到底，就是胜利。要有主见，有耐心。好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"
-},
-{
-"type":"其它",
+ "content":"坚持到底，就是胜利。要有主见，有耐心。好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"
+},
+{
+"type":"发起",
 "content":"所以这个“改”字我们一起来写一写。来，小手笔伸出来。一横折，预备起，"
 },
 {
@@ -1663,7 +1475,7 @@
 "content": "好，再来一个同学，李春月，你来。"
 },
 {
-"type": "讲解",
+"type": "发起",
 "content": "你说，“改革”。"
 },
 {
@@ -1674,102 +1486,179 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {
-"type": "发起",
-"content": "你有什么话，想对他说说？"
-    },
-    {
-"type": "发起",
-"content": "汤子晨，你说。"
-    },
-    {
-"type": "其它",
-"content": "嗯，请坐。"
-    },
-    {
-"type": "其它",
-"content": "不要光听别人，要有自己的想法，是不是？好，"
-    },
-    {
-"type": "发起",
-"content": "你有什么想对猴子说的？"
-    },
-    {
-"type": "发起",
-"content": "你要讲讲自己的想法，是不是？"
-    },
-    {
-"type": "其它",
-"content": "坚持把它种好，是吧？对，好的，来，"
-    },
-    {
-"type": "发起",
-"content": "你来说。"
-    },
-    {
-"type": "其它",
-"content": "嗯，"
-    },
-    {
-"type": "讲解",
-"content": "没有耐心，就一事无成了。嗯，就是要有自己的主见。"
-    },
-    {
-"type": "发起",
-"content": "好，刘斌，坚持下去，是不是？"
-    },
-    {
-"type": "评价",
-"content": "非常好！你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"
-    },
-    {
-"type": "其它",
-"content": "坚持到底，就是胜利。要有主见，有耐心。好，哎，"
-    },
-    {
-"type": "讲解",
-"content": "那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。"
-    },
-    {
-"type": "其它",
-"content": "你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"
-    },
-    {
-"type": "发起",
-"content": "所以这个“改”字我们一起来写一写。来，小手笔伸出来。一横折，预备起，对。"
-    },
-    {
-"type": "讲解",
-"content": "它是左右结构反文。我写在这里啊。横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。"
-    },
-    {
-"type": "其它",
-"content": "旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。撇要到中间齐，捺要舒展。"
-    },
-    {
-"type": "发起",
-"content": "“改”字组词。好，你来。"
-    },
-    {
-"type": "评价",
-"content": "很好！"
-    },
-    {
-"type": "发起",
-"content": "好，再来一个同学，李春月，你来。"
-    },
-    {
-"type": "发起",
-"content": "你说，“改革”。"
-    },
-    {
-"type": "发起",
-"content": "你说，我们学下一个字，“洗”，预备起。洗上结构。"
+      "type": "发起",
+      "content": "你有什么话，想对他说说？"
+    },
+    {
+      "type": "发起",
+      "content": "汤子晨，你说。"
+    },
+    {
+      "type": "其它",
+      "content": "嗯，请坐。"
+    },
+    {
+      "type": "其它",
+      "content": "不要光听别人，要有自己的想法，是不是？"
+    },
+    {
+      "type": "发起",
+      "content": "好，你有什么想对猴子说的？"
+    },
+    {
+      "type": "发起",
+      "content": "你要讲讲自己的想法，是不是？"
+    },
+    {
+      "type": "讲解",
+      "content": "坚持把它种好，是吧？"
+    },
+    {
+      "type": "评价",
+      "content": "对，好的，来，你来说。"
+    },
+    {
+      "type": "讲解",
+      "content": "嗯，没有耐心，就一事无成了。"
+    },
+    {
+      "type": "讲解",
+      "content": "嗯，就是要有自己的主见。"
+    },
+    {
+      "type": "发起",
+      "content": "好，刘斌，坚持下去，是不是？"
+    },
+    {
+      "type": "评价",
+      "content": "非常好！"
+    },
+    {
+      "type": "讲解",
+      "content": "你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，"
+    },
+    {
+      "type": "评价",
+      "content": "非常好！"
+    },
+    {
+      "type": "讲解",
+      "content": "坚持到底，就是胜利。"
+    },
+    {
+      "type": "讲解",
+      "content": "要有主见，有耐心。"
+    },
+    {
+      "type": "其它",
+      "content": "好，"
+    },
+    {
+      "type": "其它",
+      "content": "哎，那我们呀，不能像小猴子这样没耐心。"
+    },
+    {
+      "type": "讲解",
+      "content": "我们要耐心地学好每一节课，学好每一个词。"
+    },
+    {
+      "type": "其它",
+      "content": "今天呢，我们要开始学习这篇课文后面的三个字。第一个字，"
+    },
+    {
+      "type": "其它",
+      "content": "我先画个画。"
+    },
+    {
+      "type": "讲解",
+      "content": "你看这个“改”像一个小朋友啊，做错事儿，"
+    },
+    {
+      "type": "讲解",
+      "content": "他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？"
+    },
+    {
+      "type": "讲解",
+      "content": "就是叫他知错就改，对的啊。"
+    },
+    {
+      "type": "发起",
+      "content": "所以这个“改”字我们一起来写一写。"
+    },
+    {
+      "type": "发起",
+      "content": "来，小手笔伸出来。"
+    },
+    {
+      "type": "发起",
+      "content": "一横折，预备起，"
+    },
+    {
+      "type": "讲解",
+      "content": "对。它是左右结构反文。"
+    },
+    {
+      "type": "其它",
+      "content": "我写在这里啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "横折写到横中线就停，横折再横中线竖提要短一些，"
+    },
+    {
+      "type": "讲解",
+      "content": "这个就像跪着的小朋友啊，他在承认错误呢。"
+    },
+    {
+      "type": "讲解",
+      "content": "旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。"
+    },
+    {
+      "type": "讲解",
+      "content": "撇要到中间齐，捺要舒展。"
+    },
+    {
+      "type": "发起",
+      "content": "“改”字组词。"
+    },
+    {
+      "type": "发起",
+      "content": "好，你来。"
+    },
+    {
+      "type": "评价",
+      "content": "很好！"
+    },
+    {
+      "type": "发起",
+      "content": "好，再来一个同学，"
+    },
+    {
+      "type": "发起",
+      "content": "李春月，你来。"
+    },
+    {
+      "type": "发起",
+      "content": "你说，“改革”。"
+    },
+    {
+      "type": "发起",
+      "content": "你说，"
+    },
+    {
+      "type": "发起",
+      "content": "我们学下一个字，“洗”，预备起。"
+    },
+    {
+      "type": "讲解",
+      "content": "洗上结构。"
     }
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -1791,39 +1680,6 @@
   {"type": "发起", "content": "好，你来。"},
   {"type": "评价", "content": "很好！"},
   {"type": "发起", "content": "好，再来一个同学，李春月，你来。你说，“改革”。你说，我们学下一个字，“洗”，预备起。洗上结构。"}
-]</t>
-  </si>
-  <si>
-    <t>[
-  {"type":"发起","content":"你有什么话，想对他说说？"},
-  {"type":"发起","content":"汤子晨，你说。"},
-  {"type":"评价","content":"嗯，请坐。"},
-  {"type":"讲解","content":"不要光听别人，要有自己的想法，是不是？"},
-  {"type":"发起","content":"好，你有什么想对猴子说的？"},
-  {"type":"发起","content":"你要讲讲自己的想法，是不是？"},
-  {"type":"讲解","content":"坚持把它种好，是吧？"},
-  {"type":"评价","content":"对，好的，来，你来说。"},
-  {"type":"讲解","content":"嗯，没有耐心，就一事无成了。"},
-  {"type":"讲解","content":"嗯，就是要有自己的主见。"},
-  {"type":"发起","content":"好，刘斌，坚持下去，是不是？"},
-  {"type":"评价","content":"非常好！"},
-  {"type":"讲解","content":"你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"},
-  {"type":"讲解","content":"坚持到底，就是胜利。要有主见，有耐心。"},
-  {"type":"讲解","content":"好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。"},
-  {"type":"讲解","content":"今天呢，我们要开始学习这篇课文后面的三个字。"},
-  {"type":"讲解","content":"第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"},
-  {"type":"讲解","content":"所以这个“改”字我们一起来写一写。"},
-  {"type":"发起","content":"来，小手笔伸出来。"},
-  {"type":"讲解","content":"一横折，预备起，对。它是左右结构反文。我写在这里啊。"},
-  {"type":"讲解","content":"横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。"},
-  {"type":"讲解","content":"旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。"},
-  {"type":"发起","content":"撇要到中间齐，捺要舒展。“改”字组词。"},
-  {"type":"发起","content":"好，你来。"},
-  {"type":"评价","content":"很好！"},
-  {"type":"发起","content":"好，再来一个同学，李春月，你来。"},
-  {"type":"发起","content":"你说，“改革”。"},
-  {"type":"发起","content":"你说，我们学下一个字，“洗”，预备起。"},
-  {"type":"讲解","content":"洗上结构。"}
 ]</t>
   </si>
 </sst>
@@ -1848,7 +1704,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2466,13 +2321,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2823,18 +2675,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="6" width="40.625" customWidth="1"/>
+    <col min="1" max="5" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:6">
+    <row r="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2850,232 +2702,196 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" ht="409" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="409" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="3" ht="409" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="409" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4" ht="409" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" ht="409" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" ht="409" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" ht="409" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" ht="409" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="409" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="7" ht="409" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="8" ht="409" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" ht="409" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="9" ht="409" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" ht="409" customHeight="1" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="10" ht="409" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" ht="409" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="11" ht="409" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" ht="409" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="12" ht="409" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="11" ht="409" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" ht="409" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/726四分类法.xlsx
+++ b/data/726四分类法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>原始文本</t>
   </si>
@@ -47,7 +47,13 @@
     <t>qwen_predict</t>
   </si>
   <si>
-    <t xml:space="preserve">请袁艺喊“开始上课”，声音要响亮啊。同学们好，请坐。真棒。昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。“猴子”。昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？好，现在用眼睛看，用心记住这个字，“猴子”。哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？谁来说说？于凯，你来说说看。你慢讲啊。嗯，然后呢？然后种了杏树。最后呢？最后还种了桃树。到最后怎么样啊？好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。非常棒，请坐。我们像他一样，用一句话把这个故事，哎，就讲出来了。来，我们一起来试试看。“猴子种了”。瞧，咱们一句话就能把故事的意思讲出来了。小朋友们真能干。好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？那等一下啊。好，你来读。“猴子”。嗯嗯，你先不要坐下，这个”天天“说明什么呀，嗯，细心，还有呢，他每天都去浇， 天天都去浇水施肥，说明他怎么样 ，对，非常勤劳，猴子是不是很勤劳，你们看这个猴子种树啊，它有一个动作的过程，你们找到了动作了吗， </t>
+    <t>qwen_72B_predict</t>
+  </si>
+  <si>
+    <t>qwen_max_predict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请袁艺喊开始上课， 声音要响亮啊，同学们好，请坐真棒， 昨天呀，我们一起学习了课文八。 今天小猴子呀要到我们班来做客了， 我们来跟他打打招呼，猴子 ，昨天在写作业的时候呀， 小朋友要注意哦， 这个猴，反犬旁，旁边是一个单立人， 中间有没有一个短竖啊，那么昨天在作业当中，方老师看到有人加了一竖，那就不对了， 变成错别字了，明白了吗，好， 现在用眼睛看，用心记住这个字， 猴子，哎， 每天通过学习啊，我们知道了这个猴子啊， 种了一些果树， 它分别种了什么树呢，谁来说说，于凯， 你来说说看， 你慢讲啊，嗯，然后呢，然后种了杏树，最后呢，最后还种了桃树，到最后怎么样啊，好，于凯，你能不能连起来把这句话来说一说，猴子中了，非常棒， 请坐，我们像他一样， 用一句话把这个故事哎就讲出来了，来， 我们一起来试试看，猴子种了，瞧，咱们一句话就能把故事的意思讲出来了， 小朋友们真能干好，那我们来看看哦，他为什么什么都没种成呢， 我们来读课文的第一段，来，谁来读，那等一下啊， 好，你来读，猴子，  嗯嗯，你先不要坐下，这个”天天“说明什么呀，  </t>
   </si>
   <si>
     <t>请袁艺喊“开始上课”，声音要响亮啊。同学们好，请坐。真棒。昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。“猴子”。昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？好，现在用眼睛看，用心记住这个字，“猴子”。哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？谁来说说？于凯，你来说说看。你慢讲啊。嗯，然后呢？然后种了杏树。最后呢？最后还种了桃树。到最后怎么样啊？好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。非常棒，请坐。我们像他一样，用一句话把这个故事，哎，就讲出来了。来，我们一起来试试看。“猴子种了”。瞧，咱们一句话就能把故事的意思讲出来了。小朋友们真能干。好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？那等一下啊。好，你来读。“猴子”。嗯嗯，你先不要坐下，这个“天天”说明什么呀？</t>
@@ -55,7 +61,7 @@
   <si>
     <t>[
 {"type": "发起", "content": "请袁艺喊“开始上课”，声音要响亮啊。"},
-{"type": "发起", "content": "同学们好，请坐。"},
+{"type": "其它", "content": "同学们好，请坐。"},
 {"type": "评价", "content": "真棒。"},
 {"type": "讲解", "content": "昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。"},
 {"type": "发起", "content": "我们来跟他打打招呼。“猴子”。"},
@@ -76,43 +82,46 @@
 {"type": "发起", "content": "好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？"},
 {"type": "其它", "content": "那等一下啊。"},
 {"type": "发起", "content": "好，你来读。“猴子”。"},
-{"type": "发起", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
+{"type": "其它", "content": "嗯嗯，你先不要坐下，"},
+{"type": "发起", "content": "这个“天天”说明什么呀？"}
 ]</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {"type": "发起", "content": "请袁艺喊“开始上课”，声音要响亮啊。"},
     {"type": "其它", "content": "同学们好，请坐。"},
     {"type": "评价", "content": "真棒。"},
     {"type": "讲解", "content": "昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。"},
     {"type": "发起", "content": "我们来跟他打打招呼。“猴子”。"},
-    {"type": "讲解", "content": "昨天在写作业的时候呀，小朋友要注意哦。"},
-    {"type": "讲解", "content": "这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？"},
-    {"type": "讲解", "content": "那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。"},
-    {"type": "发起", "content": "明白了吗？"},
+    {"type": "讲解", "content": "昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？"},
+    {"type": "讲解", "content": "那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？"},
     {"type": "发起", "content": "好，现在用眼睛看，用心记住这个字，“猴子”。"},
     {"type": "讲解", "content": "哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。"},
     {"type": "发起", "content": "它分别种了什么树呢？谁来说说？"},
     {"type": "发起", "content": "于凯，你来说说看。"},
-    {"type": "其它", "content": "你慢讲啊。嗯，"},
-    {"type": "发起", "content": "然后呢？"},
+    {"type": "其它", "content": "你慢讲啊。"},
+    {"type": "发起", "content": "嗯，然后呢？"},
     {"type": "讲解", "content": "然后种了杏树。"},
     {"type": "发起", "content": "最后呢？"},
     {"type": "讲解", "content": "最后还种了桃树。"},
     {"type": "发起", "content": "到最后怎么样啊？"},
-    {"type": "发起", "content": "好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。"},
+    {"type": "发起", "content": "好，于凯，你能不能连起来把这句话来说一说？"},
+    {"type": "讲解", "content": "“猴子种了”。"},
     {"type": "评价", "content": "非常棒，请坐。"},
-    {"type": "讲解", "content": "我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
+    {"type": "发起", "content": "我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
     {"type": "发起", "content": "来，我们一起来试试看。“猴子种了”。"},
     {"type": "讲解", "content": "瞧，咱们一句话就能把故事的意思讲出来了。"},
     {"type": "评价", "content": "小朋友们真能干。"},
-    {"type": "发起", "content": "好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。来，谁来读？"},
+    {"type": "发起", "content": "好，那我们来看看哦，他为什么什么都没种成呢？"},
+    {"type": "发起", "content": "我们来读课文的第一段。"},
+    {"type": "发起", "content": "来，谁来读？"},
     {"type": "其它", "content": "那等一下啊。"},
     {"type": "发起", "content": "好，你来读。“猴子”。"},
     {"type": "发起", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -134,36 +143,93 @@
   </si>
   <si>
     <t>[
-  {"type":"其它","content":"请袁艺喊‘开始上课’，声音要响亮啊。"},
-  {"type":"其它","content":"同学们好，请坐。"},
+  {"type":"其它","content":"请袁艺喊‘开始上课’，声音要响亮啊。同学们好，请坐。"},
   {"type":"评价","content":"真棒。"},
   {"type":"讲解","content":"昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。‘猴子’。"},
-  {"type":"讲解","content":"昨天在写作业的时候呀，小朋友要注意哦。这个‘猴’，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？"},
-  {"type":"讲解","content":"好，现在用眼睛看，用心记住这个字，‘猴子’。"},
-  {"type":"讲解","content":"哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。"},
-  {"type":"发起","content":"它分别种了什么树呢？谁来说说？"},
+  {"type":"讲解","content":"昨天在写作业的时候呀，小朋友要注意哦。这个‘猴’，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。"},
+  {"type":"讲解","content":"明白了吗？好，现在用眼睛看，用心记住这个字，‘猴子’。"},
+  {"type":"讲解","content":"哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？"},
+  {"type":"发起","content":"谁来说说？"},
   {"type":"发起","content":"于凯，你来说说看。"},
   {"type":"其它","content":"你慢讲啊。"},
-  {"type":"其它","content":"嗯，然后呢？"},
+  {"type":"发起","content":"嗯，然后呢？"},
   {"type":"讲解","content":"然后种了杏树。"},
   {"type":"发起","content":"最后呢？"},
-  {"type":"讲解","content":"最后还种了桃树。"},
-  {"type":"发起","content":"到最后怎么样啊？"},
+  {"type":"讲解","content":"最后还种了桃树。到最后怎么样啊？"},
   {"type":"发起","content":"好，于凯，你能不能连起来把这句话来说一说？‘猴子种了’。"},
   {"type":"评价","content":"非常棒，请坐。"},
   {"type":"讲解","content":"我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
   {"type":"发起","content":"来，我们一起来试试看。‘猴子种了’。"},
-  {"type":"讲解","content":"瞧，咱们一句话就能把故事的意思讲出来了。"},
-  {"type":"评价","content":"小朋友们真能干。"},
+  {"type":"讲解","content":"瞧，咱们一句话就能把故事的意思讲出来了。小朋友们真能干。"},
   {"type":"发起","content":"好，那我们来看看哦，他为什么什么都没种成呢？"},
-  {"type":"发起","content":"我们来读课文的第一段。"},
-  {"type":"发起","content":"来，谁来读？"},
+  {"type":"发起","content":"我们来读课文的第一段。来，谁来读？"},
   {"type":"其它","content":"那等一下啊。"},
   {"type":"发起","content":"好，你来读。‘猴子’。"},
   {"type":"发起","content":"嗯嗯，你先不要坐下，这个‘天天’说明什么呀？"}
 ]</t>
   </si>
   <si>
+    <t>[
+{"type":"发起","content":"请袁艺喊‘开始上课’，声音要响亮啊。"},
+{"type":"发起","content":"同学们好，请坐。"},
+{"type":"评价","content":"真棒。"},
+{"type":"讲解","content":"昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。"},
+{"type":"发起","content":"‘猴子’。"},
+{"type":"讲解","content":"昨天在写作业的时候呀，小朋友要注意哦。这个‘猴’，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。"},
+{"type":"讲解","content":"明白了吗？"},
+{"type":"讲解","content":"好，现在用眼睛看，用心记住这个字，‘猴子’。"},
+{"type":"讲解","content":"哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。"},
+{"type":"发起","content":"它分别种了什么树呢？谁来说说？"},
+{"type":"发起","content":"于凯，你来说说看。"},
+{"type":"其它","content":"你慢讲啊。"},
+{"type":"发起","content":"嗯，然后呢？"},
+{"type":"讲解","content":"然后种了杏树。"},
+{"type":"发起","content":"最后呢？"},
+{"type":"讲解","content":"最后还种了桃树。"},
+{"type":"发起","content":"到最后怎么样啊？"},
+{"type":"发起","content":"好，于凯，你能不能连起来把这句话来说一说？"},
+{"type":"发起","content":"‘猴子种了’。"},
+{"type":"评价","content":"非常棒，请坐。"},
+{"type":"讲解","content":"我们像他一样，用一句话把这个故事，哎，就讲出来了。"},
+{"type":"发起","content":"来，我们一起来试试看。"},
+{"type":"发起","content":"‘猴子种了’。"},
+{"type":"评价","content":"瞧，咱们一句话就能把故事的意思讲出来了。"},
+{"type":"评价","content":"小朋友们真能干。"},
+{"type":"发起","content":"好，那我们来看看哦，他为什么什么都没种成呢？"},
+{"type":"发起","content":"我们来读课文的第一段。"},
+{"type":"发起","content":"来，谁来读？"},
+{"type":"其它","content":"那等一下啊。"},
+{"type":"发起","content":"好，你来读。"},
+{"type":"发起","content":"‘猴子’。"},
+{"type":"其它","content":"嗯嗯，你先不要坐下，这个‘天天’说明什么呀？"}</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "请袁艺喊“开始上课”，声音要响亮啊。"},
+  {"type": "发起", "content": "同学们好，请坐。"},
+  {"type": "评价", "content": "真棒。"},
+  {"type": "讲解", "content": "昨天呀，我们一起学习了课文八。今天，小猴子呀要到我们班来做客了。我们来跟他打打招呼。“猴子”。昨天在写作业的时候呀，小朋友要注意哦。这个“猴”，反犬旁，旁边是一个单立人，中间有没有一个短竖啊？那么昨天在作业当中，方老师看到有人加了一竖，那就不对了，变成错别字了。明白了吗？好，现在用眼睛看，用心记住这个字，“猴子”。"},
+  {"type": "讲解", "content": "哎，每天通过学习啊，我们知道了这个猴子啊，种了一些果树。它分别种了什么树呢？"},
+  {"type": "发起", "content": "谁来说说？"},
+  {"type": "发起", "content": "于凯，你来说说看。"},
+  {"type": "其它", "content": "你慢讲啊。"},
+  {"type": "发起", "content": "嗯，然后呢？"},
+  {"type": "讲解", "content": "然后种了杏树。"},
+  {"type": "发起", "content": "最后呢？"},
+  {"type": "讲解", "content": "最后还种了桃树。到最后怎么样啊？"},
+  {"type": "发起", "content": "好，于凯，你能不能连起来把这句话来说一说？“猴子种了”。"},
+  {"type": "评价", "content": "非常棒，请坐。"},
+  {"type": "讲解", "content": "我们像他一样，用一句话把这个故事，哎，就讲出来了。来，我们一起来试试看。“猴子种了”。瞧，咱们一句话就能把故事的意思讲出来了。"},
+  {"type": "评价", "content": "小朋友们真能干。"},
+  {"type": "讲解", "content": "好，那我们来看看哦，他为什么什么都没种成呢？我们来读课文的第一段。"},
+  {"type": "发起", "content": "来，谁来读？"},
+  {"type": "其它", "content": "那等一下啊。好，你来读。“猴子”。"},
+  {"type": "其它", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
+]
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">嗯，细心，还有呢，他每天都去浇，天天都去浇水施肥，说明他怎么样，对，非常勤劳，猴子是不是很勤劳，你们看这个猴子种树啊，它有一个动作的过程，你们找到了动作了吗，好，你来， 现在就直接浇水了吗， 然后呢 ，嗯施肥， 然后等着将来可以吃梨子了，好， 我们按照这个顺序啊， 把故事的开头自己在下面讲一讲，好不好， 来，老师话语：好，谁来把故事的开头讲给我们听，刘若涵，哇， 这只猴子呀，真勤劳， 而且我看出来了，你整的口水都快流出来了， 是不是好非常好，那接下来我要加大难度了，唉， 没有提示你还能不能把刚刚的故事开头讲给我们听， 张文婷，棒不棒，好熟练啊，把故事啊，这么大声的就告诉我们了，非常好，这时候谁来，这时候谁来，你说，乌鸦来，好，乌鸦哇哇的对猴子说了什么呢，谁来做一下乌鸦， 董新磊，哦，这只小乌鸦读的真好， 读的真顺畅啊，再请一只小乌鸦， 好，你来小乌鸦，哎，小乌鸦你等等啊，你为什么要连喊两声，猴哥呀，叫一声就可以了呀，你为什么， 还连喊两声呀，你觉得猴哥可能会听不见，是不是啊， </t>
   </si>
   <si>
@@ -257,42 +323,45 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
-    {"type": "其它", "content": "嗯，细心。"},
+    {"type": "评价", "content": "嗯，细心。"},
     {"type": "发起", "content": "还有呢？"},
     {"type": "讲解", "content": "他每天都去浇，天天都去浇水施肥。"},
     {"type": "发起", "content": "说明他怎么样？"},
-    {"type": "评价", "content": "对，非常勤劳。"},
-    {"type": "发起", "content": "猴子是不是很勤劳？"},
+    {"type": "评价", "content": "对，非常勤劳。猴子是不是很勤劳？"},
     {"type": "讲解", "content": "你们看，这个猴子种树啊，它有一个动作的过程。"},
     {"type": "发起", "content": "你们找到了动作了吗？"},
-    {"type": "其它", "content": "好，你来。"},
-    {"type": "发起", "content": "现在就直接浇水了吗？"},
+    {"type": "发起", "content": "好，你来。现在就直接浇水了吗？"},
     {"type": "发起", "content": "然后呢？"},
     {"type": "讲解", "content": "嗯，施肥。然后等着将来可以吃梨子了。"},
     {"type": "发起", "content": "好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？来。"},
     {"type": "发起", "content": "好，谁来把故事的开头讲给我们听？"},
-    {"type": "其它", "content": "刘若涵，"},
+    {"type": "发起", "content": "刘若涵，"},
     {"type": "评价", "content": "哇，这只猴子呀，真勤劳。而且我看出来了，你整的口水都快流出来了，是不是？"},
-    {"type": "评价", "content": "好，非常好。"},
-    {"type": "发起", "content": "那接下来我要加大难度了。"},
-    {"type": "发起", "content": "唉，没有提示你还能不能把刚刚的故事开头讲给我们听？张文婷，"},
-    {"type": "评价", "content": "棒不棒？好熟练啊，把故事啊，这么大声的就告诉我们了。"},
+    {"type": "评价", "content": "好，非常好。那接下来我要加大难度了。"},
+    {"type": "发起", "content": "唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
+    {"type": "发起", "content": "张文婷，"},
+    {"type": "评价", "content": "棒不棒？"},
+    {"type": "评价", "content": "好熟练啊，把故事啊，这么大声的就告诉我们了。"},
     {"type": "评价", "content": "非常好。"},
-    {"type": "发起", "content": "这时候谁来？这时候谁来？"},
+    {"type": "发起", "content": "这时候谁来？"},
+    {"type": "发起", "content": "这时候谁来？"},
     {"type": "发起", "content": "你说，乌鸦来。"},
     {"type": "发起", "content": "好，乌鸦哇哇的对猴子说了什么呢？"},
     {"type": "发起", "content": "谁来做一下乌鸦？"},
-    {"type": "其它", "content": "董新磊，"},
+    {"type": "讲解", "content": "董新磊，"},
     {"type": "评价", "content": "哦，这只小乌鸦读的真好，读的真顺畅啊。"},
-    {"type": "发起", "content": "再请一只小乌鸦，好，你来小乌鸦。"},
-    {"type": "其它", "content": "哎，"},
-    {"type": "发起", "content": "小乌鸦你等等啊。你为什么要连喊两声“猴哥”呀？叫一声就可以了呀。"},
+    {"type": "发起", "content": "再请一只小乌鸦，"},
+    {"type": "发起", "content": "好，你来小乌鸦。"},
+    {"type": "发起", "content": "哎，小乌鸦你等等啊。"},
+    {"type": "发起", "content": "你为什么要连喊两声“猴哥”呀？"},
+    {"type": "讲解", "content": "叫一声就可以了呀。"},
     {"type": "发起", "content": "你为什么还连喊两声呀？"},
-    {"type": "发起", "content": "你觉得猴哥可能会听不见，是不是啊？"}
+    {"type": "讲解", "content": "你觉得猴哥可能会听不见，是不是啊？"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -317,45 +386,104 @@
   </si>
   <si>
     <t>[
-  {"type":"其它","content":"嗯，细心。"},
-  {"type":"发起","content":"还有呢？"},
-  {"type":"讲解","content":"他每天都去浇，天天都去浇水施肥。说明他怎么样？"},
-  {"type":"评价","content":"对，非常勤劳。"},
-  {"type":"发起","content":"猴子是不是很勤劳？"},
-  {"type":"讲解","content":"你们看，这个猴子种树啊，它有一个动作的过程。"},
-  {"type":"发起","content":"你们找到了动作了吗？"},
-  {"type":"发起","content":"好，你来。"},
-  {"type":"发起","content":"现在就直接浇水了吗？"},
-  {"type":"发起","content":"然后呢？"},
-  {"type":"讲解","content":"嗯，施肥。然后等着将来可以吃梨子了。"},
-  {"type":"发起","content":"好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？"},
-  {"type":"发起","content":"来。"},
-  {"type":"发起","content":"好，谁来把故事的开头讲给我们听？"},
-  {"type":"发起","content":"刘若涵，"},
-  {"type":"评价","content":"哇，这只猴子呀，真勤劳。"},
-  {"type":"其它","content":"而且我看出来了，你整的口水都快流出来了，是不是？"},
-  {"type":"评价","content":"好，非常好。"},
-  {"type":"发起","content":"那接下来我要加大难度了。"},
-  {"type":"发起","content":"唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
-  {"type":"发起","content":"张文婷，"},
-  {"type":"评价","content":"棒不棒？"},
-  {"type":"评价","content":"好熟练啊，把故事啊，这么大声的就告诉我们了。"},
-  {"type":"评价","content":"非常好。"},
-  {"type":"发起","content":"这时候谁来？"},
-  {"type":"发起","content":"这时候谁来？"},
-  {"type":"发起","content":"你说，乌鸦来。"},
-  {"type":"发起","content":"好，乌鸦哇哇的对猴子说了什么呢？"},
-  {"type":"发起","content":"谁来做一下乌鸦？"},
-  {"type":"发起","content":"董新磊，"},
-  {"type":"评价","content":"哦，这只小乌鸦读的真好，读的真顺畅啊。"},
-  {"type":"发起","content":"再请一只小乌鸦，"},
-  {"type":"发起","content":"好，你来小乌鸦。"},
-  {"type":"其它","content":"哎，小乌鸦你等等啊。"},
-  {"type":"发起","content":"你为什么要连喊两声“猴哥”呀？"},
-  {"type":"发起","content":"叫一声就可以了呀。"},
-  {"type":"发起","content":"你为什么还连喊两声呀？"},
-  {"type":"发起","content":"你觉得猴哥可能会听不见，是不是啊？"}
+  {"type":"其它", "content":"嗯，细心。"},
+  {"type":"发起", "content":"还有呢？"},
+  {"type":"讲解", "content":"他每天都去浇，天天都去浇水施肥。说明他怎么样？"},
+  {"type":"评价", "content":"对，非常勤劳。"},
+  {"type":"发起", "content":"猴子是不是很勤劳？"},
+  {"type":"讲解", "content":"你们看，这个猴子种树啊，它有一个动作的过程。"},
+  {"type":"发起", "content":"你们找到了动作了吗？"},
+  {"type":"发起", "content":"好，你来。"},
+  {"type":"发起", "content":"现在就直接浇水了吗？"},
+  {"type":"发起", "content":"然后呢？"},
+  {"type":"讲解", "content":"嗯，施肥。然后等着将来可以吃梨子了。"},
+  {"type":"发起", "content":"好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？"},
+  {"type":"发起", "content":"来。"},
+  {"type":"发起", "content":"好，谁来把故事的开头讲给我们听？"},
+  {"type":"发起", "content":"刘若涵，哇，这只猴子呀，真勤劳。"},
+  {"type":"评价", "content":"而且我看出来了，你整的口水都快流出来了，是不是？"},
+  {"type":"评价", "content":"好，非常好。"},
+  {"type":"发起", "content":"那接下来我要加大难度了。"},
+  {"type":"发起", "content":"唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
+  {"type":"发起", "content":"张文婷，棒不棒？"},
+  {"type":"评价", "content":"好熟练啊，把故事啊，这么大声的就告诉我们了。"},
+  {"type":"评价", "content":"非常好。"},
+  {"type":"发起", "content":"这时候谁来？"},
+  {"type":"发起", "content":"这时候谁来？"},
+  {"type":"发起", "content":"你说，乌鸦来。"},
+  {"type":"发起", "content":"好，乌鸦哇哇的对猴子说了什么呢？"},
+  {"type":"发起", "content":"谁来做一下乌鸦？"},
+  {"type":"发起", "content":"董新磊，哦，这只小乌鸦读的真好，读的真顺畅啊。"},
+  {"type":"发起", "content":"再请一只小乌鸦，好，你来小乌鸦。"},
+  {"type":"发起", "content":"哎，小乌鸦你等等啊。"},
+  {"type":"发起", "content":"你为什么要连喊两声“猴哥”呀？"},
+  {"type":"发起", "content":"叫一声就可以了呀。"},
+  {"type":"发起", "content":"你为什么还连喊两声呀？"},
+  {"type":"发起", "content":"你觉得猴哥可能会听不见，是不是啊？"}
 ]</t>
+  </si>
+  <si>
+    <t>[
+  {"type": "其它", "content": "嗯，细心。"},
+  {"type": "发起", "content": "还有呢？"},
+  {"type": "讲解", "content": "他每天都去浇，天天都去浇水施肥。"},
+  {"type": "发起", "content": "说明他怎么样？"},
+  {"type": "评价", "content": "对，非常勤劳。"},
+  {"type": "发起", "content": "猴子是不是很勤劳？"},
+  {"type": "讲解", "content": "你们看，这个猴子种树啊，它有一个动作的过程。"},
+  {"type": "发起", "content": "你们找到了动作了吗？"},
+  {"type": "发起", "content": "好，你来。"},
+  {"type": "发起", "content": "现在就直接浇水了吗？"},
+  {"type": "发起", "content": "然后呢？"},
+  {"type": "讲解", "content": "嗯，施肥。"},
+  {"type": "讲解", "content": "然后等着将来可以吃梨子了。"},
+  {"type": "发起", "content": "好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？"},
+  {"type": "发起", "content": "来。"},
+  {"type": "发起", "content": "好，谁来把故事的开头讲给我们听？"},
+  {"type": "评价", "content": "刘若涵，哇，这只猴子呀，真勤劳。"},
+  {"type": "其它", "content": "而且我看出来了，你整的口水都快流出来了，是不是？"},
+  {"type": "评价", "content": "好，非常好。"},
+  {"type": "发起", "content": "那接下来我要加大难度了。"},
+  {"type": "发起", "content": "唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
+  {"type": "评价", "content": "张文婷，棒不棒？"},
+  {"type": "评价", "content": "好熟练啊，把故事啊，这么大声的就告诉我们了。"},
+  {"type": "评价", "content": "非常好。"},
+  {"type": "发起", "content": "这时候谁来？"},
+  {"type": "发起", "content": "这时候谁来？"},
+  {"type": "发起", "content": "你说，乌鸦来。"},
+  {"type": "发起", "content": "好，乌鸦哇哇的对猴子说了什么呢？"},
+  {"type": "发起", "content": "谁来做一下乌鸦？"},
+  {"type": "评价", "content": "董新磊，哦，这只小乌鸦读的真好，读的真顺畅啊。"},
+  {"type": "发起", "content": "再请一只小乌鸦，好，你来小乌鸦。"},
+  {"type": "其它", "content": "哎，小乌鸦你等等啊。"},
+  {"type": "发起", "content": "你为什么要连喊两声“猴哥”呀？"},
+  {"type": "发起", "content": "叫一声就可以了呀。"},
+  {"type": "发起", "content": "你为什么还连喊两声呀？"},
+  {"type": "发起", "content": "你觉得猴哥可能会听不见，是不是啊？"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "评价", "content": "嗯，细心。"},
+  {"type": "发起", "content": "还有呢？"},
+  {"type": "讲解", "content": "他每天都去浇，天天都去浇水施肥。说明他怎么样？对，非常勤劳。猴子是不是很勤劳？"},
+  {"type": "讲解", "content": "你们看，这个猴子种树啊，它有一个动作的过程。你们找到了动作了吗？"},
+  {"type": "发起", "content": "好，你来。"},
+  {"type": "发起", "content": "现在就直接浇水了吗？"},
+  {"type": "发起", "content": "然后呢？"},
+  {"type": "讲解", "content": "嗯，施肥。然后等着将来可以吃梨子了。"},
+  {"type": "发起", "content": "好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？来。"},
+  {"type": "发起", "content": "好，谁来把故事的开头讲给我们听？"},
+  {"type": "评价", "content": "刘若涵，哇，这只猴子呀，真勤劳。而且我看出来了，你整的口水都快流出来了，是不是？好，非常好。"},
+  {"type": "发起", "content": "那接下来我要加大难度了。唉，没有提示你还能不能把刚刚的故事开头讲给我们听？"},
+  {"type": "评价", "content": "张文婷，棒不棒？好熟练啊，把故事啊，这么大声的就告诉我们了。非常好。"},
+  {"type": "发起", "content": "这时候谁来？这时候谁来？你说，乌鸦来。"},
+  {"type": "发起", "content": "好，乌鸦哇哇的对猴子说了什么呢？谁来做一下乌鸦？"},
+  {"type": "评价", "content": "董新磊，哦，这只小乌鸦读的真好，读的真顺畅啊。再请一只小乌鸦，好，你来小乌鸦。"},
+  {"type": "发起", "content": "哎，小乌鸦你等等啊。你为什么要连喊两声“猴哥”呀？叫一声就可以了呀。你为什么还连喊两声呀？你觉得猴哥可能会听不见，是不是啊？"}
+]
+```</t>
   </si>
   <si>
     <t>好的，你连叫两声， 猴哥给我听听，哎，猴哥听见了来，我们学着他的样子， 小乌鸦们叫两声猴哥，，猴哥听见了，好， 小乌鸦继续说下去，你怎么种了梨树呢， 这句话什么意思，哎，你怎么种梨树呢，我给你两个选择好不好， 一是你不可以种梨树， 是不是这个意思，还是说你可以种梨树，应该是第一个选项， 是不是，你怎么种梨树，意思就是说你不是可以种梨树啊， 是不是啊，哎这里来一个反问， 这个语气怎么样就更着急了，对不对，这小乌鸦很着急呀， 想劝猴子呀，是不是啊，好， 来小乌鸦继续劝下去，好，农谚是什么意思，你说，好，这个农谚啊就是农民伯伯， 他们不是长期的在农田里劳动吗，他们把长期劳动的经验浓缩成简单一句话，这里的农谚是什么，对梨五杏四是什么意思啊，你看这么长的话，它用四个字就能概括，是不是啊，很好说了一句农谚， 小乌鸦对着猴哥说了一句农谚，接着说下去，哎呀，小乌鸦你在这里又来了一问，说明你怎么样啊，哦， 你有这个耐心吗，就是说你没这个耐心啊， 是不是啊，你看这里又来一问， 语气就更强烈真棒，</t>
@@ -440,42 +568,43 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
+    {"type": "发起", "content": "好的，你连叫两声。"},
     {"type": "发起", "content": "猴哥，给我听听。"},
-    {"type": "评价", "content": "哎，猴哥听见了。"},
+    {"type": "讲解", "content": "哎，猴哥听见了。"},
     {"type": "发起", "content": "来，我们学着他的样子。"},
     {"type": "发起", "content": "小乌鸦们，叫两声猴哥。"},
-    {"type": "评价", "content": "猴哥听见了。"},
+    {"type": "讲解", "content": "猴哥听见了。"},
     {"type": "发起", "content": "好，小乌鸦继续说下去。"},
-    {"type": "发起", "content": "你怎么种了梨树呢？"},
-    {"type": "发起", "content": "这句话什么意思？"},
     {"type": "发起", "content": "哎，你怎么种梨树呢？"},
     {"type": "发起", "content": "我给你两个选择，好不好？"},
     {"type": "发起", "content": "一是你不可以种梨树，是不是这个意思？"},
     {"type": "发起", "content": "还是说你可以种梨树？"},
-    {"type": "发起", "content": "应该是第一个选项，是不是？"},
+    {"type": "讲解", "content": "应该是第一个选项，是不是？"},
     {"type": "讲解", "content": "你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
-    {"type": "发起", "content": "哎，这里来一个反问。"},
-    {"type": "讲解", "content": "这个语气怎么样？就更着急了，对不对？"},
+    {"type": "讲解", "content": "哎，这里来一个反问。"},
+    {"type": "讲解", "content": "这个语气怎么样？"},
+    {"type": "讲解", "content": "就更着急了，对不对？"},
     {"type": "讲解", "content": "这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
     {"type": "发起", "content": "好，来，小乌鸦继续劝下去。"},
-    {"type": "发起", "content": "好，农谚是什么意思？"},
-    {"type": "发起", "content": "你说。"},
+    {"type": "发起", "content": "好，农谚是什么意思？你说。"},
     {"type": "讲解", "content": "好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。"},
     {"type": "发起", "content": "这里的农谚是什么？"},
     {"type": "发起", "content": "“对梨五杏四”是什么意思啊？"},
     {"type": "讲解", "content": "你看，这么长的话，它用四个字就能概括，是不是啊？"},
-    {"type": "评价", "content": "很好，说了一句农谚。"},
+    {"type": "评价", "content": "很好，"},
+    {"type": "讲解", "content": "说了一句农谚。"},
     {"type": "讲解", "content": "小乌鸦对着猴哥说了一句农谚。"},
     {"type": "发起", "content": "接着说下去。"},
-    {"type": "发起", "content": "哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
-    {"type": "发起", "content": "哦，你有这个耐心吗？"},
-    {"type": "发起", "content": "就是说你没这个耐心啊，是不是啊？"},
+    {"type": "讲解", "content": "哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
+    {"type": "讲解", "content": "哦，你有这个耐心吗？"},
+    {"type": "讲解", "content": "就是说你没这个耐心啊，是不是啊？"},
     {"type": "讲解", "content": "你看，这里又来一问，语气就更强烈。"},
     {"type": "评价", "content": "真棒。"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -501,30 +630,80 @@
   </si>
   <si>
     <t>[
-  {"type":"其它", "content":"好的，你连叫两声。"},
-  {"type":"其它", "content":"猴哥，给我听听。"},
-  {"type":"其它", "content":"哎，猴哥听见了。"},
-  {"type":"发起", "content":"来，我们学着他的样子。小乌鸦们，叫两声猴哥。"},
+  {"type":"发起","content":"好的，你连叫两声。猴哥，给我听听。"},
+  {"type":"发起","content":"来，我们学着他的样子。小乌鸦们，叫两声猴哥。"},
   {"type":"其它","content":"猴哥听见了。"},
-  {"type":"发起", "content":"好，小乌鸦继续说下去。"},
-  {"type":"发起", "content":"哎，你怎么种梨树呢？"},
-  {"type":"发起", "content":"我给你两个选择，好不好？"},
-  {"type":"讲解", "content":"一是你不可以种梨树，是不是这个意思？还是说你可以种梨树？应该是第一个选项，是不是？你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
-  {"type":"讲解", "content":"哎，这里来一个反问。这个语气怎么样？就更着急了，对不对？这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
-  {"type":"发起", "content":"好，来，小乌鸦继续劝下去。"},
-  {"type":"发起", "content":"好，农谚是什么意思？你说。"},
-  {"type":"讲解", "content":"好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。"},
-  {"type":"发起", "content":"这里的农谚是什么？“对梨五杏四”是什么意思啊？"},
-  {"type":"讲解", "content":"你看，这么长的话，它用四个字就能概括，是不是啊？"},
-  {"type":"评价", "content":"很好，说了一句农谚。"},
-  {"type":"讲解", "content":"小乌鸦对着猴哥说了一句农谚。"},
-  {"type":"发起", "content":"接着说下去。"},
-  {"type":"讲解", "content":"哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
-  {"type":"发起", "content":"哦，你有这个耐心吗？"},
-  {"type":"讲解", "content":"就是说你没这个耐心啊，是不是啊？"},
-  {"type":"讲解", "content":"你看，这里又来一问，语气就更强烈。"},
-  {"type":"评价", "content":"真棒。"}
+  {"type":"发起","content":"好，小乌鸦继续说下去。"},
+  {"type":"讲解","content":"哎，你怎么种梨树呢？我给你两个选择，好不好？一是你不可以种梨树，是不是这个意思？还是说你可以种梨树？应该是第一个选项，是不是？你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
+  {"type":"讲解","content":"哎，这里来一个反问。这个语气怎么样？就更着急了，对不对？这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
+  {"type":"发起","content":"好，来，小乌鸦继续劝下去。"},
+  {"type":"发起","content":"好，农谚是什么意思？你说。"},
+  {"type":"讲解","content":"好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。"},
+  {"type":"发起","content":"这里的农谚是什么？“对梨五杏四”是什么意思啊？"},
+  {"type":"讲解","content":"你看，这么长的话，它用四个字就能概括，是不是啊？"},
+  {"type":"评价","content":"很好，说了一句农谚。"},
+  {"type":"讲解","content":"小乌鸦对着猴哥说了一句农谚。"},
+  {"type":"发起","content":"接着说下去。"},
+  {"type":"讲解","content":"哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
+  {"type":"讲解","content":"哦，你有这个耐心吗？就是说你没这个耐心啊，是不是啊？"},
+  {"type":"讲解","content":"你看，这里又来一问，语气就更强烈。"},
+  {"type":"评价","content":"真棒。"}
 ]</t>
+  </si>
+  <si>
+    <t>[
+{"type":"发起","content":"好的，你连叫两声。"},
+{"type":"发起","content":"猴哥，给我听听。"},
+{"type":"其它","content":"哎，猴哥听见了。"},
+{"type":"发起","content":"来，我们学着他的样子。"},
+{"type":"发起","content":"小乌鸦们，叫两声猴哥。"},
+{"type":"其它","content":"猴哥听见了。"},
+{"type":"发起","content":"好，小乌鸦继续说下去。"},
+{"type":"发起","content":"哎，你怎么种梨树呢？"},
+{"type":"其它","content":"我给你两个选择，好不好？"},
+{"type":"其它","content":"一是你不可以种梨树，是不是这个意思？"},
+{"type":"其它","content":"还是说你可以种梨树？"},
+{"type":"讲解","content":"应该是第一个选项，是不是？你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
+{"type":"讲解","content":"哎，这里来一个反问。"},
+{"type":"讲解","content":"这个语气怎么样？就更着急了，对不对？"},
+{"type":"讲解","content":"这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
+{"type":"发起","content":"好，来，小乌鸦继续劝下去。"},
+{"type":"发起","content":"好，农谚是什么意思？你说。"},
+{"type":"讲解","content":"好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？"},
+{"type":"讲解","content":"他们把长期劳动的经验浓缩成简单一句话。"},
+{"type":"发起","content":"这里的农谚是什么？"},
+{"type":"发起","content":"“对梨五杏四”是什么意思啊？"},
+{"type":"讲解","content":"你看，这么长的话，它用四个字就能概括，是不是啊？"},
+{"type":"评价","content":"很好，说了一句农谚。"},
+{"type":"讲解","content":"小乌鸦对着猴哥说了一句农谚。"},
+{"type":"发起","content":"接着说下去。"},
+{"type":"讲解","content":"哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
+{"type":"讲解","content":"哦，你有这个耐心吗？就是说你没这个耐心啊，是不是啊？"},
+{"type":"讲解","content":"你看，这里又来一问，语气就更强烈。"},
+{"type":"评价","content":"真棒。"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "其它", "content": "好的，你连叫两声。"},
+  {"type": "发起", "content": "猴哥，给我听听。"},
+  {"type": "讲解", "content": "哎，猴哥听见了。来，我们学着他的样子。"},
+  {"type": "发起", "content": "小乌鸦们，叫两声猴哥。"},
+  {"type": "讲解", "content": "猴哥听见了。"},
+  {"type": "发起", "content": "好，小乌鸦继续说下去。"},
+  {"type": "发起", "content": "哎，你怎么种梨树呢？"},
+  {"type": "发起", "content": "我给你两个选择，好不好？"},
+  {"type": "讲解", "content": "一是你不可以种梨树，是不是这个意思？还是说你可以种梨树？应该是第一个选项，是不是？你怎么种梨树，意思就是说你不可以种梨树啊，是不是啊？"},
+  {"type": "讲解", "content": "哎，这里来一个反问。这个语气怎么样？就更着急了，对不对？这小乌鸦很着急呀，想劝猴子呀，是不是啊？"},
+  {"type": "发起", "content": "好，来，小乌鸦继续劝下去。"},
+  {"type": "发起", "content": "好，农谚是什么意思？你说。"},
+  {"type": "讲解", "content": "好，这个农谚啊，就是农民伯伯，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一句话。这里的农谚是什么？“对梨五杏四”是什么意思啊？你看，这么长的话，它用四个字就能概括，是不是啊？很好，说了一句农谚。小乌鸦对着猴哥说了一句农谚。接着说下去。"},
+  {"type": "发起", "content": "哎呀，小乌鸦，你在这里又来了一问，说明你怎么样啊？"},
+  {"type": "讲解", "content": "哦，你有这个耐心吗？就是说你没这个耐心啊，是不是啊？你看，这里又来一问，语气就更强烈。"},
+  {"type": "评价", "content": "真棒。"}
+]
+```</t>
   </si>
   <si>
     <t xml:space="preserve"> 哪知小乌鸦再来试试看，再来劝劝猴哥，你来，欢迎陈一坤，哎，这只小乌鸦讲的好不好？非常棒， 真好，来加上前面这一段， 来小乌鸦，我建议你们自己在下面练一练，说一说，啊，谁来做小乌鸦来劝劝猴子，好，梁振轩，嗯，非常好， 给他掌声， 猴哥听了，肯定有想法了，是不是呀？哎好， 那一只小乌鸦再来试试。刚刚这只小乌鸦真不错， 真是一只热情的小乌鸦，好，你来， 嗯，为这只热情的小乌鸦鼓掌，啊啊，好， 除了乌鸦劝猴子，故事里还有谁在劝猴子了，嗯，先把书拿出来好不好，来把书现在打开， 把书翻到， 四十六页啊， 四十七页，找到之后， 把那个自己读一读， 好，除了乌鸦来劝猴子，还有谁来了， 来，你来说，嗯，喜鹊和杜鹃，好， 你来读读喜鹊是怎么对猴子说的， 也是一只热情的小喜鹊，好， 谁再来做做喜鹊来读读这段话， 好，你呃，我请来你来，这样子，我请女孩子来给大家读，好不好， 正当杏树成活的时候， 预备齐，好，接下来还有哪只鸟来劝猴子了，嗯， 这个森林里太热闹了，是不是，来薛子浩，你来说说， 嗯，真是一只可爱的小杜鹃， 请坐，好，再请一个同学来试试看，好，桓齐，嗯，谢谢你，小杜鹃，猴哥听到了，好，这课要请男孩子来做杜鹃，好不好，把这段话来读一读啊，正当桃树成活的时候， 预备起 ，</t>
@@ -563,46 +742,45 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
-    {"type":"发起", "content":"哪知小乌鸦再来试试看，再来劝劝猴哥。"},
-    {"type":"发起", "content":"你来，欢迎陈一坤。"},
-    {"type":"评价", "content":"哎，这只小乌鸦讲的好不好？非常棒，真好。"},
-    {"type":"发起", "content":"来，加上前面这一段。"},
-    {"type":"发起", "content":"来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
-    {"type":"发起", "content":"啊，谁来做小乌鸦来劝劝猴子？"},
-    {"type":"发起", "content":"好，梁振轩。"},
-    {"type":"评价", "content":"嗯，非常好，给他掌声。"},
-    {"type":"讲解", "content":"猴哥听了，肯定有想法了，是不是呀？"},
-    {"type":"发起", "content":"哎，好，那一只小乌鸦再来试试。"},
-    {"type":"评价", "content":"刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
-    {"type":"发起", "content":"好，你来。"},
-    {"type":"评价", "content":"嗯，为这只热情的小乌鸦鼓掌。"},
-    {"type":"其它", "content":"啊啊，好。"},
-    {"type":"发起", "content":"除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
-    {"type":"发起", "content":"嗯，先把书拿出来好不好？"},
-    {"type":"发起", "content":"来，把书现在打开，把书翻到四十六页啊，四十七页。"},
-    {"type":"发起", "content":"找到之后，把那个自己读一读。"},
-    {"type":"发起", "content":"好，除了乌鸦来劝猴子，还有谁来了？"},
-    {"type":"发起", "content":"来，你来说。"},
-    {"type":"讲解", "content":"嗯，喜鹊和杜鹃。"},
-    {"type":"评价", "content":"好，你来读读喜鹊是怎么对猴子说的。也是一只热情的小喜鹊。"},
-    {"type":"发起", "content":"好，谁再来做做喜鹊来读读这段话。"},
-    {"type":"发起", "content":"好，你呃，我请来你来。"},
-    {"type":"发起", "content":"这样子，我请女孩子来给大家读，好不好？"},
-    {"type":"讲解", "content":"正当杏树成活的时候，预备齐。"},
-    {"type":"发起", "content":"好，接下来还有哪只鸟来劝猴子了？"},
-    {"type":"讲解", "content":"嗯，这个森林里太热闹了，是不是？"},
-    {"type":"发起", "content":"来，薛子浩，你来说说。"},
-    {"type":"评价", "content":"嗯，真是一只可爱的小杜鹃。请坐。"},
-    {"type":"发起", "content":"好，再请一个同学来试试看。"},
-    {"type":"发起", "content":"好，桓齐。"},
-    {"type":"评价", "content":"嗯，谢谢你，小杜鹃。猴哥听到了。"},
-    {"type":"发起", "content":"好，这课要请男孩子来做杜鹃，好不好？"},
-    {"type":"发起", "content":"把这段话来读一读啊。"},
-    {"type":"讲解", "content":"正当桃树成活的时候，预备起。"}
+    {"type": "讲解", "content": "哪只小乌鸦再来试试看，再来劝劝猴哥。"},
+    {"type": "发起", "content": "你来，欢迎陈一坤。"},
+    {"type": "评价", "content": "哎，这只小乌鸦讲的好不好？非常棒，真好。"},
+    {"type": "发起", "content": "来，加上前面这一段。"},
+    {"type": "发起", "content": "来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
+    {"type": "发起", "content": "啊，谁来做小乌鸦来劝劝猴子？"},
+    {"type": "发起", "content": "好，梁振轩。"},
+    {"type": "评价", "content": "嗯，非常好，给他掌声。"},
+    {"type": "讲解", "content": "猴哥听了，肯定有想法了，是不是呀？"},
+    {"type": "发起", "content": "哎，好，那一只小乌鸦再来试试。"},
+    {"type": "评价", "content": "刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
+    {"type": "发起", "content": "好，你来。"},
+    {"type": "评价", "content": "嗯，为这只热情的小乌鸦鼓掌。"},
+    {"type": "其它", "content": "啊啊，好。"},
+    {"type": "发起", "content": "除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
+    {"type": "发起", "content": "嗯，先把书拿出来好不好？来，把书现在打开，把书翻到四十六页啊，四十七页。找到之后，把那个自己读一读。"},
+    {"type": "发起", "content": "好，除了乌鸦来劝猴子，还有谁来了？来，你来说。"},
+    {"type": "讲解", "content": "嗯，喜鹊和杜鹃。"},
+    {"type": "发起", "content": "好，你来读读喜鹊是怎么对猴子说的。"},
+    {"type": "评价", "content": "也是一只热情的小喜鹊。"},
+    {"type": "发起", "content": "好，谁再来做做喜鹊来读读这段话。"},
+    {"type": "发起", "content": "好，你呃，我请来你来。"},
+    {"type": "发起", "content": "这样子，我请女孩子来给大家读，好不好？"},
+    {"type": "发起", "content": "正当杏树成活的时候，预备齐。"},
+    {"type": "发起", "content": "好，接下来还有哪只鸟来劝猴子了？"},
+    {"type": "讲解", "content": "嗯，这个森林里太热闹了，是不是？"},
+    {"type": "发起", "content": "来，薛子浩，你来说说。"},
+    {"type": "评价", "content": "嗯，真是一只可爱的小杜鹃。"},
+    {"type": "发起", "content": "请坐。"},
+    {"type": "发起", "content": "好，再请一个同学来试试看。"},
+    {"type": "发起", "content": "好，桓齐。"},
+    {"type": "评价", "content": "嗯，谢谢你，小杜鹃。"},
+    {"type": "讲解", "content": "猴哥听到了。"},
+    {"type": "发起", "content": "好，这课要请男孩子来做杜鹃，好不好？把这段话来读一读啊。正当桃树成活的时候，预备起。"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -635,45 +813,109 @@
   </si>
   <si>
     <t>[
-  {"type":"发起","content":"哪知小乌鸦再来试试看，再来劝劝猴哥。"},
-  {"type":"发起","content":"你来，欢迎陈一坤。"},
+  {"type":"发起","content":"哪知小乌鸦再来试试看，再来劝劝猴哥。你来，欢迎陈一坤。"},
   {"type":"评价","content":"哎，这只小乌鸦讲的好不好？非常棒，真好。"},
-  {"type":"发起","content":"来，加上前面这一段。"},
-  {"type":"发起","content":"来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
-  {"type":"发起","content":"啊，谁来做小乌鸦来劝劝猴子？"},
-  {"type":"发起","content":"好，梁振轩。"},
+  {"type":"发起","content":"来，加上前面这一段。来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
+  {"type":"发起","content":"啊，谁来做小乌鸦来劝劝猴子？好，梁振轩。"},
   {"type":"评价","content":"嗯，非常好，给他掌声。"},
   {"type":"发起","content":"猴哥听了，肯定有想法了，是不是呀？"},
   {"type":"发起","content":"哎，好，那一只小乌鸦再来试试。"},
   {"type":"评价","content":"刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
   {"type":"发起","content":"好，你来。"},
   {"type":"其它","content":"嗯，为这只热情的小乌鸦鼓掌。"},
-  {"type":"其它","content":"啊啊，好。"},
-  {"type":"发起","content":"除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
-  {"type":"发起","content":"嗯，先把书拿出来好不好？"},
-  {"type":"发起","content":"来，把书现在打开，把书翻到四十六页啊，四十七页。"},
+  {"type":"发起","content":"啊啊，好。除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
+  {"type":"发起","content":"嗯，先把书拿出来好不好？来，把书现在打开，把书翻到四十六页啊，四十七页。"},
   {"type":"发起","content":"找到之后，把那个自己读一读。"},
-  {"type":"发起","content":"好，除了乌鸦来劝猴子，还有谁来了？"},
-  {"type":"发起","content":"来，你来说。"},
-  {"type":"其它","content":"嗯，喜鹊和杜鹃。"},
+  {"type":"发起","content":"好，除了乌鸦来劝猴子，还有谁来了？来，你来说。"},
+  {"type":"讲解","content":"嗯，喜鹊和杜鹃。"},
   {"type":"发起","content":"好，你来读读喜鹊是怎么对猴子说的。"},
   {"type":"评价","content":"也是一只热情的小喜鹊。"},
   {"type":"发起","content":"好，谁再来做做喜鹊来读读这段话。"},
   {"type":"发起","content":"好，你呃，我请来你来。"},
-  {"type":"发起","content":"这样子，我请女孩子来给大家读，好不好？"},
-  {"type":"发起","content":"正当杏树成活的时候，预备齐。"},
+  {"type":"发起","content":"这样子，我请女孩子来给大家读，好不好？正当杏树成活的时候，预备齐。"},
   {"type":"发起","content":"好，接下来还有哪只鸟来劝猴子了？"},
-  {"type":"发起","content":"嗯，这个森林里太热闹了，是不是？"},
-  {"type":"发起","content":"来，薛子浩，你来说说。"},
+  {"type":"发起","content":"嗯，这个森林里太热闹了，是不是？来，薛子浩，你来说说。"},
   {"type":"评价","content":"嗯，真是一只可爱的小杜鹃。"},
   {"type":"其它","content":"请坐。"},
   {"type":"发起","content":"好，再请一个同学来试试看。"},
   {"type":"发起","content":"好，桓齐。"},
   {"type":"评价","content":"嗯，谢谢你，小杜鹃。猴哥听到了。"},
-  {"type":"发起","content":"好，这课要请男孩子来做杜鹃，好不好？"},
-  {"type":"发起","content":"把这段话来读一读啊。"},
-  {"type":"发起","content":"正当桃树成活的时候，预备起。"}
+  {"type":"发起","content":"好，这课要请男孩子来做杜鹃，好不好？把这段话来读一读啊。正当桃树成活的时候，预备起。"}
 ]</t>
+  </si>
+  <si>
+    <t>[
+  {"type": "发起", "content": "哪知小乌鸦再来试试看，再来劝劝猴哥。你来，欢迎陈一坤。"},
+  {"type": "发起", "content": "哎，这只小乌鸦讲的好不好？"},
+  {"type": "评价", "content": "非常棒，真好。"},
+  {"type": "发起", "content": "来，加上前面这一段。来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
+  {"type": "发起", "content": "啊，谁来做小乌鸦来劝劝猴子？"},
+  {"type": "发起", "content": "好，梁振轩。"},
+  {"type": "评价", "content": "嗯，非常好，给他掌声。"},
+  {"type": "发起", "content": "猴哥听了，肯定有想法了，是不是呀？"},
+  {"type": "发起", "content": "哎，好，那一只小乌鸦再来试试。"},
+  {"type": "评价", "content": "刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
+  {"type": "发起", "content": "好，你来。"},
+  {"type": "评价", "content": "嗯，为这只热情的小乌鸦鼓掌。"},
+  {"type": "发起", "content": "啊啊，好。除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
+  {"type": "发起", "content": "嗯，先把书拿出来好不好？"},
+  {"type": "发起", "content": "来，把书现在打开，把书翻到四十六页啊，四十七页。"},
+  {"type": "发起", "content": "找到之后，把那个自己读一读。"},
+  {"type": "发起", "content": "好，除了乌鸦来劝猴子，还有谁来了？"},
+  {"type": "发起", "content": "来，你来说。"},
+  {"type": "讲解", "content": "嗯，喜鹊和杜鹃。"},
+  {"type": "发起", "content": "好，你来读读喜鹊是怎么对猴子说的。"},
+  {"type": "讲解", "content": "也是一只热情的小喜鹊。"},
+  {"type": "发起", "content": "好，谁再来做做喜鹊来读读这段话。"},
+  {"type": "发起", "content": "好，你呃，我请来你来。"},
+  {"type": "发起", "content": "这样子，我请女孩子来给大家读，好不好？"},
+  {"type": "发起", "content": "正当杏树成活的时候，预备齐。"},
+  {"type": "发起", "content": "好，接下来还有哪只鸟来劝猴子了？"},
+  {"type": "发起", "content": "嗯，这个森林里太热闹了，是不是？"},
+  {"type": "发起", "content": "来，薛子浩，你来说说。"},
+  {"type": "评价", "content": "嗯，真是一只可爱的小杜鹃。"},
+  {"type": "发起", "content": "请坐。"},
+  {"type": "发起", "content": "好，再请一个同学来试试看。"},
+  {"type": "发起", "content": "好，桓齐。"},
+  {"type": "评价", "content": "嗯，谢谢你，小杜鹃。猴哥听到了。"},
+  {"type": "发起", "content": "好，这课要请男孩子来做杜鹃，好不好？"},
+  {"type": "发起", "content": "把这段话来读一读啊。"},
+  {"type": "发起", "content": "正当桃树成活的时候，预备起。"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "你来，欢迎陈一坤。"},
+  {"type": "评价", "content": "哎，这只小乌鸦讲的好不好？非常棒，真好。"},
+  {"type": "发起", "content": "来，小乌鸦，我建议你们自己在下面练一练，说一说。"},
+  {"type": "发起", "content": "啊，谁来做小乌鸦来劝劝猴子？"},
+  {"type": "评价", "content": "好，梁振轩。嗯，非常好，给他掌声。"},
+  {"type": "讲解", "content": "猴哥听了，肯定有想法了，是不是呀？"},
+  {"type": "发起", "content": "哎，好，那一只小乌鸦再来试试。"},
+  {"type": "评价", "content": "刚刚这只小乌鸦真不错，真是一只热情的小乌鸦。"},
+  {"type": "发起", "content": "好，你来。"},
+  {"type": "发起", "content": "嗯，为这只热情的小乌鸦鼓掌。"},
+  {"type": "发起", "content": "啊啊，好。除了乌鸦劝猴子，故事里还有谁在劝猴子了？"},
+  {"type": "发起", "content": "嗯，先把书拿出来好不好？来，把书现在打开，把书翻到四十六页啊，四十七页。找到之后，把那个自己读一读。"},
+  {"type": "发起", "content": "好，除了乌鸦来劝猴子，还有谁来了？"},
+  {"type": "发起", "content": "来，你来说。"},
+  {"type": "评价", "content": "嗯，喜鹊和杜鹃。好，你来读读喜鹊是怎么对猴子说的。也是一只热情的小喜鹊。"},
+  {"type": "发起", "content": "好，谁再来做做喜鹊来读读这段话。"},
+  {"type": "发起", "content": "好，你呃，我请来你来。这样子，我请女孩子来给大家读，好不好？"},
+  {"type": "发起", "content": "正当杏树成活的时候，预备齐。"},
+  {"type": "发起", "content": "好，接下来还有哪只鸟来劝猴子了？"},
+  {"type": "评价", "content": "嗯，这个森林里太热闹了，是不是？"},
+  {"type": "发起", "content": "来，薛子浩，你来说说。"},
+  {"type": "评价", "content": "嗯，真是一只可爱的小杜鹃。请坐。"},
+  {"type": "发起", "content": "好，再请一个同学来试试看。"},
+  {"type": "发起", "content": "好，桓齐。"},
+  {"type": "评价", "content": "嗯，谢谢你，小杜鹃。"},
+  {"type": "发起", "content": "猴哥听到了。"},
+  {"type": "发起", "content": "好，这课要请男孩子来做杜鹃，好不好？把这段话来读一读啊。"},
+  {"type": "发起", "content": "正当桃树成活的时候，预备起。"}
+]
+```</t>
   </si>
   <si>
     <t>真的是男孩子今天读的真好， 而且很多女孩子也在认真听，我也要表扬， 非常好啊，来同学们，你们来看啊， 乌鸦喜鹊杜鹃都来劝猴子了， 他们劝猴子说的话的时候又有什么相似之处吗， 找找规律看， 秦源， 你找到什么，很好，对不对，它们的叫声对不对，那我们来继续看啊， 乌鸦喜鹊杜鹃，哎，很好， 谁都有叫声，好，他找到的相似处真棒， 还有一个，一共三段话，好农谚，那么在农谚之前，先连叫几只猴哥， 对，你们看乌鸦对猴子说也是猴哥猴哥， 喜鹊对猴子说也是猴哥猴哥，对对，杜鹃对猴子说的时候， 也是连叫两声猴哥猴哥 ，这个三只小鸟也是非常急， 对不对，想要叫猴哥听到是不是， 然后再像周浩天说的一样， 要来一句问句，对不对，你怎么种梨树呢，喜鹊说你怎么种，杏树呢，杜鹃说，猴哥猴哥你怎么种桃树呢， 意思都在说你不可以种的杏树，你不可以种桃树，好，然后再来一句农谚，好，来，还有，你说，有句农谚就是说了农谚，对， 就是在说这个重量级， 对不对，来， 最后一句你有这个耐心吗，然后再找第四段喜鹊对猴子说最后一句话是，有的同学没有找到，没有在认真听讲， 要找的快呀，认真一点，现在都在录课，还有人脚是没有放平， 今天都要练习一下坐姿，好， 然后，好，杜鹃对猴子说的最后一句话是什么，</t>
@@ -684,17 +926,16 @@
   <si>
     <t>[
     {"type": "评价", "content": "真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
-    {"type": "讲解", "content": "来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
+    {"type": "发起", "content": "来，同学们，你们来看啊。"},
+    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
     {"type": "发起", "content": "秦源，你找到什么？"},
     {"type": "评价", "content": "很好，对不对？"},
     {"type": "发起", "content": "它们的叫声对不对？"},
-    {"type": "发起", "content": "那我们来继续看啊。乌鸦、喜鹊、杜鹃，"},
-    {"type": "评价", "content": "哎，很好，谁都有叫声。好，他找到的相似处真棒。"},
+    {"type": "发起", "content": "那我们来继续看啊。"},
+    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。"},
     {"type": "发起", "content": "还有一个，一共三段话。"},
     {"type": "评价", "content": "好，农谚。"},
-    {"type": "发起", "content": "那么在农谚之前，先连叫几声猴哥，"},
-    {"type": "评价", "content": "对。"},
-    {"type": "讲解", "content": "你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
+    {"type": "讲解", "content": "那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
     {"type": "发起", "content": "好，来。还有，你说，"},
     {"type": "评价", "content": "有句农谚就是说了农谚，对。"},
     {"type": "讲解", "content": "就是在说这个重量级，对不对？"},
@@ -705,30 +946,35 @@
   ]</t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {"type": "评价", "content": "真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
-    {"type": "发起", "content": "来，同学们，你们来看啊。"},
+    {"type": "其它", "content": "来，同学们，你们来看啊。"},
     {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
     {"type": "发起", "content": "秦源，你找到什么？"},
     {"type": "评价", "content": "很好，对不对？"},
     {"type": "发起", "content": "它们的叫声对不对？"},
-    {"type": "发起", "content": "那我们来继续看啊。"},
-    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。"},
-    {"type": "讲解", "content": "好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。"},
-    {"type": "讲解", "content": "这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？"},
+    {"type": "其它", "content": "那我们来继续看啊。"},
+    {"type": "讲解", "content": "乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。"},
+    {"type": "讲解", "content": "那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。"},
+    {"type": "讲解", "content": "这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？"},
+    {"type": "讲解", "content": "然后再像周浩天说的一样，要来一句问句，对不对？"},
     {"type": "发起", "content": "你怎么种梨树呢？"},
-    {"type": "讲解", "content": "喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。"},
-    {"type": "讲解", "content": "好，然后再来一句农谚。"},
-    {"type": "发起", "content": "好，来。还有，你说，有句农谚就是说了农谚，对。"},
+    {"type": "讲解", "content": "喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”"},
+    {"type": "讲解", "content": "意思都在说你不可以种杏树，你不可以种桃树。"},
+    {"type": "发起", "content": "好，然后再来一句农谚。好，来。"},
+    {"type": "发起", "content": "还有，你说，有句农谚就是说了农谚，对。"},
     {"type": "讲解", "content": "就是在说这个重量级，对不对？"},
     {"type": "发起", "content": "来，最后一句“你有这个耐心吗？”"},
     {"type": "发起", "content": "然后再找第四段，喜鹊对猴子说最后一句话是？"},
-    {"type": "评价", "content": "有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。"},
+    {"type": "评价", "content": "有的同学没有找到，没有在认真听讲。"},
+    {"type": "发起", "content": "要找的快呀，认真一点。"},
     {"type": "其它", "content": "现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
-    {"type": "发起", "content": "好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
+    {"type": "发起", "content": "好，然后，"},
+    {"type": "发起", "content": "好，杜鹃对猴子说的最后一句话是什么？"}
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -757,26 +1003,54 @@
   {"type":"发起","content":"来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
   {"type":"发起","content":"秦源，你找到什么？"},
   {"type":"评价","content":"很好，对不对？它们的叫声对不对？"},
-  {"type":"讲解","content":"那我们来继续看啊。乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
+  {"type":"讲解","content":"那我们来继续看啊。乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。"},
+  {"type":"讲解","content":"好，然后再来一句农谚。"},
   {"type":"发起","content":"好，还有，你说，有句农谚就是说了农谚，对。就是在说这个重量级，对不对？"},
   {"type":"发起","content":"来，最后一句“你有这个耐心吗？”"},
-  {"type":"发起","content":"然后喜鹊对猴子说最后一句话是？"},
+  {"type":"发起","content":"然后再找第四段，喜鹊对猴子说最后一句话是？"},
   {"type":"其它","content":"有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
   {"type":"发起","content":"好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
 ]</t>
   </si>
   <si>
+    <t>[
+{"type":"评价","content":"真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
+{"type":"发起","content":"来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。秦源，你找到什么？"},
+{"type":"评价","content":"很好，对不对？它们的叫声对不对？"},
+{"type":"讲解","content":"那我们来继续看啊。乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。好，他找到的相似处真棒。还有一个，一共三段话。好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
+{"type":"发起","content":"好，还有，你说，有句农谚就是说了农谚，对。就是在说这个重量级，对不对？来，最后一句“你有这个耐心吗？”然后再找第四段，喜鹊对猴子说最后一句话是？"},
+{"type":"其它","content":"有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
+{"type":"发起","content":"好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "评价", "content": "真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
+  {"type": "发起", "content": "来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
+  {"type": "发起", "content": "秦源，你找到什么？"},
+  {"type": "评价", "content": "很好，对不对？它们的叫声对不对？"},
+  {"type": "发起", "content": "那我们来继续看啊。乌鸦、喜鹊、杜鹃，哎，很好，谁都有叫声。"},
+  {"type": "评价", "content": "好，他找到的相似处真棒。"},
+  {"type": "讲解", "content": "还有一个，一共三段话。好，农谚。那么在农谚之前，先连叫几声猴哥，对。你们看，乌鸦对猴子说也是“猴哥猴哥”。喜鹊对猴子说也是“猴哥猴哥”。对，对，杜鹃对猴子说的时候，也是连叫两声“猴哥猴哥”。这个三只小鸟也是非常急，对不对？想要叫猴哥听到是不是？然后再像周浩天说的一样，要来一句问句，对不对？你怎么种梨树呢？喜鹊说“你怎么种杏树呢？”杜鹃说“猴哥猴哥，你怎么种桃树呢？”意思都在说你不可以种杏树，你不可以种桃树。好，然后再来一句农谚。"},
+  {"type": "发起", "content": "好，来。还有，你说，有句农谚就是说了农谚，对。就是在说这个重量级，对不对？来，最后一句“你有这个耐心吗？”"},
+  {"type": "发起", "content": "然后再找第四段，喜鹊对猴子说最后一句话是？"},
+  {"type": "其它", "content": "有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
+  {"type": "发起", "content": "好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
+]
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">好，把三句话来说一说， 我再问乌鸦对猴子说的最后一句话是什么，好喜鹊对猴子说的最后一句话， 杜鹃对猴子说的最后一句话， 三句话意思一样吗，对一样，但是为什么这里他的说法不一样， 你有这么耐心吗，你能等得及吗，你不着急吗，都在说猴子怎么样， 都在说猴子怎么样，都在说猴子，会着急， 没耐心等不及， 是不是啊，这个猴子越来越着急，是的啊， 在这里他有三个不同的想法很好，你说还有什么， 啊很好， 他说出一个特点来这三句为什么不一样，如果三句都一样就没意思了， 读起来是不是这样子，让这个故事更丰富很好，同样的意思可以用不同的句子来表达， 这就是我们中国语言的神秘之处啊， 我们中国语言文字的奥秘所在，好，你说，你有什么补充，好，谢谢你的发现，你来说，正当成他们成活的时候，是不是，好，非常好，来孩子们这三段话居然找到相似之处，哎，那我们讲这个故事的时候， 是不是觉得很好讲，是的好的， 自己选一个角色，你可以选乌鸦，可以选喜鹊，也可以选杜鹃， 把他的这段话自己在下面练讲， 等一会儿像高婷一样站起来啊，很熟练的啊， 很有感情的告诉给大家， 好的啊，自己练好了，是不是，那可以讲给你的同桌好朋友听啊，哎如果你是讲乌鸦的话， 你讲给同桌听， </t>
   </si>
   <si>
     <t>好，把三句话来说一说。我再问乌鸦对猴子说的最后一句话是什么。好，喜鹊对猴子说的最后一句话。杜鹃对猴子说的最后一句话。三句话意思一样吗？对，一样。但是为什么这里他的说法不一样？你有这么耐心吗？你能等得及吗？你不着急吗？都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。很好，你说还有什么？啊，很好。 他说出一个特点来。这三句为什么不一样？如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。好，你说，你有什么补充？好，谢谢你的发现。你来说，正当他们成活的时候，是不是？好，非常好。来，孩子们，这三段话居然找到相似之处。哎，那我们讲这个故事的时候，是不是觉得很好讲？是的。好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。哎，如果你是讲乌鸦的话，你讲给同桌听。</t>
   </si>
   <si>
-    <t xml:space="preserve">[
+    <t>[
     {"type":"发起","content":"好，把三句话来说一说。"},
     {"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
-    {"type": "评价", "content": "好"},
-    {"type":"发起","content":"喜鹊对猴子说的最后一句话。"},
+    {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
     {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
     {"type":"发起","content":"三句话意思一样吗？"},
     {"type":"评价","content":"对，一样。"},
@@ -794,39 +1068,36 @@
     {"type":"评价","content":"是的。"},
     {"type":"发起","content":"好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
     {"type":"发起","content":"好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。哎，如果你是讲乌鸦的话，你讲给同桌听。"}
-]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "result": [
+    {"type": "发起", "content": "好，把三句话来说一说。"},
+    {"type": "发起", "content": "我再问乌鸦对猴子说的最后一句话是什么。"},
+    {"type": "发起", "content": "好，喜鹊对猴子说的最后一句话。"},
+    {"type": "发起", "content": "杜鹃对猴子说的最后一句话。"},
+    {"type": "发起", "content": "三句话意思一样吗？"},
+    {"type": "讲解", "content": "对，一样。"},
+    {"type": "讲解", "content": "但是为什么这里他的说法不一样？你有这么耐心吗？你能等得及吗？你不着急吗？都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。"},
+    {"type": "评价", "content": "很好，"},
+    {"type": "发起", "content": "你说还有什么？"},
+    {"type": "评价", "content": "啊，很好。"},
+    {"type": "评价", "content": "他说出一个特点来。"},
+    {"type": "发起", "content": "这三句为什么不一样？"},
+    {"type": "讲解", "content": "如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。"},
+    {"type": "讲解", "content": "很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
+    {"type": "发起", "content": "好，你说，你有什么补充？"},
+    {"type": "评价", "content": "好，谢谢你的发现。"},
+    {"type": "发起", "content": "你来说，正当他们成活的时候，是不是？"},
+    {"type": "评价", "content": "好，非常好。"},
+    {"type": "发起", "content": "来，孩子们，这三段话居然找到相似之处。哎，那我们讲这个故事的时候，是不是觉得很好讲？是的。"},
+    {"type": "发起", "content": "好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
+    {"type": "发起", "content": "好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。"},
+    {"type": "发起", "content": "哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+  ]
+}
 </t>
-  </si>
-  <si>
-    <t>{"result":[
-    {"type":"发起","content":"好，把三句话来说一说。"},
-    {"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
-    {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
-    {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
-    {"type":"发起","content":"三句话意思一样吗？"},
-    {"type":"发起","content":"对，一样。但是为什么这里他的说法不一样？"},
-    {"type":"发起","content":"你有这么耐心吗？"},
-    {"type":"发起","content":"你能等得及吗？"},
-    {"type":"发起","content":"你不着急吗？"},
-    {"type":"讲解","content":"都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。是不是啊？这个猴子越来越着急，是的啊。在这里他有三个不同的想法。"},
-    {"type":"评价","content":"很好，你说还有什么？"},
-    {"type":"评价","content":"啊，很好。他说出一个特点来。"},
-    {"type":"发起","content":"这三句为什么不一样？"},
-    {"type":"讲解","content":"如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。"},
-    {"type":"评价","content":"很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
-    {"type":"发起","content":"好，你说，你有什么补充？"},
-    {"type":"评价","content":"好，谢谢你的发现。"},
-    {"type":"发起","content":"你来说，正当他们成活的时候，是不是？"},
-    {"type":"评价","content":"好，非常好。"},
-    {"type":"发起","content":"来，孩子们，这三段话居然找到相似之处。"},
-    {"type":"发起","content":"哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
-    {"type":"发起","content":"是的。"},
-    {"type":"发起","content":"好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
-    {"type":"发起","content":"把他的这段话自己在下面练讲。"},
-    {"type":"发起","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
-    {"type":"发起","content":"好的啊，自己练好了，是不是？那可以讲给你的同桌好朋友听啊。"},
-    {"type":"发起","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
-]}</t>
   </si>
   <si>
     <t>[
@@ -861,100 +1132,167 @@
   {"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
   {"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
   {"type":"发起","content":"三句话意思一样吗？"},
-  {"type":"评价","content":"对，一样。"},
-  {"type":"发起","content":"但是为什么这里他的说法不一样？"},
-  {"type":"发起","content":"你有这么耐心吗？"},
-  {"type":"发起","content":"你能等得及吗？"},
-  {"type":"发起","content":"你不着急吗？"},
+  {"type":"讲解","content":"对，一样。但是为什么这里他的说法不一样？"},
+  {"type":"发起","content":"你有这么耐心吗？你能等得及吗？你不着急吗？"},
   {"type":"讲解","content":"都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。"},
-  {"type":"发起","content":"是不是啊？"},
-  {"type":"讲解","content":"这个猴子越来越着急，是的啊。"},
-  {"type":"讲解","content":"在这里他有三个不同的想法。"},
-  {"type":"评价","content":"很好，你说还有什么？"},
-  {"type":"其它","content":"啊，很好。"},
-  {"type":"评价","content":"他说出一个特点来。"},
-  {"type":"发起","content":"这三句为什么不一样？"},
-  {"type":"讲解","content":"如果三句都一样就没意思了。"},
-  {"type":"发起","content":"读起来是不是这样子？"},
-  {"type":"讲解","content":"让这个故事更丰富。"},
-  {"type":"讲解","content":"很好。同样的意思可以用不同的句子来表达。"},
-  {"type":"讲解","content":"这就是我们中国语言的神秘之处啊。"},
-  {"type":"讲解","content":"我们中国语言文字的奥秘所在。"},
+  {"type":"评价","content":"是不是啊？这个猴子越来越着急，是的啊。"},
+  {"type":"发起","content":"在这里他有三个不同的想法。很好，你说还有什么？"},
+  {"type":"评价","content":"啊，很好。他说出一个特点来。"},
+  {"type":"讲解","content":"这三句为什么不一样？如果三句都一样就没意思了。"},
+  {"type":"讲解","content":"读起来是不是这样子？让这个故事更丰富。"},
+  {"type":"讲解","content":"很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
   {"type":"发起","content":"好，你说，你有什么补充？"},
   {"type":"评价","content":"好，谢谢你的发现。"},
   {"type":"发起","content":"你来说，正当他们成活的时候，是不是？"},
   {"type":"评价","content":"好，非常好。"},
-  {"type":"讲解","content":"来，孩子们，这三段话居然找到相似之处。"},
+  {"type":"发起","content":"来，孩子们，这三段话居然找到相似之处。"},
   {"type":"发起","content":"哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
   {"type":"评价","content":"是的。"},
-  {"type":"发起","content":"好的，自己选一个角色。"},
-  {"type":"讲解","content":"你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
+  {"type":"其它","content":"好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
   {"type":"发起","content":"把他的这段话自己在下面练讲。"},
-  {"type":"讲解","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
-  {"type":"讲解","content":"好的啊，自己练好了，是不是？"},
+  {"type":"其它","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
+  {"type":"其它","content":"好的啊，自己练好了，是不是？"},
   {"type":"发起","content":"那可以讲给你的同桌好朋友听啊。"},
-  {"type":"讲解","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+  {"type":"其它","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
 ]</t>
   </si>
   <si>
+    <t>[
+{"type":"发起","content":"好，把三句话来说一说。"},
+{"type":"发起","content":"我再问乌鸦对猴子说的最后一句话是什么。"},
+{"type":"发起","content":"好，喜鹊对猴子说的最后一句话。"},
+{"type":"发起","content":"杜鹃对猴子说的最后一句话。"},
+{"type":"发起","content":"三句话意思一样吗？"},
+{"type":"讲解","content":"对，一样。但是为什么这里他的说法不一样？"},
+{"type":"发起","content":"你有这么耐心吗？你能等得及吗？你不着急吗？"},
+{"type":"讲解","content":"都在说猴子怎么样。都在说猴子怎么样。都在说猴子会着急，没耐心，等不及。"},
+{"type":"发起","content":"是不是啊？"},
+{"type":"讲解","content":"这个猴子越来越着急，是的啊。在这里他有三个不同的想法。"},
+{"type":"评价","content":"很好，你说还有什么？"},
+{"type":"评价","content":"啊，很好。他说出一个特点来。"},
+{"type":"发起","content":"这三句为什么不一样？"},
+{"type":"讲解","content":"如果三句都一样就没意思了。读起来是不是这样子？让这个故事更丰富。"},
+{"type":"讲解","content":"很好。同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
+{"type":"发起","content":"好，你说，你有什么补充？"},
+{"type":"评价","content":"好，谢谢你的发现。"},
+{"type":"发起","content":"你来说，正当他们成活的时候，是不是？"},
+{"type":"评价","content":"好，非常好。"},
+{"type":"发起","content":"来，孩子们，这三段话居然找到相似之处。"},
+{"type":"发起","content":"哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
+{"type":"讲解","content":"是的。"},
+{"type":"发起","content":"好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。"},
+{"type":"发起","content":"把他的这段话自己在下面练讲。"},
+{"type":"发起","content":"等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
+{"type":"发起","content":"好的啊，自己练好了，是不是？"},
+{"type":"发起","content":"那可以讲给你的同桌好朋友听啊。"},
+{"type":"发起","content":"哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "好，把三句话来说一说。"},
+  {"type": "发起", "content": "我再问乌鸦对猴子说的最后一句话是什么。"},
+  {"type": "发起", "content": "好，喜鹊对猴子说的最后一句话。"},
+  {"type": "发起", "content": "杜鹃对猴子说的最后一句话。"},
+  {"type": "发起", "content": "三句话意思一样吗？"},
+  {"type": "评价", "content": "对，一样。"},
+  {"type": "讲解", "content": "但是为什么这里他的说法不一样？"},
+  {"type": "发起", "content": "你有这么耐心吗？"},
+  {"type": "发起", "content": "你能等得及吗？"},
+  {"type": "发起", "content": "你不着急吗？"},
+  {"type": "讲解", "content": "都在说猴子怎么样。"},
+  {"type": "讲解", "content": "都在说猴子会着急，没耐心，等不及。是不是啊？"},
+  {"type": "讲解", "content": "这个猴子越来越着急，是的啊。"},
+  {"type": "讲解", "content": "在这里他有三个不同的想法。"},
+  {"type": "发起", "content": "很好，你说还有什么？"},
+  {"type": "评价", "content": "啊，很好。"},
+  {"type": "讲解", "content": "他说出一个特点来。"},
+  {"type": "发起", "content": "这三句为什么不一样？"},
+  {"type": "讲解", "content": "如果三句都一样就没意思了。"},
+  {"type": "讲解", "content": "读起来是不是这样子？让这个故事更丰富。"},
+  {"type": "评价", "content": "很好。"},
+  {"type": "讲解", "content": "同样的意思可以用不同的句子来表达。这就是我们中国语言的神秘之处啊。我们中国语言文字的奥秘所在。"},
+  {"type": "发起", "content": "好，你说，你有什么补充？"},
+  {"type": "发起", "content": "好，谢谢你的发现。"},
+  {"type": "发起", "content": "你来说，正当他们成活的时候，是不是？"},
+  {"type": "评价", "content": "好，非常好。"},
+  {"type": "发起", "content": "来，孩子们，这三段话居然找到相似之处。"},
+  {"type": "发起", "content": "哎，那我们讲这个故事的时候，是不是觉得很好讲？"},
+  {"type": "评价", "content": "是的。"},
+  {"type": "发起", "content": "好的，自己选一个角色。你可以选乌鸦，可以选喜鹊，也可以选杜鹃。把他的这段话自己在下面练讲。"},
+  {"type": "发起", "content": "等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家。"},
+  {"type": "发起", "content": "好的啊，自己练好了，是不是？"},
+  {"type": "发起", "content": "那可以讲给你的同桌好朋友听啊。"},
+  {"type": "发起", "content": "哎，如果你是讲乌鸦的话，你讲给同桌听。"}
+]
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">同桌如果讲喜趣的话呢， 那要反过来讲， 等一会下课再出去，啊， 是不是讲得差不多了，来小乌鸦来试试， 那等一会儿吧，我们毕竟有三十八个同学在等你们两个， 那太不好了啊， 那再给你一点时间啊，哎，你们很好尊重其它同学啊，好， 谁来试试，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话，好， 王子辰，这只乌鸦怎么样，好不好哦， 好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦，如果我们是猴哥的话，肯定是怎么样， 要听他的话非常好啊，下课方老师要给你敲个章，别忘了啊， 好，哪只小乌鸦再来试试，还可以加动作啊， 对嘛吧，这种动作加上就更好了啊， 因为讲故事嘛，不要一本正经， 是不是可以表演一些动作表情行都可以出来啊，好，你来试试，我们在讲乌鸦， 好的，等一儿请你好不好，好， 你这样吧，你上来吧， 好不好，我上来讲好不好，来掌声鼓励一起，哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊， 来，给他鼓励一点，有没有给他好的建议，不要一直飞， 是不是啊，可以怎么样，可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果，你有这个耐心吗， 可以这种动作做出来好不好，哎呦，好样的啊，能不能更好一点了， </t>
   </si>
   <si>
     <t>同桌如果讲喜趣的话呢？那要反过来讲。等一会下课再出去，啊？是不是讲得差不多了？来，小乌鸦来试试。那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。哎，你们很好，尊重其它同学啊。好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。好，哪只小乌鸦再来试试？还可以加动作啊。对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。好，你来试试，我们在讲乌鸦。好的，等一会请你好不好？好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。来，给他鼓励一点，有没有给他好的建议？不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？哎呦，好样的啊，能不能更好一点了？</t>
   </si>
   <si>
-    <t xml:space="preserve">
-[{"type": "发起", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
-{"type": "其它", "content": "等一会下课再出去，啊？"},
-{"type": "发起", "content": "是不是讲得差不多了？来，小乌鸦来试试。"},
-{"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。"},
-{"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
-{"type": "发起", "content": "好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，"},
-{"type": "评价", "content": "这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。"},
-{"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
-{"type": "发起", "content": "还可以加动作啊。"},
-{"type": "评价", "content": "对嘛吧，这种动作加上就更好了啊。"},
-{"type": "讲解", "content": "因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
-{"type": "发起", "content": "好，你来试试，我们在讲乌鸦。好的，等一会请你好不好？"},
-{"type": "发起", "content": "好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。"},
-{"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
-{"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
-{"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
-{"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
-    ]</t>
-  </si>
-  <si>
-    <t>{
-    "result": [
-{"type": "发起", "content": "同桌如果讲喜趣的话呢？"},
-{"type": "发起", "content": "那要反过来讲。"},
-{"type": "其它", "content": "等一会下课再出去，啊？"},
-{"type": "发起", "content": "是不是讲得差不多了？来，小乌鸦来试试。"},
-{"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
-{"type": "发起", "content": "那再给你一点时间啊。"},
-{"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
-{"type": "发起", "content": "好，谁来试试？"},
-{"type": "发起", "content": "我们先请小乌鸦，好吧？"},
-{"type": "发起", "content": "谁是刚刚练了小乌鸦的话？"},
-{"type": "发起", "content": "好，王子辰，这只乌鸦怎么样，好不好哦？"},
-{"type": "评价", "content": "好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
-{"type": "发起", "content": "如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。"},
-{"type": "其它", "content": "下课方老师要给你敲个章，别忘了啊。"},
-{"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
-{"type": "发起", "content": "还可以加动作啊。"},
-{"type": "评价", "content": "对嘛吧，这种动作加上就更好了啊。"},
-{"type": "讲解", "content": "因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
-{"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
-{"type": "其它", "content": "好的，等一会请你好不好？"},
-{"type": "发起", "content": "好，你这样吧，你上来吧，好不好？"},
-{"type": "发起", "content": "我上来讲好不好？来，掌声鼓励一起。"},
-{"type": "其它", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
-{"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
-{"type": "发起", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。"},
-{"type": "讲解", "content": "比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
-{"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
-    ]
-}</t>
+    <t>[
+    {"type": "发起", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
+    {"type": "其它", "content": "等一会下课再出去，啊？"},
+    {"type": "发起", "content": "是不是讲得差不多了？来，小乌鸦来试试。"},
+    {"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。那再给你一点时间啊。"},
+    {"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
+    {"type": "发起", "content": "好，谁来试试？我们先请小乌鸦，好吧？谁是刚刚练了小乌鸦的话？好，王子辰，"},
+    {"type": "评价", "content": "这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。"},
+    {"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
+    {"type": "发起", "content": "还可以加动作啊。"},
+    {"type": "评价", "content": "对嘛吧，这种动作加上就更好了啊。"},
+    {"type": "讲解", "content": "因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+    {"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
+    {"type": "其它", "content": "好的，等一会请你好不好？"},
+    {"type": "发起", "content": "好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。"},
+    {"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+    {"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
+    {"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
+    {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "result": [
+    {"type": "发起", "content": "同桌如果讲喜趣的话呢？"},
+    {"type": "发起", "content": "那要反过来讲。"},
+    {"type": "其它", "content": "等一会下课再出去，啊？"},
+    {"type": "发起", "content": "是不是讲得差不多了？"},
+    {"type": "发起", "content": "来，小乌鸦来试试。"},
+    {"type": "讲解", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
+    {"type": "发起", "content": "那再给你一点时间啊。"},
+    {"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
+    {"type": "发起", "content": "好，谁来试试？"},
+    {"type": "发起", "content": "我们先请小乌鸦，好吧？"},
+    {"type": "发起", "content": "谁是刚刚练了小乌鸦的话？"},
+    {"type": "发起", "content": "好，王子辰，这只乌鸦怎么样，好不好哦？"},
+    {"type": "评价", "content": "好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
+    {"type": "发起", "content": "如果我们是猴哥的话，肯定是怎么样？"},
+    {"type": "评价", "content": "要听他的话，非常好啊。"},
+    {"type": "其它", "content": "下课方老师要给你敲个章，别忘了啊。"},
+    {"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
+    {"type": "其它", "content": "还可以加动作啊。"},
+    {"type": "讲解", "content": "对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+    {"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
+    {"type": "其它", "content": "好的，等一会请你好不好？"},
+    {"type": "发起", "content": "好，你这样吧，你上来吧，好不好？"},
+    {"type": "发起", "content": "我上来讲好不好？"},
+    {"type": "发起", "content": "来，掌声鼓励一起。"},
+    {"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+    {"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
+    {"type": "发起", "content": "不要一直飞，是不是啊？"},
+    {"type": "发起", "content": "可以怎么样？"},
+    {"type": "讲解", "content": "可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？"},
+    {"type": "讲解", "content": "可以这种动作做出来，好不好？"},
+    {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
+  ]
+}
+</t>
   </si>
   <si>
     <t>[
@@ -978,139 +1316,146 @@
   </si>
   <si>
     <t>[
-  {"type":"发起","content":"同桌如果讲喜趣的话呢？那要反过来讲。"},
+  {"type":"讲解","content":"同桌如果讲喜趣的话呢？那要反过来讲。"},
   {"type":"其它","content":"等一会下课再出去，啊？"},
   {"type":"发起","content":"是不是讲得差不多了？来，小乌鸦来试试。"},
   {"type":"其它","content":"那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
-  {"type":"其它","content":"那再给你一点时间啊。"},
+  {"type":"发起","content":"那再给你一点时间啊。"},
   {"type":"评价","content":"哎，你们很好，尊重其它同学啊。"},
   {"type":"发起","content":"好，谁来试试？我们先请小乌鸦，好吧？"},
   {"type":"发起","content":"谁是刚刚练了小乌鸦的话？"},
   {"type":"发起","content":"好，王子辰，这只乌鸦怎么样，好不好哦？"},
   {"type":"评价","content":"好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
-  {"type":"发起","content":"如果我们是猴哥的话，肯定是怎么样？"},
-  {"type":"评价","content":"要听他的话，非常好啊。"},
+  {"type":"讲解","content":"如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。"},
   {"type":"其它","content":"下课方老师要给你敲个章，别忘了啊。"},
   {"type":"发起","content":"好，哪只小乌鸦再来试试？"},
-  {"type":"其它","content":"还可以加动作啊。"},
-  {"type":"其它","content":"对嘛吧，这种动作加上就更好了啊。"},
-  {"type":"其它","content":"因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+  {"type":"讲解","content":"还可以加动作啊。"},
+  {"type":"讲解","content":"对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
   {"type":"发起","content":"好，你来试试，我们在讲乌鸦。"},
   {"type":"其它","content":"好的，等一会请你好不好？"},
-  {"type":"其它","content":"好，你这样吧，你上来吧，好不好？"},
+  {"type":"发起","content":"好，你这样吧，你上来吧，好不好？"},
   {"type":"其它","content":"我上来讲好不好？"},
-  {"type":"其它","content":"来，掌声鼓励一起。"},
-  {"type":"其它","content":"哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+  {"type":"发起","content":"来，掌声鼓励一起。"},
+  {"type":"评价","content":"哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
   {"type":"发起","content":"来，给他鼓励一点，有没有给他好的建议？"},
-  {"type":"其它","content":"不要一直飞，是不是啊？"},
-  {"type":"发起","content":"可以怎么样？"},
+  {"type":"讲解","content":"不要一直飞，是不是啊？可以怎么样？"},
   {"type":"讲解","content":"可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。"},
-  {"type":"发起","content":"你有这个耐心吗？"},
-  {"type":"其它","content":"可以这种动作做出来，好不好？"},
-  {"type":"评价","content":"哎呦，好样的啊，"},
-  {"type":"发起","content":"能不能更好一点了？"}
+  {"type":"发起","content":"你有这个耐心吗？可以这种动作做出来，好不好？"},
+  {"type":"评价","content":"哎呦，好样的啊，能不能更好一点了？"}
 ]</t>
   </si>
   <si>
+    <t>[
+  {"type": "讲解", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
+  {"type": "其它", "content": "等一会下课再出去，啊？是不是讲得差不多了？"},
+  {"type": "发起", "content": "来，小乌鸦来试试。"},
+  {"type": "其它", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
+  {"type": "其它", "content": "那再给你一点时间啊。"},
+  {"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
+  {"type": "发起", "content": "好，谁来试试？我们先请小乌鸦，好吧？"},
+  {"type": "发起", "content": "谁是刚刚练了小乌鸦的话？"},
+  {"type": "评价", "content": "好，王子辰，这只乌鸦怎么样，好不好哦？"},
+  {"type": "评价", "content": "好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
+  {"type": "讲解", "content": "如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。"},
+  {"type": "其它", "content": "下课方老师要给你敲个章，别忘了啊。"},
+  {"type": "发起", "content": "好，哪只小乌鸦再来试试？"},
+  {"type": "讲解", "content": "还可以加动作啊。"},
+  {"type": "讲解", "content": "对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+  {"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
+  {"type": "其它", "content": "好的，等一会请你好不好？"},
+  {"type": "发起", "content": "好，你这样吧，你上来吧，好不好？"},
+  {"type": "其它", "content": "我上来讲好不好？"},
+  {"type": "其它", "content": "来，掌声鼓励一起。"},
+  {"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。"},
+  {"type": "发起", "content": "来，给他鼓励一点，有没有给他好的建议？"},
+  {"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？"},
+  {"type": "讲解", "content": "可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。"},
+  {"type": "发起", "content": "你有这个耐心吗？可以这种动作做出来，好不好？"},
+  {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
+  {"type": "发起", "content": "等一会下课再出去，啊？是不是讲得差不多了？"},
+  {"type": "发起", "content": "来，小乌鸦来试试。"},
+  {"type": "发起", "content": "那等一会儿吧，我们毕竟有三十八个同学在等你们两个，那太不好了啊。"},
+  {"type": "发起", "content": "那再给你一点时间啊。"},
+  {"type": "评价", "content": "哎，你们很好，尊重其它同学啊。"},
+  {"type": "发起", "content": "好，谁来试试？我们先请小乌鸦，好吧？"},
+  {"type": "发起", "content": "谁是刚刚练了小乌鸦的话？"},
+  {"type": "评价", "content": "好，王子辰，这只乌鸦怎么样，好不好哦？好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦。"},
+  {"type": "讲解", "content": "如果我们是猴哥的话，肯定是怎么样？要听他的话，非常好啊。下课方老师要给你敲个章，别忘了啊。"},
+  {"type": "发起", "content": "好，哪只小乌鸦再来试试？还可以加动作啊。"},
+  {"type": "讲解", "content": "对嘛吧，这种动作加上就更好了啊。因为讲故事嘛，不要一本正经，是不是？可以表演一些动作，表情行都可以出来啊。"},
+  {"type": "发起", "content": "好，你来试试，我们在讲乌鸦。"},
+  {"type": "发起", "content": "好的，等一会请你好不好？"},
+  {"type": "发起", "content": "好，你这样吧，你上来吧，好不好？我上来讲好不好？来，掌声鼓励一起。"},
+  {"type": "评价", "content": "哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊。来，给他鼓励一点，有没有给他好的建议？"},
+  {"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
+  {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
+]
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">能够把故事讲用一个，第二个能加上动作，来来第三个能不能表演的更好，哎， 加上表情啊，你来试试， 你是读乌鸦的话是吗，来上来小乌鸦，有请小乌鸦， 嗯，很好，表演的非常不错，三只小乌鸭都非常棒，你们三个小朋友都可以参加，好，接下来请演喜鹊的小朋友，谁来讲讲喜鹊的话，好，恭请， 啊，下面的小听众也要注意了啊人家上面表演的，那么认真，那你下面也要尊重这些小演员啊， 咦这个动作啊非常可爱啊，好的， 哎，如果这个再讲的通顺一点就更好了，是不是， 我来找下面讲话的小朋友，这样不好，哎， 哪怕他做的不好，你也不可以在下面窃窃私语， 这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字， 现在都没关系，那我请你来，你还不如她呢，不能在下面讲啊，来，我要表扬，能够举手，勇敢上台表扬的小朋友啊，好，开始， 好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊，那正当杏树，我们在讲喜鹊，我们现在讲喜鹊， 那你刚刚准备的是哪只，好，等会演杜鹃的时候，我再请你来，我再请刚刚在下面做小动作的同学，脸抬起来，你不想看来你来，隔壁脸，一点都不难为情，现在在录课，你不懂难为情的， 你来讲喜鹊的话，你刚准备了谁的，  </t>
   </si>
   <si>
     <t>能够把故事讲用一个。第二个能加上动作。来来，第三个能不能表演得更好？哎，加上表情啊。你来试试。你是读乌鸦的话是吗？来，上来小乌鸦。有请小乌鸦。嗯，很好，表演得非常不错。三只小乌鸦都非常棒。你们三个小朋友都可以参加。好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。好，开始。好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来。我再请刚刚在下面做小动作的同学，脸抬起来。你不想来？那你来。隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？你来讲喜鹊的话。你刚准备了谁的？</t>
   </si>
   <si>
-    <t xml:space="preserve">[
-{
-"type": "讲解",
-"content": "能够把故事讲得用一个。第二个能加上动作。"
-},
-{
-"type": "发起",
-"content": "来来，第三个能不能表演得更好？哎，加上表情啊。你来试试。"
-},
-{
+    <t>[
+    {"type": "发起", "content": "能够把故事讲得用一个。第二个能加上动作。来来，第三个能不能表演得更好？"},
+    {"type": "发起", "content": "哎，加上表情啊。你来试试。"},
+    {"type": "发起", "content": "你是读乌鸦的话是吗？"},
+    {"type": "发起", "content": "来，上来小乌鸦。有请小乌鸦。"},
+    {"type": "评价", "content": "嗯，很好，表演得非常不错。三只小乌鸦都非常棒。"},
+    {"type": "其它", "content": "你们三个小朋友都可以参加。"},
+    {"type": "发起", "content": "好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。"},
+    {"type": "评价", "content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
+    {"type": "评价", "content": "咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？"},
+    {"type": "评价", "content": "我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬,能够举手,勇敢上台表扬的小朋友啊."},
+    {"type": "发起", "content": "好,开始."},
+    {"type": "发起", "content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，。"},
+    {"type": "发起", "content": "我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来"},
+    {"type": "其它", "content": "好，等会儿演杜鹃的时候，我再请你来"},
+    {"type": "评价", "content": "我再请刚刚在下面做小动作的同学，脸抬起来。"},
+    {"type": "发起", "content": "你不想来？那你来。"},
+    {"type": "评价", "content": "隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？"},
+    {"type": "发起", "content": "你来讲喜鹊的话。你刚准备了谁的？"}
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "result": [
+    {
+"type": "发起",
+"content": "能够把故事讲用一个。"
+    },
+    {
+"type": "讲解",
+"content": "第二个能加上动作。"
+    },
+    {
+"type": "发起",
+"content": "来来，第三个能不能表演得更好？"
+    },
+    {
+"type": "其它",
+"content": "哎，加上表情啊。"
+    },
+    {
+"type": "发起",
+"content": "你来试试。"
+    },
+    {
 "type": "发起",
 "content": "你是读乌鸦的话是吗？"
-},
-{
-"type": "发起",
-"content": "来，上来小乌鸦。有请小乌鸦。"
-},
-{
-"type": "评价",
-"content": "嗯，很好，表演得非常不错。三只小乌鸦都非常棒。"
-},
-{
-"type": "其它",
-"content": "你们三个小朋友都可以参加。"
-},
-{
-"type": "发起",
-"content": "好，接下来请演喜鹊的小朋友。谁来讲讲喜鹊的话？好，恭请。"
-},
-{
-"type": "评价",
-"content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"
-},
-{
-"type": "评价",
-"content": "咦，这个动作啊，非常可爱啊。好的。哎，如果这个再讲得通顺一点就更好了，是不是？"
-},
-{
-"type": "评价",
-"content": "我来找下面讲话的小朋友，这样不好。哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。那我请你来，你还不如她呢，不能在下面讲啊。来，我要表扬,能够举手,勇敢上台表扬的小朋友啊."
-},
-{
-"type": "发起",
-"content": "好,开始."
-},
-{
-"type": "发起",
-"content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。那正当杏树，。"
-},
-{
-"type": "发起",
-"content": "我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？好，等会儿演杜鹃的时候，我再请你来"
-},
-{
-"type": "其它",
-"content": "好，等会儿演杜鹃的时候，我再请你来"
-},
-{
-"type": "评价",
-"content": "我再请刚刚在下面做小动作的同学，脸抬起来。你不想来？那你来。隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？"
-},
-{
-"type": "发起",
-"content": "你来讲喜鹊的话。你刚准备了谁的？"
-}]
-</t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {
-"type": "发起",
-"content": "能够把故事讲用一个。"
-    },
-    {
-"type": "发起",
-"content": "第二个能加上动作。"
-    },
-    {
-"type": "发起",
-"content": "来来，第三个能不能表演得更好？"
-    },
-    {
-"type": "发起",
-"content": "哎，加上表情啊。"
-    },
-    {
-"type": "发起",
-"content": "你来试试。"
-    },
-    {
-"type": "发起",
-"content": "你是读乌鸦的话是吗？来，上来小乌鸦。"
+    },
+    {
+"type": "发起",
+"content": "来，上来小乌鸦。"
     },
     {
 "type": "发起",
@@ -1122,7 +1467,11 @@
     },
     {
 "type": "评价",
-"content": "三只小乌鸦都非常棒。你们三个小朋友都可以参加。"
+"content": "三只小乌鸦都非常棒。"
+    },
+    {
+"type": "讲解",
+"content": "你们三个小朋友都可以参加。"
     },
     {
 "type": "发起",
@@ -1133,7 +1482,7 @@
 "content": "谁来讲讲喜鹊的话？"
     },
     {
-"type": "发起",
+"type": "其它",
 "content": "好，恭请。"
     },
     {
@@ -1145,11 +1494,11 @@
 "content": "咦，这个动作啊，非常可爱啊。"
     },
     {
-"type": "其它",
+"type": "评价",
 "content": "好的。"
     },
     {
-"type": "评价",
+"type": "讲解",
 "content": "哎，如果这个再讲得通顺一点就更好了，是不是？"
     },
     {
@@ -1157,27 +1506,27 @@
 "content": "我来找下面讲话的小朋友，这样不好。"
     },
     {
+"type": "其它",
+"content": "哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。"
+    },
+    {
+"type": "讲解",
+"content": "你最起码得耐心地听别人讲完。"
+    },
+    {
+"type": "讲解",
+"content": "他读错一个字或者漏掉一个字，现在都没关系。"
+    },
+    {
 "type": "评价",
-"content": "哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。"
+"content": "那我请你来，你还不如她呢，不能在下面讲啊。"
     },
     {
 "type": "评价",
-"content": "他读错一个字或者漏掉一个字，现在都没关系。"
+"content": "来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。好，开始。"
     },
     {
 "type": "其它",
-"content": "那我请你来，你还不如她呢，不能在下面讲啊。"
-    },
-    {
-"type": "讲解",
-"content": "来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"
-    },
-    {
-"type": "发起",
-"content": "好，开始。"
-    },
-    {
-"type": "发起",
 "content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"
     },
     {
@@ -1198,11 +1547,15 @@
     },
     {
 "type": "发起",
-"content": "你不想来？那你来。"
-    },
-    {
-"type": "评价",
-"content": "隔壁脸，一点都不难为情。现在在录课，你不懂难为情的？"
+"content": "你不想来？ 那你来。"
+    },
+    {
+"type": "其它",
+"content": "隔壁脸，一点都不难为情。"
+    },
+    {
+"type": "其它",
+"content": "现在在录课，你不懂难为情的？"
     },
     {
 "type": "发起",
@@ -1213,7 +1566,8 @@
 "content": "你刚准备了谁的？"
     }
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[{"type":"讲解","content":"能够把故事讲用一个。第二个能加上动作。"},
@@ -1241,7 +1595,7 @@
   {"type":"发起","content":"能够把故事讲用一个。"},
   {"type":"发起","content":"第二个能加上动作。"},
   {"type":"发起","content":"来来，第三个能不能表演得更好？"},
-  {"type":"发起","content":"哎，加上表情啊。"},
+  {"type":"其它","content":"哎，加上表情啊。"},
   {"type":"发起","content":"你来试试。"},
   {"type":"发起","content":"你是读乌鸦的话是吗？"},
   {"type":"发起","content":"来，上来小乌鸦。"},
@@ -1254,17 +1608,17 @@
   {"type":"发起","content":"好，恭请。"},
   {"type":"其它","content":"啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
   {"type":"其它","content":"咦，这个动作啊，非常可爱啊。"},
-  {"type":"其它","content":"好的。"},
+  {"type":"评价","content":"好的。"},
   {"type":"评价","content":"哎，如果这个再讲得通顺一点就更好了，是不是？"},
   {"type":"其它","content":"我来找下面讲话的小朋友，这样不好。"},
   {"type":"其它","content":"哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。"},
   {"type":"其它","content":"你最起码得耐心地听别人讲完。"},
   {"type":"其它","content":"他读错一个字或者漏掉一个字，现在都没关系。"},
   {"type":"发起","content":"那我请你来，你还不如她呢，不能在下面讲啊。"},
-  {"type":"其它","content":"来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"},
+  {"type":"发起","content":"来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"},
   {"type":"发起","content":"好，开始。"},
   {"type":"发起","content":"好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"},
-  {"type":"其它","content":"那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"},
+  {"type":"讲解","content":"那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"},
   {"type":"发起","content":"那你刚刚准备的是哪只？"},
   {"type":"发起","content":"好，等会儿演杜鹃的时候，我再请你来。"},
   {"type":"其它","content":"我再请刚刚在下面做小动作的同学，脸抬起来。"},
@@ -1276,6 +1630,70 @@
 ]</t>
   </si>
   <si>
+    <t>[
+  {"type": "发起", "content": "能够把故事讲用一个。第二个能加上动作。来来，第三个能不能表演得更好？"},
+  {"type": "发起", "content": "哎，加上表情啊。你来试试。"},
+  {"type": "发起", "content": "你是读乌鸦的话是吗？来，上来小乌鸦。有请小乌鸦。"},
+  {"type": "评价", "content": "嗯，很好，表演得非常不错。"},
+  {"type": "评价", "content": "三只小乌鸦都非常棒。"},
+  {"type": "发起", "content": "你们三个小朋友都可以参加。好，接下来请演喜鹊的小朋友。"},
+  {"type": "发起", "content": "谁来讲讲喜鹊的话？好，恭请。"},
+  {"type": "其它", "content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
+  {"type": "其它", "content": "咦，这个动作啊，非常可爱啊。"},
+  {"type": "评价", "content": "好的。"},
+  {"type": "讲解", "content": "哎，如果这个再讲得通顺一点就更好了，是不是？"},
+  {"type": "其它", "content": "我来找下面讲话的小朋友，这样不好。"},
+  {"type": "其它", "content": "哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。"},
+  {"type": "其它", "content": "你最起码得耐心地听别人讲完。"},
+  {"type": "其它", "content": "他读错一个字或者漏掉一个字，现在都没关系。"},
+  {"type": "其它", "content": "那我请你来，你还不如她呢，不能在下面讲啊。"},
+  {"type": "发起", "content": "来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"},
+  {"type": "发起", "content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"},
+  {"type": "讲解", "content": "那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。"},
+  {"type": "发起", "content": "那你刚刚准备的是哪只？"},
+  {"type": "发起", "content": "好，等会儿演杜鹃的时候，我再请你来。"},
+  {"type": "发起", "content": "我再请刚刚在下面做小动作的同学，脸抬起来。"},
+  {"type": "发起", "content": "你不想来？那你来。"},
+  {"type": "其它", "content": "隔壁脸，一点都不难为情。"},
+  {"type": "其它", "content": "现在在录课，你不懂难为情的？"},
+  {"type": "发起", "content": "你来讲喜鹊的话。"},
+  {"type": "发起", "content": "你刚准备了谁的？"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "能够把故事讲用一个。第二个能加上动作。来来，第三个能不能表演得更好？哎，加上表情啊。"},
+  {"type": "发起", "content": "你来试试。"},
+  {"type": "发起", "content": "你是读乌鸦的话是吗？"},
+  {"type": "发起", "content": "来，上来小乌鸦。有请小乌鸦。"},
+  {"type": "评价", "content": "嗯，很好，表演得非常不错。"},
+  {"type": "评价", "content": "三只小乌鸦都非常棒。"},
+  {"type": "发起", "content": "你们三个小朋友都可以参加。"},
+  {"type": "发起", "content": "好，接下来请演喜鹊的小朋友。"},
+  {"type": "发起", "content": "谁来讲讲喜鹊的话？"},
+  {"type": "发起", "content": "好，恭请。"},
+  {"type": "其它", "content": "啊，下面的小听众也要注意了啊，人家上面表演得那么认真，那你下面也要尊重这些小演员啊。"},
+  {"type": "评价", "content": "咦，这个动作啊，非常可爱啊。"},
+  {"type": "发起", "content": "哎，如果这个再讲得通顺一点就更好了，是不是？"},
+  {"type": "发起", "content": "我来找下面讲话的小朋友，这样不好。"},
+  {"type": "讲解", "content": "哎，哪怕他做得不好，你也不可以在下面窃窃私语，这是对别人的尊重。你最起码得耐心地听别人讲完。他读错一个字或者漏掉一个字，现在都没关系。"},
+  {"type": "发起", "content": "那我请你来，你还不如她呢，不能在下面讲啊。"},
+  {"type": "发起", "content": "来，我要表扬，能够举手，勇敢上台表扬的小朋友啊。"},
+  {"type": "发起", "content": "好，开始。"},
+  {"type": "发起", "content": "好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊。"},
+  {"type": "讲解", "content": "那正当杏树，我们在讲喜鹊，我们现在讲喜鹊。那你刚刚准备的是哪只？"},
+  {"type": "发起", "content": "好，等会儿演杜鹃的时候，我再请你来。"},
+  {"type": "发起", "content": "我再请刚刚在下面做小动作的同学，脸抬起来。"},
+  {"type": "发起", "content": "你不想来？那你来。"},
+  {"type": "其它", "content": "隔壁脸，一点都不难为情。"},
+  {"type": "其它", "content": "现在在录课，你不懂难为情的？"},
+  {"type": "发起", "content": "你来讲喜鹊的话。"},
+  {"type": "发起", "content": "你刚准备了谁的？"}
+]
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">不行，你按照老师的要求去做， 请坐，要批评， 你等会儿三十秒的话都到我这来，一定要积极思考， 不是自己坐在那里， 想不读就不读，还有也不是在那里随便想讲话就讲话，你坐端正， 坐好，快点坐下来，对，没有举手的我也要请，上课，就要积极开动脑筋，像上次开汇总课一样， 每个同学都认真举手，好，往下面来你是读喜鹊的话啊，喜鹊来啊，喜鹊小喜鹊停来上来来表演啊，忘记了，可以稍微看一下啊，杏四桃三，请坐啊，虽然她讲的不流畅啊，但是他确实是勇敢的上台，而且他刚刚坐在下面是认真听的啊，最起码比下面不敢举手的小朋友要勇敢，这一点我就要鼓励，你是喜鹊来， 再请只喜鹊，喜鹊没有刚刚乌鸦讲的好， 对我要请只非常棒的小喜鹊，嗯，哎掌声鼓励，但是讲小故事的小朋友不是背书可以加上动作，像刚刚几只小乌鸦就扮演的非常好啊，好， 接下来请来演小杜鹃，好的，你来， 嗯，我的书在上面， 你实在忘记了，可以看一下提示啊，你有这个耐心吗，你前面用过了，前面乌鸦已经说过了，请坐好掌声鼓励一下， 小杜鹃有点严肃啊，好啦，这小杜鹃可爱一点， 活泼一点，猴哥猴哥，着急一点好不好，来谁再来演一演，你来罗若涵， 结果你有这么大耐心吗，你有这个耐心，谁说过了啊， </t>
   </si>
   <si>
@@ -1339,39 +1757,91 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {
 "type": "其它",
-"content": "不行，你按照老师的要求去做。请坐。"
+"content": "不行，"
+    },
+    {
+"type": "讲解",
+"content": "你按照老师的要求去做。"
+    },
+    {
+"type": "其它",
+"content": "请坐。"
     },
     {
 "type": "评价",
-"content": "要批评。你等会儿三十秒的话都到我这来。"
-    },
-    {
-"type": "发起",
-"content": "一定要积极思考，不是自己坐在那里。"
+"content": "要批评。"
+    },
+    {
+"type": "讲解",
+"content": "你等会儿三十秒的话都到我这来。"
+    },
+    {
+"type": "讲解",
+"content": "一定要积极思考，"
+    },
+    {
+"type": "讲解",
+"content": "不是自己坐在那里。"
+    },
+    {
+"type": "讲解",
+"content": "想不读就不读。"
+    },
+    {
+"type": "讲解",
+"content": "还有，"
+    },
+    {
+"type": "讲解",
+"content": "也不是在那里随便想讲话就讲话。"
     },
     {
 "type": "其它",
-"content": "想不读就不读。还有，也不是在那里随便想讲话就讲话。"
+"content": "你坐端正，"
     },
     {
 "type": "其它",
-"content": "你坐端正，坐好，快点坐下来。"
-    },
-    {
-"type": "发起",
-"content": "对，没有举手的我也要请。上课，就要积极开动脑筋。"
+"content": "坐好，"
     },
     {
 "type": "其它",
-"content": "像上次开汇总课一样。每个同学都认真举手。"
-    },
-    {
-"type": "发起",
-"content": "好，往下面来。你是读喜鹊的话啊。"
+"content": "快点坐下来。"
+    },
+    {
+"type": "发起",
+"content": "对，"
+    },
+    {
+"type": "发起",
+"content": "没有举手的我也要请。"
+    },
+    {
+"type": "其它",
+"content": "上课，"
+    },
+    {
+"type": "讲解",
+"content": "就要积极开动脑筋。"
+    },
+    {
+"type": "讲解",
+"content": "像上次开汇总课一样。"
+    },
+    {
+"type": "讲解",
+"content": "每个同学都认真举手。"
+    },
+    {
+"type": "发起",
+"content": "好，往下面来。"
+    },
+    {
+"type": "发起",
+"content": "你是读喜鹊的话啊。"
     },
     {
 "type": "发起",
@@ -1382,12 +1852,32 @@
 "content": "忘记了，可以稍微看一下啊。"
     },
     {
+"type": "讲解",
+"content": "杏四桃三。"
+    },
+    {
 "type": "其它",
-"content": "杏四桃三。请坐啊。"
+"content": "请坐啊。"
     },
     {
 "type": "评价",
-"content": "虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"
+"content": "虽然她讲的不流畅啊，"
+    },
+    {
+"type": "讲解",
+"content": "但是他确实是勇敢的上台。"
+    },
+    {
+"type": "讲解",
+"content": "而且他刚刚坐在下面是认真听的啊。"
+    },
+    {
+"type": "讲解",
+"content": "最起码比下面不敢举手的小朋友要勇敢。"
+    },
+    {
+"type": "评价",
+"content": "这一点我就要鼓励。"
     },
     {
 "type": "发起",
@@ -1395,19 +1885,27 @@
     },
     {
 "type": "发起",
-"content": "再请只喜鹊。喜鹊没有刚刚乌鸦讲的好。"
+"content": "再请只喜鹊。"
+    },
+    {
+"type": "讲解",
+"content": "喜鹊没有刚刚乌鸦讲的好。"
     },
     {
 "type": "发起",
 "content": "对，我要请只非常棒的小喜鹊。"
     },
     {
-"type": "评价",
+"type": "讲解",
 "content": "嗯，哎，掌声鼓励。"
     },
     {
 "type": "讲解",
-"content": "但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"
+"content": "但是讲小故事的小朋友不是背书，可以加上动作。"
+    },
+    {
+"type": "讲解",
+"content": "像刚刚几只小乌鸦就扮演的非常好啊。"
     },
     {
 "type": "发起",
@@ -1418,35 +1916,64 @@
 "content": "好的，你来。"
     },
     {
+"type": "讲解",
+"content": "嗯，我的书在上面。"
+    },
+    {
+"type": "发起",
+"content": "你实在忘记了，可以看一下提示啊。"
+    },
+    {
+"type": "讲解",
+"content": "你有这个耐心吗？"
+    },
+    {
+"type": "讲解",
+"content": "你前面用过了，前面乌鸦已经说过了。"
+    },
+    {
 "type": "其它",
-"content": "嗯，我的书在上面。"
-    },
-    {
-"type": "发起",
-"content": "你实在忘记了，可以看一下提示啊。"
-    },
-    {
-"type": "评价",
-"content": "你有这个耐心吗？你前面用过了，前面乌鸦已经说过了。请坐好，掌声鼓励一下。"
-    },
-    {
-"type": "其它",
-"content": "小杜鹃有点严肃啊。好啦，这小杜鹃可爱一点，活泼一点。"
-    },
-    {
-"type": "发起",
-"content": "猴哥猴哥，着急一点好不好？来，谁再来演一演？"
+"content": "请坐好，"
+    },
+    {
+"type": "讲解",
+"content": "掌声鼓励一下。"
+    },
+    {
+"type": "讲解",
+"content": "小杜鹃有点严肃啊。"
+    },
+    {
+"type": "发起",
+"content": "好啦，这小杜鹃可爱一点，活泼一点。"
+    },
+    {
+"type": "发起",
+"content": "猴哥猴哥，着急一点好不好？"
+    },
+    {
+"type": "发起",
+"content": "来，谁再来演一演？"
     },
     {
 "type": "发起",
 "content": "你来罗若涵。"
     },
     {
-"type": "评价",
-"content": "结果你有这么大耐心吗？你有这个耐心，谁说过了啊。"
+"type": "讲解",
+"content": "结果你有这么大耐心吗？"
+    },
+    {
+"type": "讲解",
+"content": "你有这个耐心，"
+    },
+    {
+"type": "讲解",
+"content": "谁说过了啊。"
     }
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -1470,79 +1997,184 @@
   </si>
   <si>
     <t>[
-  {"type":"其它","content":"不行，你按照老师的要求去做。请坐。"},
-  {"type":"评价","content":"要批评。"},
-  {"type":"其它","content":"你等会儿三十秒的话都到我这来。一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。"},
-  {"type":"其它","content":"你坐端正，坐好，快点坐下来。"},
-  {"type":"发起","content":"对，没有举手的我也要请。上课，就要积极开动脑筋。像上次开汇总课一样。每个同学都认真举手。"},
-  {"type":"发起","content":"好，往下面来。你是读喜鹊的话啊。喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。"},
-  {"type":"其它","content":"忘记了，可以稍微看一下啊。杏四桃三。"},
-  {"type":"其它","content":"请坐啊。"},
-  {"type":"评价","content":"虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"},
-  {"type":"发起","content":"你是喜鹊来。"},
-  {"type":"发起","content":"再请只喜鹊。"},
-  {"type":"评价","content":"喜鹊没有刚刚乌鸦讲的好。"},
-  {"type":"发起","content":"对，我要请只非常棒的小喜鹊。"},
-  {"type":"其它","content":"嗯，哎，掌声鼓励。"},
-  {"type":"讲解","content":"但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"},
-  {"type":"发起","content":"好，接下来请来演小杜鹃。好的，你来。"},
-  {"type":"其它","content":"嗯，我的书在上面。你实在忘记了，可以看一下提示啊。"},
-  {"type":"发起","content":"你有这个耐心吗？"},
-  {"type":"其它","content":"你前面用过了，前面乌鸦已经说过了。"},
-  {"type":"其它","content":"请坐好，掌声鼓励一下。"},
-  {"type":"评价","content":"小杜鹃有点严肃啊。"},
-  {"type":"讲解","content":"好啦，这小杜鹃可爱一点，活泼一点。"},
-  {"type":"发起","content":"猴哥猴哥，着急一点好不好？"},
-  {"type":"发起","content":"来，谁再来演一演？"},
-  {"type":"发起","content":"你来罗若涵。"},
-  {"type":"发起","content":"结果你有这么大耐心吗？"},
-  {"type":"发起","content":"你有这个耐心，谁说过了啊。"}
+  {"type":"其它", "content":"不行，你按照老师的要求去做。请坐。要批评。你等会儿三十秒的话都到我这来。一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。你坐端正，坐好，快点坐下来。对，没有举手的我也要请。上课，就要积极开动脑筋。像上次开汇总课一样。每个同学都认真举手。"},
+  {"type":"发起", "content":"好，往下面来。你是读喜鹊的话啊。喜鹊来啊，喜鹊小喜鹊停下来表演啊。"},
+  {"type":"其它", "content":"忘记了，可以稍微看一下啊。杏四桃三。请坐啊。"},
+  {"type":"评价", "content":"虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"},
+  {"type":"发起", "content":"你是喜鹊来。再请只喜鹊。"},
+  {"type":"评价", "content":"喜鹊没有刚刚乌鸦讲的好。"},
+  {"type":"发起", "content":"对，我要请只非常棒的小喜鹊。"},
+  {"type":"其它", "content":"嗯，哎，掌声鼓励。但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"},
+  {"type":"发起", "content":"好，接下来请来演小杜鹃。好的，你来。"},
+  {"type":"发起", "content":"嗯，我的书在上面。你实在忘记了，可以看一下提示啊。"},
+  {"type":"发起", "content":"你有这个耐心吗？"},
+  {"type":"其它", "content":"你前面用过了，前面乌鸦已经说过了。请坐好，掌声鼓励一下。"},
+  {"type":"评价", "content":"小杜鹃有点严肃啊。好啦，这小杜鹃可爱一点，活泼一点。"},
+  {"type":"发起", "content":"猴哥猴哥，着急一点好不好？"},
+  {"type":"发起", "content":"来，谁再来演一演？"},
+  {"type":"发起", "content":"你来罗若涵。"},
+  {"type":"发起", "content":"结果你有这么大耐心吗？"},
+  {"type":"发起", "content":"你有这个耐心，谁说过了啊。"}
 ]</t>
   </si>
   <si>
+    <t xml:space="preserve">
+{"type":"评价","content":"不行，你按照老师的要求去做。要批评。"},
+{"type":"其它","content":"请坐。你等会儿三十秒的话都到我这来。"},
+{"type":"讲解","content":"一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。"},
+{"type":"发起","content":"你坐端正，坐好，快点坐下来。"},
+{"type":"发起","content":"对，没有举手的我也要请。上课，就要积极开动脑筋。像上次开汇总课一样。每个同学都认真举手。"},
+{"type":"发起","content":"好，往下面来。你是读喜鹊的话啊。喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。"},
+{"type":"其它","content":"忘记了，可以稍微看一下啊。杏四桃三。请坐啊。"},
+{"type":"评价","content":"虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。"},
+{"type":"讲解","content":"最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"},
+{"type":"发起","content":"你是喜鹊来。再请只喜鹊。"},
+{"type":"评价","content":"喜鹊没有刚刚乌鸦讲的好。"},
+{"type":"发起","content":"对，我要请只非常棒的小喜鹊。"},
+{"type":"其它","content":"嗯，哎，掌声鼓励。"},
+{"type":"讲解","content":"但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"},
+{"type":"发起","content":"好，接下来请来演小杜鹃。好的，你来。"},
+{"type":"其它","content":"嗯，我的书在上面。"},
+{"type":"发起","content":"你实在忘记了，可以看一下提示啊。"},
+{"type":"发起","content":"你有这个耐心吗？你前面用过了，前面乌鸦已经说过了。"},
+{"type":"其它","content":"请坐好，掌声鼓励一下。"},
+{"type":"评价","content":"小杜鹃有点严肃啊。"},
+{"type":"讲解","content":"好啦，这小杜鹃可爱一点，活泼一点。猴哥猴哥，着急一点好不好？"},
+{"type":"发起","content":"来，谁再来演一演？你来罗若涵。"},
+{"type":"发起","content":"结果你有这么大耐心吗？"},
+{"type":"发起","content":"你有这个耐心，谁说过了啊。"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "批评", "content": "不行，你按照老师的要求去做。"},
+  {"type": "其它", "content": "请坐。"},
+  {"type": "批评", "content": "要批评。"},
+  {"type": "发起", "content": "你等会儿三十秒的话都到我这来。"},
+  {"type": "讲解", "content": "一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。"},
+  {"type": "发起", "content": "你坐端正，坐好，快点坐下来。"},
+  {"type": "讲解", "content": "对，没有举手的我也要请。上课，就要积极开动脑筋。像上次开汇总课一样。每个同学都认真举手。"},
+  {"type": "发起", "content": "好，往下面来。你是读喜鹊的话啊。"},
+  {"type": "讲解", "content": "喜鹊来啊，喜鹊小喜鹊停来上来来表演啊。忘记了，可以稍微看一下啊。杏四桃三。"},
+  {"type": "其它", "content": "请坐啊。"},
+  {"type": "评价", "content": "虽然她讲的不流畅啊，但是他确实是勇敢的上台。而且他刚刚坐在下面是认真听的啊。最起码比下面不敢举手的小朋友要勇敢。这一点我就要鼓励。"},
+  {"type": "发起", "content": "你是喜鹊来。再请只喜鹊。"},
+  {"type": "评价", "content": "喜鹊没有刚刚乌鸦讲的好。对，我要请只非常棒的小喜鹊。"},
+  {"type": "其它", "content": "嗯，哎，掌声鼓励。"},
+  {"type": "讲解", "content": "但是讲小故事的小朋友不是背书，可以加上动作。像刚刚几只小乌鸦就扮演的非常好啊。"},
+  {"type": "发起", "content": "好，接下来请来演小杜鹃。好的，你来。"},
+  {"type": "讲解", "content": "嗯，我的书在上面。你实在忘记了，可以看一下提示啊。"},
+  {"type": "发起", "content": "你有这个耐心吗？"},
+  {"type": "评价", "content": "你前面用过了，前面乌鸦已经说过了。"},
+  {"type": "其它", "content": "请坐好，掌声鼓励一下。"},
+  {"type": "评价", "content": "小杜鹃有点严肃啊。好啦，这小杜鹃可爱一点，活泼一点。"},
+  {"type": "发起", "content": "猴哥猴哥，着急一点好不好？来，谁再来演一演？"},
+  {"type": "发起", "content": "你来罗若涵。结果你有这么大耐心吗？你有这个耐心，谁说过了啊。"}
+]
+```</t>
+  </si>
+  <si>
     <t xml:space="preserve">乌鸦说过了，咱们不重复， 你不着急吗？ 意思就是说你会着急的，是不是啊意思一样啊，好，很好，掌声鼓励， 听了三只鸟儿的话，猴子可有想法了，猴子是怎么想的，听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及，说明这只猴子越来越越来越没有耐心， 他越来越没有耐心了，是吧，现在呀我们拿起书本，把这个故事啊从头到尾再来背一背，用上，刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊，猴子种了一棵梨树苗，预备起猴子， 这些东西放下我们来看一下板书，猴子呀他一开始很勤劳啊，还是种了一棵梨树，可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了，正当杏树成成活的时候，喜鹊来劝他了，于是猴子又拔掉了，改种了桃树， 正当桃树成活的时候，杜鹃又来劝说它了，这时候猴子又拔掉了，改中了， 可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活到最后这只猴子什么树也没有成，对呀，这只猴子什么树也没有种成，除了它没耐，他还没什么， 你说，说的真好，还没有主见， 别人说什么他就听什么，没有自己的想法，是不是啊，到最后什么都没有啊， 那么这只小猴呢，也挺可怜的，你想对他说什么，  </t>
   </si>
   <si>
     <t>乌鸦说过了，咱们不重复。你不着急吗？意思就是说你会着急的，是不是啊？意思一样啊。好，很好，掌声鼓励。听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。猴子种了一棵梨树苗，预备起。猴子，这些东西放下，我们来看一下板书。猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？你说，说的真好。还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。那么这只小猴呢，也挺可怜的。你想对他说什么？</t>
   </si>
   <si>
-    <t xml:space="preserve">[
-{"type": "评价", "content": "乌鸦说过了，咱们不重复。"},
+    <t>[
+{"type": "其它", "content": "乌鸦说过了，咱们不重复。"},
 {"type": "讲解", "content": "你不着急吗？意思就是说你会着急的，是不是啊？意思一样啊。"},
 {"type": "评价", "content": "好，很好，掌声鼓励。"},
-{"type": "其它", "content": "听了三只鸟儿的话，猴子可有想法了。"},
-{"type": "发起", "content": "猴子是怎么想的？"},
+{"type": "讲解", "content": "听了三只鸟儿的话，猴子可有想法了。"},
+{"type": "讲解", "content": "猴子是怎么想的？"},
 {"type": "讲解", "content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
 {"type": "发起", "content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。猴子种了一棵梨树苗，预备起。"},
-{"type": "其它", "content": "猴子，这些东西放下，我们来看一下板书。"},
-{"type": "讲解", "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。对呀，这只猴子什么树也没有种成。"},
-{"type": "发起", "content": "除了它没耐心，它还没什么？你说，"},
+{"type": "发起", "content": "猴子，这些东西放下，我们来看一下板书。"},
+{"type": "讲解", "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"},
+{"type": "发起", "content": "对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？你说，"},
 {"type": "评价", "content": "说的真好。"},
 {"type": "讲解", "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"},
 {"type": "发起", "content": "那么这只小猴呢，也挺可怜的。你想对他说什么？"}
-]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "result": [
+    {
+"type": "讲解",
+"content": "乌鸦说过了，咱们不重复。"
+    },
+    {
+"type": "发起",
+"content": "你不着急吗？"
+    },
+    {
+"type": "讲解",
+"content": "意思就是说你会着急的，是不是啊？意思一样啊。"
+    },
+    {
+"type": "评价",
+"content": "好，很好，掌声鼓励。"
+    },
+    {
+"type": "讲解",
+"content": "听了三只鸟儿的话，猴子可有想法了。"
+    },
+    {
+"type": "发起",
+"content": "猴子是怎么想的？"
+    },
+    {
+"type": "讲解",
+"content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"
+    },
+    {
+"type": "发起",
+"content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。"
+    },
+    {
+"type": "发起",
+"content": "用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"
+    },
+    {
+"type": "发起",
+"content": "猴子种了一棵梨树苗，预备起。"
+    },
+    {
+"type": "其它",
+"content": "猴子，这些东西放下，我们来看一下板书。"
+    },
+    {
+"type": "讲解",
+"content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"
+    },
+    {
+"type": "讲解",
+"content": "对呀，这只猴子什么树也没有种成。"
+    },
+    {
+"type": "发起",
+"content": "除了它没耐心，它还没什么？"
+    },
+    {
+"type": "评价",
+"content": "你说，说的真好。"
+    },
+    {
+"type": "讲解",
+"content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"
+    },
+    {
+"type": "讲解",
+"content": "那么这只小猴呢，也挺可怜的。"
+    },
+    {
+"type": "发起",
+"content": "你想对他说什么？"
+    }
+  ]
+}
 </t>
-  </si>
-  <si>
-    <t>{
-  "result": [
-    {"type": "其它", "content": "乌鸦说过了，咱们不重复。"},
-    {"type": "发起", "content": "你不着急吗？"},
-    {"type": "讲解", "content": "意思就是说你会着急的，是不是啊？意思一样啊。"},
-    {"type": "评价", "content": "好，很好，掌声鼓励。"},
-    {"type": "讲解", "content": "听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？"},
-    {"type": "讲解", "content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
-    {"type": "发起", "content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
-    {"type": "讲解", "content": "猴子种了一棵梨树苗，预备起。"},
-    {"type": "讲解", "content": "猴子，这些东西放下，我们来看一下板书。"},
-    {"type": "讲解", "content": "猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。"},
-    {"type": "讲解", "content": "到最后这只猴子什么树也没有成。"},
-    {"type": "发起", "content": "对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？"},
-    {"type": "评价", "content": "你说，说的真好。"},
-    {"type": "讲解", "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。那么这只小猴呢，也挺可怜的。"},
-    {"type": "发起", "content": "你想对他说什么？"}
-  ]
-}</t>
   </si>
   <si>
     <t>[
@@ -1563,34 +2195,68 @@
   </si>
   <si>
     <t>[
-  {"type":"其它", "content":"乌鸦说过了，咱们不重复。"},
-  {"type":"发起", "content":"你不着急吗？意思就是说你会着急的，是不是啊？"},
-  {"type":"讲解", "content":"意思一样啊。"},
+  {"type":"其它", "content":"乌鸦说过了，咱们不重复。你不着急吗？意思就是说你会着急的，是不是啊？意思一样啊。"},
   {"type":"评价", "content":"好，很好，掌声鼓励。"},
-  {"type":"讲解", "content":"听了三只鸟儿的话，猴子可有想法了。"},
-  {"type":"发起", "content":"猴子是怎么想的？"},
-  {"type":"讲解", "content":"听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。"},
-  {"type":"讲解", "content":"说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
-  {"type":"发起", "content":"现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。"},
-  {"type":"讲解", "content":"用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
+  {"type":"讲解", "content":"听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
+  {"type":"发起", "content":"现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
   {"type":"发起", "content":"猴子种了一棵梨树苗，预备起。"},
-  {"type":"其它", "content":"猴子，这些东西放下，我们来看一下板书。"},
-  {"type":"讲解", "content":"猴子呀他一开始很勤劳啊，还是种了一棵梨树。"},
-  {"type":"讲解", "content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。"},
-  {"type":"讲解", "content":"正当杏树成活的时候，喜鹊来劝他了。"},
-  {"type":"讲解", "content":"于是猴子又拔掉了，改种了桃树。"},
-  {"type":"讲解", "content":"正当桃树成活的时候，杜鹃又来劝说它了。"},
-  {"type":"讲解", "content":"这时候猴子又拔掉了，改种了。"},
-  {"type":"讲解", "content":"可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。"},
-  {"type":"讲解", "content":"到最后这只猴子什么树也没有成。"},
-  {"type":"讲解", "content":"对呀，这只猴子什么树也没有种成。"},
-  {"type":"发起", "content":"除了它没耐心，它还没什么？"},
+  {"type":"其它", "content":"猴子，这些东西放下，我们来看一下板书。猴子呀他一开始很勤劳啊，还是种了一棵梨树。"},
+  {"讲解": "content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"},
+  {"type":"讲解", "content":"对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？"},
   {"type":"评价", "content":"你说，说的真好。"},
-  {"type":"讲解", "content":"还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？"},
-  {"type":"讲解", "content":"到最后什么都没有啊。"},
-  {"type":"讲解", "content":"那么这只小猴呢，也挺可怜的。"},
-  {"type":"发起", "content":"你想对他说什么？"}
+  {"type":"讲解", "content":"还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"},
+  {"type":"发起", "content":"那么这只小猴呢，也挺可怜的。你想对他说什么？"}
 ]</t>
+  </si>
+  <si>
+    <t>[
+{"type":"讲解","content":"乌鸦说过了，咱们不重复。"},
+{"type":"发起","content":"你不着急吗？意思就是说你会着急的，是不是啊？"},
+{"type":"讲解","content":"意思一样啊。"},
+{"type":"评价","content":"好，很好，掌声鼓励。"},
+{"type":"讲解","content":"听了三只鸟儿的话，猴子可有想法了。"},
+{"type":"发起","content":"猴子是怎么想的？"},
+{"type":"讲解","content":"听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。"},
+{"type":"讲解","content":"他越来越没有耐心了，是吧？"},
+{"type":"发起","content":"现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。"},
+{"type":"讲解","content":"用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
+{"type":"发起","content":"猴子种了一棵梨树苗，预备起。"},
+{"type":"其它","content":"猴子，这些东西放下，我们来看一下板书。"},
+{"type":"讲解","content":"猴子呀他一开始很勤劳啊，还是种了一棵梨树。"},
+{"type":"讲解","content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。"},
+{"type":"讲解","content":"正当杏树成活的时候，喜鹊来劝他了。"},
+{"type":"讲解","content":"于是猴子又拔掉了，改种了桃树。"},
+{"type":"讲解","content":"正当桃树成活的时候，杜鹃又来劝说它了。"},
+{"type":"讲解","content":"这时候猴子又拔掉了，改种了。"},
+{"type":"讲解","content":"可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。"},
+{"type":"讲解","content":"到最后这只猴子什么树也没有成。"},
+{"type":"讲解","content":"对呀，这只猴子什么树也没有种成。"},
+{"type":"发起","content":"除了它没耐心，它还没什么？"},
+{"type":"评价","content":"你说，说的真好。"},
+{"type":"讲解","content":"还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？"},
+{"type":"讲解","content":"到最后什么都没有啊。"},
+{"type":"讲解","content":"那么这只小猴呢，也挺可怜的。"},
+{"type":"发起","content":"你想对他说什么？"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "你不着急吗？意思就是说你会着急的，是不是啊？"},
+  {"type": "讲解", "content": "意思一样啊。"},
+  {"type": "评价", "content": "好，很好，掌声鼓励。"},
+  {"type": "发起", "content": "听了三只鸟儿的话，猴子可有想法了。猴子是怎么想的？"},
+  {"type": "讲解", "content": "听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及。说明这只猴子越来越没有耐心。他越来越没有耐心了，是吧？"},
+  {"type": "发起", "content": "现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
+  {"type": "发起", "content": "猴子种了一棵梨树苗，预备起。"},
+  {"type": "发起", "content": "猴子，这些东西放下，我们来看一下板书。猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"},
+  {"type": "讲解", "content": "对呀，这只猴子什么树也没有种成。"},
+  {"type": "发起", "content": "除了它没耐心，它还没什么？"},
+  {"type": "评价", "content": "你说，说的真好。"},
+  {"type": "讲解", "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"},
+  {"type": "发起", "content": "那么这只小猴呢，也挺可怜的。你想对他说什么？"}
+]
+```</t>
   </si>
   <si>
     <t xml:space="preserve">你有什么话， 想对他说说，汤子晨，你说，嗯，请坐，不要光听别人要有自己的想法，是不是，好，你有什么相对猴子说的，你要讲讲自己的想法，是不是，坚持把它种好是吧，对，好的，来你来说，嗯，没有耐心，就一事无成了，嗯，就是要有自己的主见，好，刘斌 ，坚持下去是不是非常好？你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人非常好，坚持到底，就是胜利，要有主见，有耐心，好，哎，那我们呀不能像小猴子这样没耐心，我们要耐心的学好每一节课，学好每一个词，今天呢我们要开始学习这篇课文后面的三个字，第一个字我先画个画， 你看这个改像一个小朋友啊，做错事儿，他跪在地上旁边呢有个人拿着拐杖在打他的小屁股，对不对，就是叫他知错就改对的啊，所以这个改字我们一起来写一写来小手笔伸出来一横折，预备起 ，对，它是左右结构反文， 我写在这里啊，横折写到横中线就停，横折再横中线竖提要短一些，这个就是就像跪着的小朋友啊，他在承认错误呢， 旁边呢啊一个人拿着鞭子再去打他的小屁股，是不是，要它改正错误啊，撇要到中间齐，捺要舒展，改字组词，好，你来，很好，好，再来一个同学，李春月，你来，你说，改革 ，你说，我们学下一个字，洗 x py y 预备起 x py，洗上结构，       </t>
@@ -1634,16 +2300,20 @@
 },
 {
 "type": "讲解",
-"content": "嗯，没有耐心，就一事无成了。嗯，就是要有自己的主见。好，刘斌，坚持下去，是不是？"
+"content": "嗯，没有耐心，就一事无成了。嗯，就是要有自己的主见。"
+},
+{
+"type": "发起",
+"content": "好，刘斌，坚持下去，是不是？"
 },
 {"type":"评价",
  "content":"非常好！你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"
 },
 {"type":"讲解",
- "content":"你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！坚持到底，就是胜利。要有主见，有耐心。好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"
-},
-{
-"type":"其它",
+ "content":"坚持到底，就是胜利。要有主见，有耐心。好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"
+},
+{
+"type":"发起",
 "content":"所以这个“改”字我们一起来写一写。来，小手笔伸出来。一横折，预备起，"
 },
 {
@@ -1663,7 +2333,7 @@
 "content": "好，再来一个同学，李春月，你来。"
 },
 {
-"type": "讲解",
+"type": "发起",
 "content": "你说，“改革”。"
 },
 {
@@ -1674,7 +2344,7 @@
 </t>
   </si>
   <si>
-    <t>{
+    <t xml:space="preserve">{
   "result": [
     {
 "type": "发起",
@@ -1690,67 +2360,131 @@
     },
     {
 "type": "其它",
-"content": "不要光听别人，要有自己的想法，是不是？好，"
-    },
-    {
-"type": "发起",
-"content": "你有什么想对猴子说的？"
+"content": "不要光听别人，要有自己的想法，是不是？"
+    },
+    {
+"type": "发起",
+"content": "好，你有什么想对猴子说的？"
     },
     {
 "type": "发起",
 "content": "你要讲讲自己的想法，是不是？"
     },
     {
+"type": "讲解",
+"content": "坚持把它种好，是吧？"
+    },
+    {
+"type": "评价",
+"content": "对，好的，来，你来说。"
+    },
+    {
+"type": "讲解",
+"content": "嗯，没有耐心，就一事无成了。"
+    },
+    {
+"type": "讲解",
+"content": "嗯，就是要有自己的主见。"
+    },
+    {
+"type": "发起",
+"content": "好，刘斌，坚持下去，是不是？"
+    },
+    {
+"type": "评价",
+"content": "非常好！"
+    },
+    {
+"type": "讲解",
+"content": "你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，"
+    },
+    {
+"type": "评价",
+"content": "非常好！"
+    },
+    {
+"type": "讲解",
+"content": "坚持到底，就是胜利。"
+    },
+    {
+"type": "讲解",
+"content": "要有主见，有耐心。"
+    },
+    {
 "type": "其它",
-"content": "坚持把它种好，是吧？对，好的，来，"
-    },
-    {
-"type": "发起",
-"content": "你来说。"
+"content": "好，"
     },
     {
 "type": "其它",
-"content": "嗯，"
-    },
-    {
-"type": "讲解",
-"content": "没有耐心，就一事无成了。嗯，就是要有自己的主见。"
-    },
-    {
-"type": "发起",
-"content": "好，刘斌，坚持下去，是不是？"
-    },
-    {
-"type": "评价",
-"content": "非常好！你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"
+"content": "哎，那我们呀，不能像小猴子这样没耐心。"
+    },
+    {
+"type": "讲解",
+"content": "我们要耐心地学好每一节课，学好每一个词。"
     },
     {
 "type": "其它",
-"content": "坚持到底，就是胜利。要有主见，有耐心。好，哎，"
-    },
-    {
-"type": "讲解",
-"content": "那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。"
+"content": "今天呢，我们要开始学习这篇课文后面的三个字。第一个字，"
     },
     {
 "type": "其它",
-"content": "你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"
-    },
-    {
-"type": "发起",
-"content": "所以这个“改”字我们一起来写一写。来，小手笔伸出来。一横折，预备起，对。"
-    },
-    {
-"type": "讲解",
-"content": "它是左右结构反文。我写在这里啊。横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。"
+"content": "我先画个画。"
+    },
+    {
+"type": "讲解",
+"content": "你看这个“改”像一个小朋友啊，做错事儿，"
+    },
+    {
+"type": "讲解",
+"content": "他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？"
+    },
+    {
+"type": "讲解",
+"content": "就是叫他知错就改，对的啊。"
+    },
+    {
+"type": "发起",
+"content": "所以这个“改”字我们一起来写一写。"
+    },
+    {
+"type": "发起",
+"content": "来，小手笔伸出来。"
+    },
+    {
+"type": "发起",
+"content": "一横折，预备起，"
+    },
+    {
+"type": "讲解",
+"content": "对。它是左右结构反文。"
     },
     {
 "type": "其它",
-"content": "旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。撇要到中间齐，捺要舒展。"
-    },
-    {
-"type": "发起",
-"content": "“改”字组词。好，你来。"
+"content": "我写在这里啊。"
+    },
+    {
+"type": "讲解",
+"content": "横折写到横中线就停，横折再横中线竖提要短一些，"
+    },
+    {
+"type": "讲解",
+"content": "这个就像跪着的小朋友啊，他在承认错误呢。"
+    },
+    {
+"type": "讲解",
+"content": "旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。"
+    },
+    {
+"type": "讲解",
+"content": "撇要到中间齐，捺要舒展。"
+    },
+    {
+"type": "发起",
+"content": "“改”字组词。"
+    },
+    {
+"type": "发起",
+"content": "好，你来。"
     },
     {
 "type": "评价",
@@ -1758,7 +2492,11 @@
     },
     {
 "type": "发起",
-"content": "好，再来一个同学，李春月，你来。"
+"content": "好，再来一个同学，"
+    },
+    {
+"type": "发起",
+"content": "李春月，你来。"
     },
     {
 "type": "发起",
@@ -1766,10 +2504,19 @@
     },
     {
 "type": "发起",
-"content": "你说，我们学下一个字，“洗”，预备起。洗上结构。"
+"content": "你说，"
+    },
+    {
+"type": "发起",
+"content": "我们学下一个字，“洗”，预备起。"
+    },
+    {
+"type": "讲解",
+"content": "洗上结构。"
     }
   ]
-}</t>
+}
+</t>
   </si>
   <si>
     <t>[
@@ -1795,36 +2542,84 @@
   </si>
   <si>
     <t>[
-  {"type":"发起","content":"你有什么话，想对他说说？"},
-  {"type":"发起","content":"汤子晨，你说。"},
-  {"type":"评价","content":"嗯，请坐。"},
+  {"type":"发起","content":"你有什么话，想对他说说？汤子晨，你说。"},
+  {"type":"其它","content":"嗯，请坐。"},
   {"type":"讲解","content":"不要光听别人，要有自己的想法，是不是？"},
-  {"type":"发起","content":"好，你有什么想对猴子说的？"},
-  {"type":"发起","content":"你要讲讲自己的想法，是不是？"},
+  {"type":"发起","content":"好，你有什么想对猴子说的？你要讲讲自己的想法，是不是？"},
   {"type":"讲解","content":"坚持把它种好，是吧？"},
   {"type":"评价","content":"对，好的，来，你来说。"},
   {"type":"讲解","content":"嗯，没有耐心，就一事无成了。"},
   {"type":"讲解","content":"嗯，就是要有自己的主见。"},
   {"type":"发起","content":"好，刘斌，坚持下去，是不是？"},
-  {"type":"评价","content":"非常好！"},
-  {"type":"讲解","content":"你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"},
+  {"type":"评价","content":"非常好！你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"},
   {"type":"讲解","content":"坚持到底，就是胜利。要有主见，有耐心。"},
   {"type":"讲解","content":"好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。"},
-  {"type":"讲解","content":"今天呢，我们要开始学习这篇课文后面的三个字。"},
+  {"type":"发起","content":"今天呢，我们要开始学习这篇课文后面的三个字。"},
   {"type":"讲解","content":"第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"},
-  {"type":"讲解","content":"所以这个“改”字我们一起来写一写。"},
+  {"type":"其它","content":"所以这个“改”字我们一起来写一写。"},
   {"type":"发起","content":"来，小手笔伸出来。"},
   {"type":"讲解","content":"一横折，预备起，对。它是左右结构反文。我写在这里啊。"},
   {"type":"讲解","content":"横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。"},
   {"type":"讲解","content":"旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。"},
-  {"type":"发起","content":"撇要到中间齐，捺要舒展。“改”字组词。"},
+  {"type":"讲解","content":"撇要到中间齐，捺要舒展。“改”字组词。"},
   {"type":"发起","content":"好，你来。"},
   {"type":"评价","content":"很好！"},
   {"type":"发起","content":"好，再来一个同学，李春月，你来。"},
-  {"type":"发起","content":"你说，“改革”。"},
-  {"type":"发起","content":"你说，我们学下一个字，“洗”，预备起。"},
+  {"type":"发起","content":"你说，“改革”。你说，我们学下一个字，“洗”，预备起。"},
   {"type":"讲解","content":"洗上结构。"}
 ]</t>
+  </si>
+  <si>
+    <t>[
+  {"type": "发起", "content": "你有什么话，想对他说说？汤子晨，你说。"},
+  {"type": "其它", "content": "嗯，请坐。"},
+  {"type": "讲解", "content": "不要光听别人，要有自己的想法，是不是？"},
+  {"type": "发起", "content": "好，你有什么想对猴子说的？你要讲讲自己的想法，是不是？"},
+  {"type": "讲解", "content": "坚持把它种好，是吧？"},
+  {"type": "评价", "content": "对，好的，来，你来说。"},
+  {"type": "讲解", "content": "嗯，没有耐心，就一事无成了。"},
+  {"type": "讲解", "content": "嗯，就是要有自己的主见。"},
+  {"type": "发起", "content": "好，刘斌，坚持下去，是不是？"},
+  {"type": "评价", "content": "非常好！你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"},
+  {"type": "讲解", "content": "坚持到底，就是胜利。要有主见，有耐心。"},
+  {"type": "讲解", "content": "好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。"},
+  {"type": "讲解", "content": "今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"},
+  {"type": "发起", "content": "所以这个“改”字我们一起来写一写。"},
+  {"type": "其它", "content": "来，小手笔伸出来。一横折，预备起，对。它是左右结构反文。我写在这里啊。横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。"},
+  {"type": "讲解", "content": "撇要到中间齐，捺要舒展。“改”字组词。"},
+  {"type": "发起", "content": "好，你来。"},
+  {"type": "评价", "content": "很好！"},
+  {"type": "发起", "content": "好，再来一个同学，李春月，你来。"},
+  {"type": "评价", "content": "你说，“改革”。"},
+  {"type": "发起", "content": "你说，我们学下一个字，“洗”，预备起。"}
+]</t>
+  </si>
+  <si>
+    <t>```json
+[
+  {"type": "发起", "content": "你有什么话，想对他说说？"},
+  {"type": "发起", "content": "汤子晨，你说。"},
+  {"type": "评价", "content": "嗯，请坐。"},
+  {"type": "讲解", "content": "不要光听别人，要有自己的想法，是不是？"},
+  {"type": "发起", "content": "好，你有什么想对猴子说的？"},
+  {"type": "讲解", "content": "你要讲讲自己的想法，是不是？"},
+  {"type": "讲解", "content": "坚持把它种好，是吧？"},
+  {"type": "发起", "content": "对，好的，来，你来说。"},
+  {"type": "评价", "content": "嗯，没有耐心，就一事无成了。"},
+  {"type": "讲解", "content": "嗯，就是要有自己的主见。"},
+  {"type": "发起", "content": "好，刘斌，坚持下去，是不是？"},
+  {"type": "评价", "content": "非常好！"},
+  {"type": "讲解", "content": "你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人，非常好！"},
+  {"type": "讲解", "content": "坚持到底，就是胜利。要有主见，有耐心。"},
+  {"type": "发起", "content": "好，哎，那我们呀，不能像小猴子这样没耐心。我们要耐心地学好每一节课，学好每一个词。"},
+  {"type": "讲解", "content": "今天呢，我们要开始学习这篇课文后面的三个字。第一个字，我先画个画。你看这个“改”像一个小朋友啊，做错事儿，他跪在地上，旁边呢，有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改，对的啊。"},
+  {"type": "发起", "content": "所以这个“改”字我们一起来写一写。来，小手笔伸出来。一横折，预备起，对。它是左右结构反文。我写在这里啊。横折写到横中线就停，横折再横中线竖提要短一些，这个就像跪着的小朋友啊，他在承认错误呢。旁边呢，一个人拿着鞭子再去打他的小屁股，是不是？要它改正错误啊。撇要到中间齐，捺要舒展。“改”字组词。"},
+  {"type": "发起", "content": "好，你来。"},
+  {"type": "评价", "content": "很好！"},
+  {"type": "发起", "content": "好，再来一个同学，李春月，你来。"},
+  {"type": "讲解", "content": "你说，“改革”。你说，我们学下一个字，“洗”，预备起。洗上结构。"}
+]
+```</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +2643,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2466,13 +3260,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2823,18 +3614,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="6" width="40.625" customWidth="1"/>
+    <col min="1" max="8" width="50.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:6">
+    <row r="1" ht="22.5" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2853,229 +3644,301 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="409" customHeight="1" spans="1:6">
+    <row r="2" ht="409" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" ht="409" customHeight="1" spans="1:6">
+    <row r="3" ht="409" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="409" customHeight="1" spans="1:6">
+    <row r="4" ht="409" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" ht="409" customHeight="1" spans="1:6">
+    <row r="5" ht="409" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" ht="409" customHeight="1" spans="1:6">
+    <row r="6" ht="409" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" ht="409" customHeight="1" spans="1:6">
+    <row r="7" ht="409" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" ht="409" customHeight="1" spans="1:6">
+    <row r="8" ht="409" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" ht="409" customHeight="1" spans="1:6">
+    <row r="9" ht="409" customHeight="1" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="10" ht="409" customHeight="1" spans="1:6">
+    <row r="10" ht="409" customHeight="1" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="11" ht="409" customHeight="1" spans="1:6">
+    <row r="11" ht="409" customHeight="1" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="12" ht="409" customHeight="1" spans="1:6">
+    <row r="12" ht="409" customHeight="1" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/726四分类法.xlsx
+++ b/data/726四分类法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,8 @@
 ]</t>
   </si>
   <si>
-    <t>[
+    <t xml:space="preserve">
+[
 {"type":"发起","content":"请袁艺喊‘开始上课’，声音要响亮啊。"},
 {"type":"发起","content":"同学们好，请坐。"},
 {"type":"评价","content":"真棒。"},
@@ -201,10 +202,10 @@
 {"type":"其它","content":"那等一下啊。"},
 {"type":"发起","content":"好，你来读。"},
 {"type":"发起","content":"‘猴子’。"},
-{"type":"其它","content":"嗯嗯，你先不要坐下，这个‘天天’说明什么呀？"}</t>
-  </si>
-  <si>
-    <t>```json
+{"type":"其它","content":"嗯嗯，你先不要坐下，这个‘天天’说明什么呀？"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "请袁艺喊“开始上课”，声音要响亮啊。"},
   {"type": "发起", "content": "同学们好，请坐。"},
@@ -227,7 +228,7 @@
   {"type": "其它", "content": "那等一下啊。好，你来读。“猴子”。"},
   {"type": "其它", "content": "嗯嗯，你先不要坐下，这个“天天”说明什么呀？"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">嗯，细心，还有呢，他每天都去浇，天天都去浇水施肥，说明他怎么样，对，非常勤劳，猴子是不是很勤劳，你们看这个猴子种树啊，它有一个动作的过程，你们找到了动作了吗，好，你来， 现在就直接浇水了吗， 然后呢 ，嗯施肥， 然后等着将来可以吃梨子了，好， 我们按照这个顺序啊， 把故事的开头自己在下面讲一讲，好不好， 来，老师话语：好，谁来把故事的开头讲给我们听，刘若涵，哇， 这只猴子呀，真勤劳， 而且我看出来了，你整的口水都快流出来了， 是不是好非常好，那接下来我要加大难度了，唉， 没有提示你还能不能把刚刚的故事开头讲给我们听， 张文婷，棒不棒，好熟练啊，把故事啊，这么大声的就告诉我们了，非常好，这时候谁来，这时候谁来，你说，乌鸦来，好，乌鸦哇哇的对猴子说了什么呢，谁来做一下乌鸦， 董新磊，哦，这只小乌鸦读的真好， 读的真顺畅啊，再请一只小乌鸦， 好，你来小乌鸦，哎，小乌鸦你等等啊，你为什么要连喊两声，猴哥呀，叫一声就可以了呀，你为什么， 还连喊两声呀，你觉得猴哥可能会听不见，是不是啊， </t>
@@ -463,7 +464,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "评价", "content": "嗯，细心。"},
   {"type": "发起", "content": "还有呢？"},
@@ -483,7 +484,7 @@
   {"type": "评价", "content": "董新磊，哦，这只小乌鸦读的真好，读的真顺畅啊。再请一只小乌鸦，好，你来小乌鸦。"},
   {"type": "发起", "content": "哎，小乌鸦你等等啊。你为什么要连喊两声“猴哥”呀？叫一声就可以了呀。你为什么还连喊两声呀？你觉得猴哥可能会听不见，是不是啊？"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t>好的，你连叫两声， 猴哥给我听听，哎，猴哥听见了来，我们学着他的样子， 小乌鸦们叫两声猴哥，，猴哥听见了，好， 小乌鸦继续说下去，你怎么种了梨树呢， 这句话什么意思，哎，你怎么种梨树呢，我给你两个选择好不好， 一是你不可以种梨树， 是不是这个意思，还是说你可以种梨树，应该是第一个选项， 是不是，你怎么种梨树，意思就是说你不是可以种梨树啊， 是不是啊，哎这里来一个反问， 这个语气怎么样就更着急了，对不对，这小乌鸦很着急呀， 想劝猴子呀，是不是啊，好， 来小乌鸦继续劝下去，好，农谚是什么意思，你说，好，这个农谚啊就是农民伯伯， 他们不是长期的在农田里劳动吗，他们把长期劳动的经验浓缩成简单一句话，这里的农谚是什么，对梨五杏四是什么意思啊，你看这么长的话，它用四个字就能概括，是不是啊，很好说了一句农谚， 小乌鸦对着猴哥说了一句农谚，接着说下去，哎呀，小乌鸦你在这里又来了一问，说明你怎么样啊，哦， 你有这个耐心吗，就是说你没这个耐心啊， 是不是啊，你看这里又来一问， 语气就更强烈真棒，</t>
@@ -684,7 +685,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "其它", "content": "好的，你连叫两声。"},
   {"type": "发起", "content": "猴哥，给我听听。"},
@@ -703,7 +704,7 @@
   {"type": "讲解", "content": "哦，你有这个耐心吗？就是说你没这个耐心啊，是不是啊？你看，这里又来一问，语气就更强烈。"},
   {"type": "评价", "content": "真棒。"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve"> 哪知小乌鸦再来试试看，再来劝劝猴哥，你来，欢迎陈一坤，哎，这只小乌鸦讲的好不好？非常棒， 真好，来加上前面这一段， 来小乌鸦，我建议你们自己在下面练一练，说一说，啊，谁来做小乌鸦来劝劝猴子，好，梁振轩，嗯，非常好， 给他掌声， 猴哥听了，肯定有想法了，是不是呀？哎好， 那一只小乌鸦再来试试。刚刚这只小乌鸦真不错， 真是一只热情的小乌鸦，好，你来， 嗯，为这只热情的小乌鸦鼓掌，啊啊，好， 除了乌鸦劝猴子，故事里还有谁在劝猴子了，嗯，先把书拿出来好不好，来把书现在打开， 把书翻到， 四十六页啊， 四十七页，找到之后， 把那个自己读一读， 好，除了乌鸦来劝猴子，还有谁来了， 来，你来说，嗯，喜鹊和杜鹃，好， 你来读读喜鹊是怎么对猴子说的， 也是一只热情的小喜鹊，好， 谁再来做做喜鹊来读读这段话， 好，你呃，我请来你来，这样子，我请女孩子来给大家读，好不好， 正当杏树成活的时候， 预备齐，好，接下来还有哪只鸟来劝猴子了，嗯， 这个森林里太热闹了，是不是，来薛子浩，你来说说， 嗯，真是一只可爱的小杜鹃， 请坐，好，再请一个同学来试试看，好，桓齐，嗯，谢谢你，小杜鹃，猴哥听到了，好，这课要请男孩子来做杜鹃，好不好，把这段话来读一读啊，正当桃树成活的时候， 预备起 ，</t>
@@ -884,7 +885,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "你来，欢迎陈一坤。"},
   {"type": "评价", "content": "哎，这只小乌鸦讲的好不好？非常棒，真好。"},
@@ -915,7 +916,7 @@
   {"type": "发起", "content": "好，这课要请男孩子来做杜鹃，好不好？把这段话来读一读啊。"},
   {"type": "发起", "content": "正当桃树成活的时候，预备起。"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t>真的是男孩子今天读的真好， 而且很多女孩子也在认真听，我也要表扬， 非常好啊，来同学们，你们来看啊， 乌鸦喜鹊杜鹃都来劝猴子了， 他们劝猴子说的话的时候又有什么相似之处吗， 找找规律看， 秦源， 你找到什么，很好，对不对，它们的叫声对不对，那我们来继续看啊， 乌鸦喜鹊杜鹃，哎，很好， 谁都有叫声，好，他找到的相似处真棒， 还有一个，一共三段话，好农谚，那么在农谚之前，先连叫几只猴哥， 对，你们看乌鸦对猴子说也是猴哥猴哥， 喜鹊对猴子说也是猴哥猴哥，对对，杜鹃对猴子说的时候， 也是连叫两声猴哥猴哥 ，这个三只小鸟也是非常急， 对不对，想要叫猴哥听到是不是， 然后再像周浩天说的一样， 要来一句问句，对不对，你怎么种梨树呢，喜鹊说你怎么种，杏树呢，杜鹃说，猴哥猴哥你怎么种桃树呢， 意思都在说你不可以种的杏树，你不可以种桃树，好，然后再来一句农谚，好，来，还有，你说，有句农谚就是说了农谚，对， 就是在说这个重量级， 对不对，来， 最后一句你有这个耐心吗，然后再找第四段喜鹊对猴子说最后一句话是，有的同学没有找到，没有在认真听讲， 要找的快呀，认真一点，现在都在录课，还有人脚是没有放平， 今天都要练习一下坐姿，好， 然后，好，杜鹃对猴子说的最后一句话是什么，</t>
@@ -1024,7 +1025,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "评价", "content": "真的是男孩子今天读的真好，而且很多女孩子也在认真听，我也要表扬，非常好啊。"},
   {"type": "发起", "content": "来，同学们，你们来看啊。乌鸦、喜鹊、杜鹃都来劝猴子了。他们劝猴子说的话的时候又有什么相似之处吗？找找规律看。"},
@@ -1038,7 +1039,7 @@
   {"type": "其它", "content": "有的同学没有找到，没有在认真听讲。要找的快呀，认真一点。现在都在录课，还有人脚是没有放平。今天都要练习一下坐姿。"},
   {"type": "发起", "content": "好，然后，好，杜鹃对猴子说的最后一句话是什么？"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">好，把三句话来说一说， 我再问乌鸦对猴子说的最后一句话是什么，好喜鹊对猴子说的最后一句话， 杜鹃对猴子说的最后一句话， 三句话意思一样吗，对一样，但是为什么这里他的说法不一样， 你有这么耐心吗，你能等得及吗，你不着急吗，都在说猴子怎么样， 都在说猴子怎么样，都在说猴子，会着急， 没耐心等不及， 是不是啊，这个猴子越来越着急，是的啊， 在这里他有三个不同的想法很好，你说还有什么， 啊很好， 他说出一个特点来这三句为什么不一样，如果三句都一样就没意思了， 读起来是不是这样子，让这个故事更丰富很好，同样的意思可以用不同的句子来表达， 这就是我们中国语言的神秘之处啊， 我们中国语言文字的奥秘所在，好，你说，你有什么补充，好，谢谢你的发现，你来说，正当成他们成活的时候，是不是，好，非常好，来孩子们这三段话居然找到相似之处，哎，那我们讲这个故事的时候， 是不是觉得很好讲，是的好的， 自己选一个角色，你可以选乌鸦，可以选喜鹊，也可以选杜鹃， 把他的这段话自己在下面练讲， 等一会儿像高婷一样站起来啊，很熟练的啊， 很有感情的告诉给大家， 好的啊，自己练好了，是不是，那可以讲给你的同桌好朋友听啊，哎如果你是讲乌鸦的话， 你讲给同桌听， </t>
@@ -1189,7 +1190,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "好，把三句话来说一说。"},
   {"type": "发起", "content": "我再问乌鸦对猴子说的最后一句话是什么。"},
@@ -1226,7 +1227,7 @@
   {"type": "发起", "content": "那可以讲给你的同桌好朋友听啊。"},
   {"type": "发起", "content": "哎，如果你是讲乌鸦的话，你讲给同桌听。"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">同桌如果讲喜趣的话呢， 那要反过来讲， 等一会下课再出去，啊， 是不是讲得差不多了，来小乌鸦来试试， 那等一会儿吧，我们毕竟有三十八个同学在等你们两个， 那太不好了啊， 那再给你一点时间啊，哎，你们很好尊重其它同学啊，好， 谁来试试，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话，好， 王子辰，这只乌鸦怎么样，好不好哦， 好厉害啊，这么一段话他都能够讲的啊，真的像故事里森林里那只飞来的小乌鸦，如果我们是猴哥的话，肯定是怎么样， 要听他的话非常好啊，下课方老师要给你敲个章，别忘了啊， 好，哪只小乌鸦再来试试，还可以加动作啊， 对嘛吧，这种动作加上就更好了啊， 因为讲故事嘛，不要一本正经， 是不是可以表演一些动作表情行都可以出来啊，好，你来试试，我们在讲乌鸦， 好的，等一儿请你好不好，好， 你这样吧，你上来吧， 好不好，我上来讲好不好，来掌声鼓励一起，哎呦，你看这只小乌鸦，你看一边飞，一边叫，好辛苦啊， 来，给他鼓励一点，有没有给他好的建议，不要一直飞， 是不是啊，可以怎么样，可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果，你有这个耐心吗， 可以这种动作做出来好不好，哎呦，好样的啊，能不能更好一点了， </t>
@@ -1375,7 +1376,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "同桌如果讲喜趣的话呢？那要反过来讲。"},
   {"type": "发起", "content": "等一会下课再出去，啊？是不是讲得差不多了？"},
@@ -1396,7 +1397,7 @@
   {"type": "讲解", "content": "不要一直飞，是不是啊？可以怎么样？可以换换其它动作。比如说梨五杏四啊，梨树要等五年才能结果。你有这个耐心吗？可以这种动作做出来，好不好？"},
   {"type": "评价", "content": "哎呦，好样的啊，能不能更好一点了？"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">能够把故事讲用一个，第二个能加上动作，来来第三个能不能表演的更好，哎， 加上表情啊，你来试试， 你是读乌鸦的话是吗，来上来小乌鸦，有请小乌鸦， 嗯，很好，表演的非常不错，三只小乌鸭都非常棒，你们三个小朋友都可以参加，好，接下来请演喜鹊的小朋友，谁来讲讲喜鹊的话，好，恭请， 啊，下面的小听众也要注意了啊人家上面表演的，那么认真，那你下面也要尊重这些小演员啊， 咦这个动作啊非常可爱啊，好的， 哎，如果这个再讲的通顺一点就更好了，是不是， 我来找下面讲话的小朋友，这样不好，哎， 哪怕他做的不好，你也不可以在下面窃窃私语， 这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字， 现在都没关系，那我请你来，你还不如她呢，不能在下面讲啊，来，我要表扬，能够举手，勇敢上台表扬的小朋友啊，好，开始， 好，如果你实在背不出啊，讲不出呢，方老师给你个提示啊，那正当杏树，我们在讲喜鹊，我们现在讲喜鹊， 那你刚刚准备的是哪只，好，等会演杜鹃的时候，我再请你来，我再请刚刚在下面做小动作的同学，脸抬起来，你不想看来你来，隔壁脸，一点都不难为情，现在在录课，你不懂难为情的， 你来讲喜鹊的话，你刚准备了谁的，  </t>
@@ -1661,7 +1662,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "能够把故事讲用一个。第二个能加上动作。来来，第三个能不能表演得更好？哎，加上表情啊。"},
   {"type": "发起", "content": "你来试试。"},
@@ -1691,7 +1692,7 @@
   {"type": "发起", "content": "你来讲喜鹊的话。"},
   {"type": "发起", "content": "你刚准备了谁的？"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">不行，你按照老师的要求去做， 请坐，要批评， 你等会儿三十秒的话都到我这来，一定要积极思考， 不是自己坐在那里， 想不读就不读，还有也不是在那里随便想讲话就讲话，你坐端正， 坐好，快点坐下来，对，没有举手的我也要请，上课，就要积极开动脑筋，像上次开汇总课一样， 每个同学都认真举手，好，往下面来你是读喜鹊的话啊，喜鹊来啊，喜鹊小喜鹊停来上来来表演啊，忘记了，可以稍微看一下啊，杏四桃三，请坐啊，虽然她讲的不流畅啊，但是他确实是勇敢的上台，而且他刚刚坐在下面是认真听的啊，最起码比下面不敢举手的小朋友要勇敢，这一点我就要鼓励，你是喜鹊来， 再请只喜鹊，喜鹊没有刚刚乌鸦讲的好， 对我要请只非常棒的小喜鹊，嗯，哎掌声鼓励，但是讲小故事的小朋友不是背书可以加上动作，像刚刚几只小乌鸦就扮演的非常好啊，好， 接下来请来演小杜鹃，好的，你来， 嗯，我的书在上面， 你实在忘记了，可以看一下提示啊，你有这个耐心吗，你前面用过了，前面乌鸦已经说过了，请坐好掌声鼓励一下， 小杜鹃有点严肃啊，好啦，这小杜鹃可爱一点， 活泼一点，猴哥猴哥，着急一点好不好，来谁再来演一演，你来罗若涵， 结果你有这么大耐心吗，你有这个耐心，谁说过了啊， </t>
@@ -2019,7 +2020,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-{"type":"评价","content":"不行，你按照老师的要求去做。要批评。"},
+[{"type":"评价","content":"不行，你按照老师的要求去做。要批评。"},
 {"type":"其它","content":"请坐。你等会儿三十秒的话都到我这来。"},
 {"type":"讲解","content":"一定要积极思考，不是自己坐在那里。想不读就不读。还有，也不是在那里随便想讲话就讲话。"},
 {"type":"发起","content":"你坐端正，坐好，快点坐下来。"},
@@ -2046,7 +2047,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "批评", "content": "不行，你按照老师的要求去做。"},
   {"type": "其它", "content": "请坐。"},
@@ -2072,7 +2073,7 @@
   {"type": "发起", "content": "猴哥猴哥，着急一点好不好？来，谁再来演一演？"},
   {"type": "发起", "content": "你来罗若涵。结果你有这么大耐心吗？你有这个耐心，谁说过了啊。"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">乌鸦说过了，咱们不重复， 你不着急吗？ 意思就是说你会着急的，是不是啊意思一样啊，好，很好，掌声鼓励， 听了三只鸟儿的话，猴子可有想法了，猴子是怎么想的，听了乌鸦的话，猴子一想，你们瞧，可等不及，也等不及，还是等不及，说明这只猴子越来越越来越没有耐心， 他越来越没有耐心了，是吧，现在呀我们拿起书本，把这个故事啊从头到尾再来背一背，用上，刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊，猴子种了一棵梨树苗，预备起猴子， 这些东西放下我们来看一下板书，猴子呀他一开始很勤劳啊，还是种了一棵梨树，可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了，正当杏树成成活的时候，喜鹊来劝他了，于是猴子又拔掉了，改种了桃树， 正当桃树成活的时候，杜鹃又来劝说它了，这时候猴子又拔掉了，改中了， 可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活到最后这只猴子什么树也没有成，对呀，这只猴子什么树也没有种成，除了它没耐，他还没什么， 你说，说的真好，还没有主见， 别人说什么他就听什么，没有自己的想法，是不是啊，到最后什么都没有啊， 那么这只小猴呢，也挺可怜的，你想对他说什么，  </t>
@@ -2240,7 +2241,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "你不着急吗？意思就是说你会着急的，是不是啊？"},
   {"type": "讲解", "content": "意思一样啊。"},
@@ -2256,7 +2257,7 @@
   {"type": "讲解", "content": "还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"},
   {"type": "发起", "content": "那么这只小猴呢，也挺可怜的。你想对他说什么？"}
 ]
-```</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">你有什么话， 想对他说说，汤子晨，你说，嗯，请坐，不要光听别人要有自己的想法，是不是，好，你有什么相对猴子说的，你要讲讲自己的想法，是不是，坚持把它种好是吧，对，好的，来你来说，嗯，没有耐心，就一事无成了，嗯，就是要有自己的主见，好，刘斌 ，坚持下去是不是非常好？你这句话不仅是送给猴子的，而且还是要送给我们在座的每一个人非常好，坚持到底，就是胜利，要有主见，有耐心，好，哎，那我们呀不能像小猴子这样没耐心，我们要耐心的学好每一节课，学好每一个词，今天呢我们要开始学习这篇课文后面的三个字，第一个字我先画个画， 你看这个改像一个小朋友啊，做错事儿，他跪在地上旁边呢有个人拿着拐杖在打他的小屁股，对不对，就是叫他知错就改对的啊，所以这个改字我们一起来写一写来小手笔伸出来一横折，预备起 ，对，它是左右结构反文， 我写在这里啊，横折写到横中线就停，横折再横中线竖提要短一些，这个就是就像跪着的小朋友啊，他在承认错误呢， 旁边呢啊一个人拿着鞭子再去打他的小屁股，是不是，要它改正错误啊，撇要到中间齐，捺要舒展，改字组词，好，你来，很好，好，再来一个同学，李春月，你来，你说，改革 ，你说，我们学下一个字，洗 x py y 预备起 x py，洗上结构，       </t>
@@ -2595,7 +2596,7 @@
 ]</t>
   </si>
   <si>
-    <t>```json
+    <t xml:space="preserve">
 [
   {"type": "发起", "content": "你有什么话，想对他说说？"},
   {"type": "发起", "content": "汤子晨，你说。"},
@@ -2619,7 +2620,7 @@
   {"type": "发起", "content": "好，再来一个同学，李春月，你来。"},
   {"type": "讲解", "content": "你说，“改革”。你说，我们学下一个字，“洗”，预备起。洗上结构。"}
 ]
-```</t>
+</t>
   </si>
 </sst>
 </file>
@@ -3616,13 +3617,15 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="50.775" customWidth="1"/>
+    <col min="1" max="3" width="50.7777777777778" customWidth="1"/>
+    <col min="4" max="6" width="50.7777777777778" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:8">

--- a/data/726四分类法.xlsx
+++ b/data/726四分类法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2202,7 +2202,7 @@
   {"type":"发起", "content":"现在呀我们拿起书本，把这个故事啊从头到尾再来背一背。用上刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊。"},
   {"type":"发起", "content":"猴子种了一棵梨树苗，预备起。"},
   {"type":"其它", "content":"猴子，这些东西放下，我们来看一下板书。猴子呀他一开始很勤劳啊，还是种了一棵梨树。"},
-  {"讲解": "content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"},
+  {"type":"讲解", "content":"可是当乌鸦来劝说它的时候，它就拔掉了梨树，改种了。正当杏树成活的时候，喜鹊来劝他了。于是猴子又拔掉了，改种了桃树。正当桃树成活的时候，杜鹃又来劝说它了。这时候猴子又拔掉了，改种了。可是有一句农谚叫，樱桃好吃，树难栽，一连几年都没有栽活。到最后这只猴子什么树也没有成。"},
   {"type":"讲解", "content":"对呀，这只猴子什么树也没有种成。除了它没耐心，它还没什么？"},
   {"type":"评价", "content":"你说，说的真好。"},
   {"type":"讲解", "content":"还没有主见，别人说什么他就听什么，没有自己的想法，是不是啊？到最后什么都没有啊。"},
@@ -3617,15 +3617,13 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="50.7777777777778" customWidth="1"/>
-    <col min="4" max="6" width="50.7777777777778" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="50.7777777777778" customWidth="1"/>
+    <col min="1" max="8" width="50.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:8">
